--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{371029C1-D405-469D-998E-F0161E514FED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A9A41907-4EEA-4B5D-A5B5-84E9331AC066}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6109,7 +6109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>1418</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>424</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>425</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>514</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>519</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>520</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>525</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>587</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>589</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>590</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>634</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>637</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>693</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>694</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>753</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>781</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>782</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="9" t="s">
         <v>973</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="9" t="s">
         <v>974</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="9" t="s">
         <v>975</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="s">
         <v>976</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="9" t="s">
         <v>978</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="9" t="s">
         <v>979</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="9" t="s">
         <v>980</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="9" t="s">
         <v>982</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="9" t="s">
         <v>983</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="9" t="s">
         <v>984</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="9" t="s">
         <v>986</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="9" t="s">
         <v>987</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="9" t="s">
         <v>988</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="9" t="s">
         <v>989</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="9" t="s">
         <v>1438</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="9" t="s">
         <v>991</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="9" t="s">
         <v>993</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="9" t="s">
         <v>994</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="9" t="s">
         <v>996</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="9" t="s">
         <v>997</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="9" t="s">
         <v>998</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="9" t="s">
         <v>1003</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="9" t="s">
         <v>1004</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="9" t="s">
         <v>1005</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="9" t="s">
         <v>1006</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="9" t="s">
         <v>1007</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="9" t="s">
         <v>1008</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="9" t="s">
         <v>1009</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="9" t="s">
         <v>1440</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="9" t="s">
         <v>1016</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A731" s="9" t="s">
         <v>1045</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A733" s="9" t="s">
         <v>1047</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A775" s="9" t="s">
         <v>1065</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A776" s="9" t="s">
         <v>1066</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="s">
         <v>1067</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A778" s="9" t="s">
         <v>1068</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A792" s="9" t="s">
         <v>1078</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A914" s="9" t="s">
         <v>1180</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A915" s="9" t="s">
         <v>1181</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A916" s="9" t="s">
         <v>1182</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A917" s="9" t="s">
         <v>1183</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A920" s="9" t="s">
         <v>1186</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="926" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A926" s="9" t="s">
         <v>1192</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A927" s="9" t="s">
         <v>1193</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A928" s="9" t="s">
         <v>1194</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="929" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A929" s="9" t="s">
         <v>1195</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="931" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A931" s="9" t="s">
         <v>1197</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="983" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A983" s="9" t="s">
         <v>1243</v>
       </c>
@@ -23741,6 +23741,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1199" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="Core"/>
@@ -23749,6 +23752,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
+        <filter val="Conversion"/>
         <filter val="FixedMemory"/>
       </filters>
     </filterColumn>

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A9A41907-4EEA-4B5D-A5B5-84E9331AC066}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{33C53661-524E-4D46-8467-129CBADD09D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6126" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6173" uniqueCount="1622">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -5318,8 +5318,8 @@
   <dimension ref="A1:F1231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A749" sqref="A749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6599,7 +6599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>514</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>519</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>520</v>
       </c>
@@ -6803,12 +6803,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>522</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="9"/>
+      <c r="C101" s="10"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
         <v>14</v>
@@ -6817,12 +6817,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>523</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="C102" s="9"/>
+      <c r="C102" s="10"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
         <v>14</v>
@@ -6831,12 +6831,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>524</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="9"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
         <v>14</v>
@@ -6845,7 +6845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>525</v>
       </c>
@@ -7473,12 +7473,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>567</v>
       </c>
       <c r="B147" s="10"/>
-      <c r="C147" s="9"/>
+      <c r="C147" s="10"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
         <v>14</v>
@@ -7723,12 +7723,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>582</v>
       </c>
       <c r="B164" s="10"/>
-      <c r="C164" s="9"/>
+      <c r="C164" s="10"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9" t="s">
         <v>14</v>
@@ -7737,12 +7737,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>583</v>
       </c>
       <c r="B165" s="10"/>
-      <c r="C165" s="9"/>
+      <c r="C165" s="10"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
         <v>14</v>
@@ -7793,7 +7793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>587</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>589</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>590</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>634</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>637</v>
       </c>
@@ -8853,7 +8853,9 @@
       <c r="A238" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B238" s="10"/>
+      <c r="B238" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C238" s="12"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9" t="s">
@@ -8983,12 +8985,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="B246" s="10"/>
-      <c r="C246" s="9"/>
+      <c r="B246" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C246" s="10"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9" t="s">
         <v>14</v>
@@ -9011,12 +9015,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="B248" s="10"/>
-      <c r="C248" s="9"/>
+      <c r="B248" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C248" s="10"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9" t="s">
         <v>14</v>
@@ -9025,12 +9031,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B249" s="10"/>
-      <c r="C249" s="9"/>
+      <c r="B249" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D249" s="9"/>
       <c r="E249" s="9" t="s">
         <v>14</v>
@@ -9039,12 +9049,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B250" s="10"/>
-      <c r="C250" s="9"/>
+      <c r="B250" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9" t="s">
         <v>14</v>
@@ -9053,12 +9067,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="B251" s="10"/>
-      <c r="C251" s="9"/>
+      <c r="B251" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D251" s="9"/>
       <c r="E251" s="9" t="s">
         <v>14</v>
@@ -9067,12 +9085,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B252" s="10"/>
-      <c r="C252" s="9"/>
+      <c r="B252" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9" t="s">
         <v>14</v>
@@ -9325,12 +9347,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>673</v>
       </c>
       <c r="B268" s="10"/>
-      <c r="C268" s="9"/>
+      <c r="C268" s="10"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9" t="s">
         <v>14</v>
@@ -9339,12 +9361,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>674</v>
       </c>
       <c r="B269" s="10"/>
-      <c r="C269" s="9"/>
+      <c r="C269" s="10"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9" t="s">
         <v>14</v>
@@ -9397,12 +9419,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>678</v>
       </c>
       <c r="B273" s="10"/>
-      <c r="C273" s="9"/>
+      <c r="C273" s="10"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9" t="s">
         <v>14</v>
@@ -9991,7 +10013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>693</v>
       </c>
@@ -10005,7 +10027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>694</v>
       </c>
@@ -11121,7 +11143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>753</v>
       </c>
@@ -11733,7 +11755,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>781</v>
       </c>
@@ -11747,7 +11769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>782</v>
       </c>
@@ -11865,12 +11887,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>789</v>
       </c>
       <c r="B435" s="10"/>
-      <c r="C435" s="9"/>
+      <c r="C435" s="10"/>
       <c r="D435" s="9"/>
       <c r="E435" s="9" t="s">
         <v>14</v>
@@ -12197,12 +12219,12 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
         <v>800</v>
       </c>
       <c r="B456" s="10"/>
-      <c r="C456" s="12"/>
+      <c r="C456" s="10"/>
       <c r="D456" s="9"/>
       <c r="E456" s="9" t="s">
         <v>14</v>
@@ -12211,12 +12233,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>801</v>
       </c>
       <c r="B457" s="10"/>
-      <c r="C457" s="9"/>
+      <c r="C457" s="10"/>
       <c r="D457" s="9"/>
       <c r="E457" s="9" t="s">
         <v>14</v>
@@ -12225,12 +12247,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>802</v>
       </c>
       <c r="B458" s="10"/>
-      <c r="C458" s="9"/>
+      <c r="C458" s="10"/>
       <c r="D458" s="9"/>
       <c r="E458" s="9" t="s">
         <v>14</v>
@@ -13057,12 +13079,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="B511" s="10"/>
-      <c r="C511" s="9"/>
+      <c r="B511" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D511" s="9"/>
       <c r="E511" s="9" t="s">
         <v>14</v>
@@ -13189,12 +13215,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="B519" s="10"/>
-      <c r="C519" s="9"/>
+      <c r="B519" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D519" s="9"/>
       <c r="E519" s="9" t="s">
         <v>14</v>
@@ -13237,12 +13267,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A522" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="B522" s="10"/>
-      <c r="C522" s="9"/>
+      <c r="B522" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D522" s="9"/>
       <c r="E522" s="9" t="s">
         <v>14</v>
@@ -13251,12 +13285,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="B523" s="10"/>
-      <c r="C523" s="9"/>
+      <c r="B523" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D523" s="9"/>
       <c r="E523" s="9" t="s">
         <v>14</v>
@@ -13379,12 +13417,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="B531" s="10"/>
-      <c r="C531" s="9"/>
+      <c r="B531" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D531" s="9"/>
       <c r="E531" s="9" t="s">
         <v>14</v>
@@ -13393,12 +13435,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="B532" s="10"/>
-      <c r="C532" s="9"/>
+      <c r="B532" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D532" s="9"/>
       <c r="E532" s="9" t="s">
         <v>14</v>
@@ -13489,12 +13535,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="B538" s="10"/>
-      <c r="C538" s="9"/>
+      <c r="B538" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C538" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D538" s="9"/>
       <c r="E538" s="9" t="s">
         <v>14</v>
@@ -13503,12 +13553,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="B539" s="10"/>
-      <c r="C539" s="9"/>
+      <c r="B539" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D539" s="9"/>
       <c r="E539" s="9" t="s">
         <v>14</v>
@@ -13517,12 +13571,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="s">
         <v>864</v>
       </c>
       <c r="B540" s="10"/>
-      <c r="C540" s="9"/>
+      <c r="C540" s="10"/>
       <c r="D540" s="9"/>
       <c r="E540" s="9" t="s">
         <v>14</v>
@@ -14239,12 +14293,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="B585" s="10"/>
-      <c r="C585" s="9"/>
+      <c r="B585" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D585" s="9"/>
       <c r="E585" s="9" t="s">
         <v>14</v>
@@ -14253,12 +14311,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A586" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="B586" s="10"/>
-      <c r="C586" s="9"/>
+      <c r="B586" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C586" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D586" s="9"/>
       <c r="E586" s="9" t="s">
         <v>14</v>
@@ -14267,12 +14329,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
         <v>908</v>
       </c>
-      <c r="B587" s="10"/>
-      <c r="C587" s="9"/>
+      <c r="B587" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D587" s="9"/>
       <c r="E587" s="9" t="s">
         <v>14</v>
@@ -14281,26 +14347,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="s">
         <v>909</v>
       </c>
       <c r="B588" s="10"/>
-      <c r="C588" s="9"/>
+      <c r="C588" s="10"/>
       <c r="D588" s="9"/>
       <c r="E588" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F588" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="589" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="B589" s="10"/>
-      <c r="C589" s="9"/>
+      <c r="B589" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D589" s="9"/>
       <c r="E589" s="9" t="s">
         <v>14</v>
@@ -14309,12 +14379,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="B590" s="10"/>
-      <c r="C590" s="9"/>
+      <c r="B590" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C590" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D590" s="9"/>
       <c r="E590" s="9" t="s">
         <v>14</v>
@@ -14323,12 +14397,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="B591" s="10"/>
-      <c r="C591" s="9"/>
+      <c r="B591" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D591" s="9"/>
       <c r="E591" s="9" t="s">
         <v>14</v>
@@ -14337,12 +14415,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="B592" s="10"/>
-      <c r="C592" s="9"/>
+      <c r="B592" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C592" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D592" s="9"/>
       <c r="E592" s="9" t="s">
         <v>14</v>
@@ -14351,12 +14433,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="B593" s="10"/>
-      <c r="C593" s="9"/>
+      <c r="B593" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D593" s="9"/>
       <c r="E593" s="9" t="s">
         <v>14</v>
@@ -14365,18 +14451,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
         <v>915</v>
       </c>
       <c r="B594" s="10"/>
-      <c r="C594" s="9"/>
+      <c r="C594" s="10"/>
       <c r="D594" s="9"/>
       <c r="E594" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F594" s="9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16055,12 +16141,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A700" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="B700" s="10"/>
-      <c r="C700" s="9"/>
+      <c r="B700" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C700" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D700" s="9"/>
       <c r="E700" s="9" t="s">
         <v>14</v>
@@ -16069,12 +16159,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A701" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="B701" s="10"/>
-      <c r="C701" s="9"/>
+      <c r="B701" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C701" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D701" s="9"/>
       <c r="E701" s="9" t="s">
         <v>14</v>
@@ -16233,12 +16327,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A712" s="9" t="s">
         <v>1436</v>
       </c>
       <c r="B712" s="10"/>
-      <c r="C712" s="9"/>
+      <c r="C712" s="10"/>
       <c r="D712" s="9"/>
       <c r="E712" s="9" t="s">
         <v>14</v>
@@ -16473,12 +16567,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A728" s="9" t="s">
         <v>1042</v>
       </c>
       <c r="B728" s="10"/>
-      <c r="C728" s="9"/>
+      <c r="C728" s="10"/>
       <c r="D728" s="9"/>
       <c r="E728" s="9" t="s">
         <v>14</v>
@@ -16523,7 +16617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="9" t="s">
         <v>1045</v>
       </c>
@@ -16551,7 +16645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="9" t="s">
         <v>1047</v>
       </c>
@@ -16565,12 +16659,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A734" s="9" t="s">
         <v>1048</v>
       </c>
       <c r="B734" s="10"/>
-      <c r="C734" s="9"/>
+      <c r="C734" s="10"/>
       <c r="D734" s="9"/>
       <c r="E734" s="9" t="s">
         <v>14</v>
@@ -16633,12 +16727,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A738" s="9" t="s">
         <v>1052</v>
       </c>
       <c r="B738" s="10"/>
-      <c r="C738" s="9"/>
+      <c r="C738" s="10"/>
       <c r="D738" s="9"/>
       <c r="E738" s="9" t="s">
         <v>14</v>
@@ -16769,12 +16863,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A747" s="9" t="s">
         <v>1061</v>
       </c>
       <c r="B747" s="10"/>
-      <c r="C747" s="9"/>
+      <c r="C747" s="10"/>
       <c r="D747" s="9"/>
       <c r="E747" s="9" t="s">
         <v>14</v>
@@ -16783,12 +16877,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A748" s="9" t="s">
         <v>1062</v>
       </c>
       <c r="B748" s="10"/>
-      <c r="C748" s="9"/>
+      <c r="C748" s="10"/>
       <c r="D748" s="9"/>
       <c r="E748" s="9" t="s">
         <v>14</v>
@@ -16797,12 +16891,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A749" s="9" t="s">
         <v>1063</v>
       </c>
       <c r="B749" s="10"/>
-      <c r="C749" s="9"/>
+      <c r="C749" s="10"/>
       <c r="D749" s="9"/>
       <c r="E749" s="9" t="s">
         <v>14</v>
@@ -17128,7 +17222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="9" t="s">
         <v>1065</v>
       </c>
@@ -17142,7 +17236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="9" t="s">
         <v>1066</v>
       </c>
@@ -17156,7 +17250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="s">
         <v>1067</v>
       </c>
@@ -17170,7 +17264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="9" t="s">
         <v>1068</v>
       </c>
@@ -17212,12 +17306,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A781" s="9" t="s">
         <v>1071</v>
       </c>
       <c r="B781" s="10"/>
-      <c r="C781" s="9"/>
+      <c r="C781" s="10"/>
       <c r="D781" s="9"/>
       <c r="E781" s="9" t="s">
         <v>14</v>
@@ -17226,12 +17320,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A782" s="9" t="s">
         <v>1072</v>
       </c>
       <c r="B782" s="10"/>
-      <c r="C782" s="9"/>
+      <c r="C782" s="10"/>
       <c r="D782" s="9"/>
       <c r="E782" s="9" t="s">
         <v>14</v>
@@ -17386,7 +17480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="9" t="s">
         <v>1078</v>
       </c>
@@ -18020,12 +18114,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A831" s="9" t="s">
         <v>1113</v>
       </c>
       <c r="B831" s="10"/>
-      <c r="C831" s="9"/>
+      <c r="C831" s="10"/>
       <c r="D831" s="9"/>
       <c r="E831" s="9" t="s">
         <v>14</v>
@@ -18034,12 +18128,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A832" s="9" t="s">
         <v>1114</v>
       </c>
       <c r="B832" s="10"/>
-      <c r="C832" s="9"/>
+      <c r="C832" s="10"/>
       <c r="D832" s="9"/>
       <c r="E832" s="9" t="s">
         <v>14</v>
@@ -19346,7 +19440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="9" t="s">
         <v>1180</v>
       </c>
@@ -19360,7 +19454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="9" t="s">
         <v>1181</v>
       </c>
@@ -19374,7 +19468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="9" t="s">
         <v>1182</v>
       </c>
@@ -19388,7 +19482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="9" t="s">
         <v>1183</v>
       </c>
@@ -19432,7 +19526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="9" t="s">
         <v>1186</v>
       </c>
@@ -19532,7 +19626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="926" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="9" t="s">
         <v>1192</v>
       </c>
@@ -19546,7 +19640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="9" t="s">
         <v>1193</v>
       </c>
@@ -19560,7 +19654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="9" t="s">
         <v>1194</v>
       </c>
@@ -19574,7 +19668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="929" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="9" t="s">
         <v>1195</v>
       </c>
@@ -19602,7 +19696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="931" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="9" t="s">
         <v>1197</v>
       </c>
@@ -20452,7 +20546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="983" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="9" t="s">
         <v>1243</v>
       </c>
@@ -23741,9 +23835,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1199" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="Core"/>
@@ -23752,8 +23843,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="Conversion"/>
-        <filter val="FixedMemory"/>
+        <filter val="OOP"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:F1198">

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F45DE25E-D396-456F-A234-CF7586621BDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B1DDA5EF-A56D-4C84-9683-DC8BE5C1CEFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6270" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6289" uniqueCount="1618">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -1713,9 +1713,6 @@
   </si>
   <si>
     <t>function Ansi2OemA(cSource AS STRING) AS STRING</t>
-  </si>
-  <si>
-    <t>function Ansi2OemBuff(pszDest AS Psz,pszSource AS Psz,dwCount AS DWORD) AS Psz</t>
   </si>
   <si>
     <t>function Any2Usual(x AS Usual,nType AS DWORD) AS Usual</t>
@@ -5309,8 +5306,8 @@
   <dimension ref="A1:F1231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B707" sqref="B707"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,7 +5339,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="9"/>
@@ -5356,7 +5353,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="9"/>
@@ -5370,7 +5367,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
@@ -5384,7 +5381,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
@@ -5398,7 +5395,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
@@ -5412,7 +5409,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
@@ -5426,7 +5423,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>53</v>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
@@ -5456,7 +5453,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -5470,7 +5467,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
@@ -5484,7 +5481,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
@@ -5498,7 +5495,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
@@ -5512,7 +5509,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
@@ -5540,7 +5537,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
@@ -5554,7 +5551,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
@@ -5568,7 +5565,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
@@ -5582,7 +5579,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
@@ -5596,7 +5593,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
@@ -5610,7 +5607,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
@@ -5624,7 +5621,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
@@ -5638,7 +5635,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
@@ -5652,7 +5649,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>53</v>
@@ -5670,7 +5667,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>53</v>
@@ -5686,7 +5683,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5700,7 +5697,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>53</v>
@@ -5718,7 +5715,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
@@ -5732,7 +5729,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
@@ -5746,7 +5743,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
@@ -5760,7 +5757,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
@@ -5774,7 +5771,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
@@ -5788,7 +5785,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
@@ -5802,7 +5799,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
@@ -5816,7 +5813,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="9"/>
@@ -5830,7 +5827,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="9"/>
@@ -5844,7 +5841,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="9"/>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="9"/>
@@ -5872,7 +5869,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="9"/>
@@ -5886,7 +5883,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="9"/>
@@ -5900,7 +5897,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="9"/>
@@ -5914,7 +5911,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
@@ -5928,7 +5925,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="9"/>
@@ -5942,7 +5939,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="9"/>
@@ -5956,7 +5953,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="9"/>
@@ -5970,7 +5967,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="9"/>
@@ -5984,7 +5981,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="9"/>
@@ -5998,7 +5995,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="9"/>
@@ -6012,7 +6009,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="9"/>
@@ -6026,7 +6023,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="9"/>
@@ -6040,7 +6037,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>53</v>
@@ -6056,7 +6053,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="9"/>
@@ -6070,7 +6067,7 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>53</v>
@@ -6086,7 +6083,7 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>53</v>
@@ -6102,7 +6099,7 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -6118,7 +6115,7 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
@@ -6132,7 +6129,7 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>53</v>
@@ -6148,7 +6145,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
@@ -6162,7 +6159,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
@@ -6176,7 +6173,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="9"/>
@@ -6190,7 +6187,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
@@ -6204,7 +6201,7 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="9"/>
@@ -6218,7 +6215,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="9"/>
@@ -6232,7 +6229,7 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>53</v>
@@ -6248,7 +6245,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="9"/>
@@ -6262,7 +6259,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="9"/>
@@ -6276,7 +6273,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>53</v>
@@ -6294,7 +6291,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>53</v>
@@ -6310,7 +6307,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>53</v>
@@ -6326,7 +6323,7 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="9"/>
@@ -6340,7 +6337,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="9"/>
@@ -6354,7 +6351,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="9"/>
@@ -6368,7 +6365,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>53</v>
@@ -6416,7 +6413,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>53</v>
@@ -6432,7 +6429,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>53</v>
@@ -6448,7 +6445,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>53</v>
@@ -6464,7 +6461,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>53</v>
@@ -6480,7 +6477,7 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>53</v>
@@ -6496,7 +6493,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>53</v>
@@ -6512,7 +6509,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>53</v>
@@ -6528,7 +6525,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -6544,7 +6541,7 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>53</v>
@@ -6560,7 +6557,7 @@
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>53</v>
@@ -6576,7 +6573,7 @@
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>53</v>
@@ -6606,7 +6603,7 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -6680,7 +6677,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="9"/>
@@ -6694,7 +6691,7 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="9"/>
@@ -6708,7 +6705,7 @@
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="9"/>
@@ -6722,7 +6719,7 @@
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="9"/>
@@ -6820,7 +6817,7 @@
     </row>
     <row r="103" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>53</v>
@@ -6831,7 +6828,7 @@
         <v>13</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -7081,7 +7078,7 @@
         <v>14</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7095,7 +7092,7 @@
         <v>13</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7109,7 +7106,7 @@
         <v>13</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7358,8 +7355,12 @@
       <c r="A138" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
+      <c r="B138" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
         <v>13</v>
@@ -7372,8 +7373,12 @@
       <c r="A139" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
+      <c r="B139" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
         <v>13</v>
@@ -7384,21 +7389,23 @@
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="B140" s="10"/>
+        <v>1050</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="9"/>
@@ -7412,7 +7419,7 @@
     </row>
     <row r="142" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="9"/>
@@ -7426,7 +7433,7 @@
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="9"/>
@@ -7440,7 +7447,7 @@
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -7454,7 +7461,7 @@
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="9"/>
@@ -7468,7 +7475,7 @@
     </row>
     <row r="146" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>53</v>
@@ -7486,7 +7493,7 @@
     </row>
     <row r="147" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>53</v>
@@ -7502,7 +7509,7 @@
     </row>
     <row r="148" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>53</v>
@@ -7520,7 +7527,7 @@
     </row>
     <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="9"/>
@@ -7534,7 +7541,7 @@
     </row>
     <row r="150" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>53</v>
@@ -7550,7 +7557,7 @@
     </row>
     <row r="151" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>53</v>
@@ -7566,7 +7573,7 @@
     </row>
     <row r="152" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>53</v>
@@ -7582,7 +7589,7 @@
     </row>
     <row r="153" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>53</v>
@@ -7598,7 +7605,7 @@
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="9"/>
@@ -7612,7 +7619,7 @@
     </row>
     <row r="155" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>53</v>
@@ -7628,7 +7635,7 @@
     </row>
     <row r="156" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>53</v>
@@ -7646,7 +7653,7 @@
     </row>
     <row r="157" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>53</v>
@@ -7664,7 +7671,7 @@
     </row>
     <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="9"/>
@@ -7678,7 +7685,7 @@
     </row>
     <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="9"/>
@@ -7692,7 +7699,7 @@
     </row>
     <row r="160" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>53</v>
@@ -7710,7 +7717,7 @@
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -7724,7 +7731,7 @@
     </row>
     <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -7738,7 +7745,7 @@
     </row>
     <row r="163" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>53</v>
@@ -7754,7 +7761,7 @@
     </row>
     <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="9"/>
@@ -7768,7 +7775,7 @@
     </row>
     <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="9"/>
@@ -7782,7 +7789,7 @@
     </row>
     <row r="166" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>53</v>
@@ -7798,7 +7805,7 @@
     </row>
     <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B167" s="10"/>
       <c r="C167" s="9"/>
@@ -7812,7 +7819,7 @@
     </row>
     <row r="168" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>53</v>
@@ -7830,7 +7837,7 @@
     </row>
     <row r="169" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>53</v>
@@ -7846,7 +7853,7 @@
     </row>
     <row r="170" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>53</v>
@@ -7864,7 +7871,7 @@
     </row>
     <row r="171" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>53</v>
@@ -7882,7 +7889,7 @@
     </row>
     <row r="172" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>53</v>
@@ -7900,7 +7907,7 @@
     </row>
     <row r="173" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>53</v>
@@ -7914,11 +7921,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="B174" s="10"/>
+        <v>591</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9" t="s">
@@ -7930,7 +7939,7 @@
     </row>
     <row r="175" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>53</v>
@@ -7946,7 +7955,7 @@
     </row>
     <row r="176" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>53</v>
@@ -7964,7 +7973,7 @@
     </row>
     <row r="177" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>53</v>
@@ -7982,7 +7991,7 @@
     </row>
     <row r="178" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>53</v>
@@ -8000,7 +8009,7 @@
     </row>
     <row r="179" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>53</v>
@@ -8018,7 +8027,7 @@
     </row>
     <row r="180" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>53</v>
@@ -8036,7 +8045,7 @@
     </row>
     <row r="181" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>53</v>
@@ -8054,7 +8063,7 @@
     </row>
     <row r="182" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>53</v>
@@ -8070,7 +8079,7 @@
     </row>
     <row r="183" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>53</v>
@@ -8086,7 +8095,7 @@
     </row>
     <row r="184" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>53</v>
@@ -8102,7 +8111,7 @@
     </row>
     <row r="185" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>53</v>
@@ -8118,7 +8127,7 @@
     </row>
     <row r="186" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="9"/>
@@ -8132,7 +8141,7 @@
     </row>
     <row r="187" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B187" s="10"/>
       <c r="C187" s="9"/>
@@ -8146,7 +8155,7 @@
     </row>
     <row r="188" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B188" s="10"/>
       <c r="C188" s="9"/>
@@ -8160,7 +8169,7 @@
     </row>
     <row r="189" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="9"/>
@@ -8174,7 +8183,7 @@
     </row>
     <row r="190" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B190" s="10"/>
       <c r="C190" s="9"/>
@@ -8188,7 +8197,7 @@
     </row>
     <row r="191" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="9"/>
@@ -8202,7 +8211,7 @@
     </row>
     <row r="192" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="9"/>
@@ -8216,7 +8225,7 @@
     </row>
     <row r="193" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="9"/>
@@ -8230,7 +8239,7 @@
     </row>
     <row r="194" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="9"/>
@@ -8244,7 +8253,7 @@
     </row>
     <row r="195" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="9"/>
@@ -8258,7 +8267,7 @@
     </row>
     <row r="196" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="9"/>
@@ -8272,7 +8281,7 @@
     </row>
     <row r="197" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="9"/>
@@ -8286,7 +8295,7 @@
     </row>
     <row r="198" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="9"/>
@@ -8300,7 +8309,7 @@
     </row>
     <row r="199" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="9"/>
@@ -8314,7 +8323,7 @@
     </row>
     <row r="200" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="9"/>
@@ -8328,7 +8337,7 @@
     </row>
     <row r="201" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B201" s="10"/>
       <c r="C201" s="9"/>
@@ -8342,7 +8351,7 @@
     </row>
     <row r="202" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="9"/>
@@ -8356,7 +8365,7 @@
     </row>
     <row r="203" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="9"/>
@@ -8370,7 +8379,7 @@
     </row>
     <row r="204" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="9"/>
@@ -8384,7 +8393,7 @@
     </row>
     <row r="205" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="9"/>
@@ -8398,7 +8407,7 @@
     </row>
     <row r="206" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="9"/>
@@ -8412,7 +8421,7 @@
     </row>
     <row r="207" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>53</v>
@@ -8428,7 +8437,7 @@
     </row>
     <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="12"/>
@@ -8442,7 +8451,7 @@
     </row>
     <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="12"/>
@@ -8456,7 +8465,7 @@
     </row>
     <row r="210" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>53</v>
@@ -8472,7 +8481,7 @@
     </row>
     <row r="211" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>53</v>
@@ -8490,7 +8499,7 @@
     </row>
     <row r="212" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>53</v>
@@ -8508,7 +8517,7 @@
     </row>
     <row r="213" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>53</v>
@@ -8524,7 +8533,7 @@
     </row>
     <row r="214" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>53</v>
@@ -8542,7 +8551,7 @@
     </row>
     <row r="215" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>53</v>
@@ -8560,7 +8569,7 @@
     </row>
     <row r="216" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>53</v>
@@ -8578,7 +8587,7 @@
     </row>
     <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -8592,7 +8601,7 @@
     </row>
     <row r="218" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>53</v>
@@ -8610,7 +8619,7 @@
     </row>
     <row r="219" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>53</v>
@@ -8628,7 +8637,7 @@
     </row>
     <row r="220" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B220" s="10" t="s">
         <v>53</v>
@@ -8646,7 +8655,7 @@
     </row>
     <row r="221" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B221" s="10" t="s">
         <v>53</v>
@@ -8664,7 +8673,7 @@
     </row>
     <row r="222" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -8678,7 +8687,7 @@
     </row>
     <row r="223" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -8692,7 +8701,7 @@
     </row>
     <row r="224" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -8706,7 +8715,7 @@
     </row>
     <row r="225" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -8720,7 +8729,7 @@
     </row>
     <row r="226" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -8734,7 +8743,7 @@
     </row>
     <row r="227" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -8748,7 +8757,7 @@
     </row>
     <row r="228" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -8762,7 +8771,7 @@
     </row>
     <row r="229" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -8776,7 +8785,7 @@
     </row>
     <row r="230" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -8790,7 +8799,7 @@
     </row>
     <row r="231" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -8804,7 +8813,7 @@
     </row>
     <row r="232" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -8818,7 +8827,7 @@
     </row>
     <row r="233" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>53</v>
@@ -8826,7 +8835,7 @@
       <c r="C233" s="10"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>17</v>
@@ -8834,7 +8843,7 @@
     </row>
     <row r="234" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>53</v>
@@ -8852,7 +8861,7 @@
     </row>
     <row r="235" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>53</v>
@@ -8868,7 +8877,7 @@
     </row>
     <row r="236" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>53</v>
@@ -8884,7 +8893,7 @@
     </row>
     <row r="237" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B237" s="10" t="s">
         <v>53</v>
@@ -8902,7 +8911,7 @@
     </row>
     <row r="238" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B238" s="10" t="s">
         <v>53</v>
@@ -8918,7 +8927,7 @@
     </row>
     <row r="239" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>53</v>
@@ -8936,7 +8945,7 @@
     </row>
     <row r="240" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B240" s="10" t="s">
         <v>53</v>
@@ -8954,7 +8963,7 @@
     </row>
     <row r="241" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B241" s="10" t="s">
         <v>53</v>
@@ -8972,7 +8981,7 @@
     </row>
     <row r="242" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>53</v>
@@ -8990,7 +8999,7 @@
     </row>
     <row r="243" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B243" s="10" t="s">
         <v>53</v>
@@ -9006,7 +9015,7 @@
     </row>
     <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -9020,7 +9029,7 @@
     </row>
     <row r="245" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B245" s="10" t="s">
         <v>53</v>
@@ -9036,7 +9045,7 @@
     </row>
     <row r="246" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B246" s="10" t="s">
         <v>53</v>
@@ -9054,7 +9063,7 @@
     </row>
     <row r="247" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B247" s="10" t="s">
         <v>53</v>
@@ -9072,7 +9081,7 @@
     </row>
     <row r="248" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B248" s="10" t="s">
         <v>53</v>
@@ -9090,7 +9099,7 @@
     </row>
     <row r="249" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B249" s="10" t="s">
         <v>53</v>
@@ -9108,7 +9117,7 @@
     </row>
     <row r="250" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B250" s="10" t="s">
         <v>53</v>
@@ -9126,7 +9135,7 @@
     </row>
     <row r="251" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B251" s="10" t="s">
         <v>53</v>
@@ -9142,7 +9151,7 @@
     </row>
     <row r="252" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B252" s="10" t="s">
         <v>53</v>
@@ -9158,7 +9167,7 @@
     </row>
     <row r="253" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B253" s="10" t="s">
         <v>53</v>
@@ -9174,7 +9183,7 @@
     </row>
     <row r="254" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B254" s="10"/>
       <c r="C254" s="12"/>
@@ -9188,7 +9197,7 @@
     </row>
     <row r="255" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B255" s="10" t="s">
         <v>53</v>
@@ -9206,7 +9215,7 @@
     </row>
     <row r="256" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B256" s="10" t="s">
         <v>53</v>
@@ -9224,7 +9233,7 @@
     </row>
     <row r="257" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B257" s="10" t="s">
         <v>53</v>
@@ -9242,7 +9251,7 @@
     </row>
     <row r="258" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B258" s="10" t="s">
         <v>53</v>
@@ -9260,7 +9269,7 @@
     </row>
     <row r="259" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B259" s="10" t="s">
         <v>53</v>
@@ -9278,7 +9287,7 @@
     </row>
     <row r="260" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B260" s="10" t="s">
         <v>53</v>
@@ -9294,7 +9303,7 @@
     </row>
     <row r="261" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B261" s="10" t="s">
         <v>53</v>
@@ -9310,7 +9319,7 @@
     </row>
     <row r="262" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B262" s="10" t="s">
         <v>53</v>
@@ -9328,7 +9337,7 @@
     </row>
     <row r="263" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B263" s="10" t="s">
         <v>53</v>
@@ -9344,7 +9353,7 @@
     </row>
     <row r="264" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B264" s="10" t="s">
         <v>53</v>
@@ -9360,9 +9369,11 @@
     </row>
     <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="B265" s="10"/>
+        <v>669</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C265" s="10"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9" t="s">
@@ -9374,7 +9385,7 @@
     </row>
     <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -9388,7 +9399,7 @@
     </row>
     <row r="267" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>53</v>
@@ -9404,7 +9415,7 @@
     </row>
     <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -9418,7 +9429,7 @@
     </row>
     <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -9432,7 +9443,7 @@
     </row>
     <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -9446,7 +9457,7 @@
     </row>
     <row r="271" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B271" s="10" t="s">
         <v>53</v>
@@ -9464,7 +9475,7 @@
     </row>
     <row r="272" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B272" s="10" t="s">
         <v>53</v>
@@ -9482,7 +9493,7 @@
     </row>
     <row r="273" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B273" s="10" t="s">
         <v>53</v>
@@ -9500,7 +9511,7 @@
     </row>
     <row r="274" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B274" s="10" t="s">
         <v>53</v>
@@ -9511,12 +9522,12 @@
         <v>13</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>53</v>
@@ -9529,12 +9540,12 @@
         <v>13</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B276" s="10" t="s">
         <v>53</v>
@@ -9552,7 +9563,7 @@
     </row>
     <row r="277" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B277" s="10" t="s">
         <v>53</v>
@@ -9570,7 +9581,7 @@
     </row>
     <row r="278" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
@@ -9584,7 +9595,7 @@
     </row>
     <row r="279" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
@@ -9598,7 +9609,7 @@
     </row>
     <row r="280" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -9612,7 +9623,7 @@
     </row>
     <row r="281" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
@@ -9626,7 +9637,7 @@
     </row>
     <row r="282" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B282" s="10" t="s">
         <v>53</v>
@@ -9642,7 +9653,7 @@
     </row>
     <row r="283" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
@@ -9656,7 +9667,7 @@
     </row>
     <row r="284" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -9670,7 +9681,7 @@
     </row>
     <row r="285" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -9684,7 +9695,7 @@
     </row>
     <row r="286" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>53</v>
@@ -9700,7 +9711,7 @@
     </row>
     <row r="287" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B287" s="10" t="s">
         <v>53</v>
@@ -9716,7 +9727,7 @@
     </row>
     <row r="288" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B288" s="10"/>
       <c r="C288" s="12"/>
@@ -9730,7 +9741,7 @@
     </row>
     <row r="289" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -9758,7 +9769,7 @@
     </row>
     <row r="291" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
@@ -9814,7 +9825,7 @@
     </row>
     <row r="295" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B295" s="10" t="s">
         <v>53</v>
@@ -9830,7 +9841,7 @@
     </row>
     <row r="296" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
@@ -9844,7 +9855,7 @@
     </row>
     <row r="297" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
@@ -9858,7 +9869,7 @@
     </row>
     <row r="298" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>14</v>
@@ -9869,7 +9880,7 @@
     </row>
     <row r="299" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
@@ -9883,7 +9894,7 @@
     </row>
     <row r="300" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>14</v>
@@ -9894,7 +9905,7 @@
     </row>
     <row r="301" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
@@ -9908,7 +9919,7 @@
     </row>
     <row r="302" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B302" s="10" t="s">
         <v>53</v>
@@ -9924,7 +9935,7 @@
     </row>
     <row r="303" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
@@ -9938,7 +9949,7 @@
     </row>
     <row r="304" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
@@ -9952,7 +9963,7 @@
     </row>
     <row r="305" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B305" s="10" t="s">
         <v>53</v>
@@ -9968,9 +9979,11 @@
     </row>
     <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="B306" s="10"/>
+        <v>685</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C306" s="12"/>
       <c r="D306" s="9"/>
       <c r="E306" s="9" t="s">
@@ -9982,7 +9995,7 @@
     </row>
     <row r="307" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B307" s="10" t="s">
         <v>53</v>
@@ -9998,7 +10011,7 @@
     </row>
     <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B308" s="10"/>
       <c r="C308" s="12"/>
@@ -10012,7 +10025,7 @@
     </row>
     <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B309" s="10"/>
       <c r="C309" s="12"/>
@@ -10026,7 +10039,7 @@
     </row>
     <row r="310" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B310" s="10" t="s">
         <v>53</v>
@@ -10042,7 +10055,7 @@
     </row>
     <row r="311" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B311" s="10" t="s">
         <v>53</v>
@@ -10058,7 +10071,7 @@
     </row>
     <row r="312" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B312" s="10" t="s">
         <v>53</v>
@@ -10069,12 +10082,12 @@
         <v>13</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B313" s="10" t="s">
         <v>53</v>
@@ -10085,12 +10098,12 @@
         <v>14</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B314" s="10"/>
       <c r="C314" s="9"/>
@@ -10099,12 +10112,12 @@
         <v>14</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B315" s="10" t="s">
         <v>53</v>
@@ -10115,12 +10128,12 @@
         <v>13</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B316" s="10" t="s">
         <v>53</v>
@@ -10131,12 +10144,12 @@
         <v>14</v>
       </c>
       <c r="F316" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B317" s="10" t="s">
         <v>53</v>
@@ -10147,12 +10160,12 @@
         <v>13</v>
       </c>
       <c r="F317" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B318" s="10" t="s">
         <v>53</v>
@@ -10163,12 +10176,12 @@
         <v>14</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>53</v>
@@ -10179,12 +10192,12 @@
         <v>13</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B320" s="10" t="s">
         <v>53</v>
@@ -10195,12 +10208,12 @@
         <v>14</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B321" s="10" t="s">
         <v>53</v>
@@ -10211,12 +10224,12 @@
         <v>13</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B322" s="10" t="s">
         <v>53</v>
@@ -10227,12 +10240,12 @@
         <v>13</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B323" s="10" t="s">
         <v>53</v>
@@ -10243,12 +10256,12 @@
         <v>13</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B324" s="10" t="s">
         <v>53</v>
@@ -10259,12 +10272,12 @@
         <v>13</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B325" s="10" t="s">
         <v>53</v>
@@ -10275,12 +10288,12 @@
         <v>13</v>
       </c>
       <c r="F325" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B326" s="10" t="s">
         <v>53</v>
@@ -10291,12 +10304,12 @@
         <v>13</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>53</v>
@@ -10307,12 +10320,12 @@
         <v>13</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B328" s="10"/>
       <c r="C328" s="12"/>
@@ -10326,7 +10339,7 @@
     </row>
     <row r="329" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B329" s="10" t="s">
         <v>53</v>
@@ -10342,7 +10355,7 @@
     </row>
     <row r="330" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B330" s="10" t="s">
         <v>53</v>
@@ -10358,7 +10371,7 @@
     </row>
     <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B331" s="10"/>
       <c r="C331" s="12"/>
@@ -10372,7 +10385,7 @@
     </row>
     <row r="332" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B332" s="10" t="s">
         <v>53</v>
@@ -10390,7 +10403,7 @@
     </row>
     <row r="333" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B333" s="10" t="s">
         <v>53</v>
@@ -10408,7 +10421,7 @@
     </row>
     <row r="334" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B334" s="10" t="s">
         <v>53</v>
@@ -10426,7 +10439,7 @@
     </row>
     <row r="335" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B335" s="10" t="s">
         <v>53</v>
@@ -10442,7 +10455,7 @@
     </row>
     <row r="336" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B336" s="10" t="s">
         <v>53</v>
@@ -10458,7 +10471,7 @@
     </row>
     <row r="337" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B337" s="10" t="s">
         <v>53</v>
@@ -10474,7 +10487,7 @@
     </row>
     <row r="338" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B338" s="10" t="s">
         <v>53</v>
@@ -10490,7 +10503,7 @@
     </row>
     <row r="339" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B339" s="10" t="s">
         <v>53</v>
@@ -10506,7 +10519,7 @@
     </row>
     <row r="340" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B340" s="10" t="s">
         <v>53</v>
@@ -10522,7 +10535,7 @@
     </row>
     <row r="341" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B341" s="10" t="s">
         <v>53</v>
@@ -10538,7 +10551,7 @@
     </row>
     <row r="342" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B342" s="10" t="s">
         <v>53</v>
@@ -10554,7 +10567,7 @@
     </row>
     <row r="343" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B343" s="10" t="s">
         <v>53</v>
@@ -10570,7 +10583,7 @@
     </row>
     <row r="344" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B344" s="10" t="s">
         <v>53</v>
@@ -10586,7 +10599,7 @@
     </row>
     <row r="345" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B345" s="10" t="s">
         <v>53</v>
@@ -10602,7 +10615,7 @@
     </row>
     <row r="346" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B346" s="10" t="s">
         <v>53</v>
@@ -10618,7 +10631,7 @@
     </row>
     <row r="347" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B347" s="10" t="s">
         <v>53</v>
@@ -10634,7 +10647,7 @@
     </row>
     <row r="348" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B348" s="10" t="s">
         <v>53</v>
@@ -10650,7 +10663,7 @@
     </row>
     <row r="349" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B349" s="10" t="s">
         <v>53</v>
@@ -10666,7 +10679,7 @@
     </row>
     <row r="350" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B350" s="10" t="s">
         <v>53</v>
@@ -10682,7 +10695,7 @@
     </row>
     <row r="351" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B351" s="10" t="s">
         <v>53</v>
@@ -10698,7 +10711,7 @@
     </row>
     <row r="352" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B352" s="10" t="s">
         <v>53</v>
@@ -10714,7 +10727,7 @@
     </row>
     <row r="353" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B353" s="10" t="s">
         <v>53</v>
@@ -10730,7 +10743,7 @@
     </row>
     <row r="354" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B354" s="10" t="s">
         <v>53</v>
@@ -10746,7 +10759,7 @@
     </row>
     <row r="355" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B355" s="10" t="s">
         <v>53</v>
@@ -10762,7 +10775,7 @@
     </row>
     <row r="356" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B356" s="10" t="s">
         <v>53</v>
@@ -10778,7 +10791,7 @@
     </row>
     <row r="357" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>53</v>
@@ -10794,7 +10807,7 @@
     </row>
     <row r="358" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B358" s="10" t="s">
         <v>53</v>
@@ -10812,7 +10825,7 @@
     </row>
     <row r="359" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B359" s="10" t="s">
         <v>53</v>
@@ -10828,7 +10841,7 @@
     </row>
     <row r="360" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>53</v>
@@ -10844,7 +10857,7 @@
     </row>
     <row r="361" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B361" s="10" t="s">
         <v>53</v>
@@ -10860,9 +10873,11 @@
     </row>
     <row r="362" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="B362" s="10"/>
+        <v>729</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C362" s="12"/>
       <c r="D362" s="9"/>
       <c r="E362" s="9" t="s">
@@ -10874,7 +10889,7 @@
     </row>
     <row r="363" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B363" s="10" t="s">
         <v>53</v>
@@ -10890,7 +10905,7 @@
     </row>
     <row r="364" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B364" s="10" t="s">
         <v>53</v>
@@ -10906,7 +10921,7 @@
     </row>
     <row r="365" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B365" s="10" t="s">
         <v>53</v>
@@ -10922,7 +10937,7 @@
     </row>
     <row r="366" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B366" s="10"/>
       <c r="C366" s="9"/>
@@ -10936,7 +10951,7 @@
     </row>
     <row r="367" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B367" s="10" t="s">
         <v>53</v>
@@ -10952,7 +10967,7 @@
     </row>
     <row r="368" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B368" s="10"/>
       <c r="C368" s="9"/>
@@ -10966,7 +10981,7 @@
     </row>
     <row r="369" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B369" s="10" t="s">
         <v>53</v>
@@ -10982,7 +10997,7 @@
     </row>
     <row r="370" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B370" s="10"/>
       <c r="C370" s="9"/>
@@ -10996,7 +11011,7 @@
     </row>
     <row r="371" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B371" s="10"/>
       <c r="C371" s="9"/>
@@ -11010,7 +11025,7 @@
     </row>
     <row r="372" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B372" s="10"/>
       <c r="C372" s="9"/>
@@ -11024,7 +11039,7 @@
     </row>
     <row r="373" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B373" s="10"/>
       <c r="C373" s="12"/>
@@ -11038,7 +11053,7 @@
     </row>
     <row r="374" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B374" s="10" t="s">
         <v>53</v>
@@ -11056,7 +11071,7 @@
     </row>
     <row r="375" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B375" s="10" t="s">
         <v>53</v>
@@ -11072,7 +11087,7 @@
     </row>
     <row r="376" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B376" s="10" t="s">
         <v>53</v>
@@ -11088,7 +11103,7 @@
     </row>
     <row r="377" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B377" s="10" t="s">
         <v>53</v>
@@ -11104,7 +11119,7 @@
     </row>
     <row r="378" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B378" s="10" t="s">
         <v>53</v>
@@ -11120,7 +11135,7 @@
     </row>
     <row r="379" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B379" s="10"/>
       <c r="C379" s="9"/>
@@ -11134,7 +11149,7 @@
     </row>
     <row r="380" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B380" s="10" t="s">
         <v>53</v>
@@ -11150,7 +11165,7 @@
     </row>
     <row r="381" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B381" s="10" t="s">
         <v>53</v>
@@ -11166,7 +11181,7 @@
     </row>
     <row r="382" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B382" s="10" t="s">
         <v>53</v>
@@ -11182,7 +11197,7 @@
     </row>
     <row r="383" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B383" s="10" t="s">
         <v>53</v>
@@ -11198,7 +11213,7 @@
     </row>
     <row r="384" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B384" s="10" t="s">
         <v>53</v>
@@ -11214,7 +11229,7 @@
     </row>
     <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B385" s="10"/>
       <c r="C385" s="12"/>
@@ -11223,12 +11238,12 @@
         <v>13</v>
       </c>
       <c r="F385" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B386" s="10" t="s">
         <v>53</v>
@@ -11244,7 +11259,7 @@
     </row>
     <row r="387" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B387" s="10" t="s">
         <v>53</v>
@@ -11260,7 +11275,7 @@
     </row>
     <row r="388" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B388" s="10" t="s">
         <v>53</v>
@@ -11278,7 +11293,7 @@
     </row>
     <row r="389" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B389" s="10" t="s">
         <v>53</v>
@@ -11296,7 +11311,7 @@
     </row>
     <row r="390" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B390" s="10" t="s">
         <v>53</v>
@@ -11307,12 +11322,12 @@
         <v>13</v>
       </c>
       <c r="F390" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B391" s="10"/>
       <c r="C391" s="12"/>
@@ -11321,12 +11336,12 @@
         <v>13</v>
       </c>
       <c r="F391" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B392" s="10" t="s">
         <v>53</v>
@@ -11342,7 +11357,7 @@
     </row>
     <row r="393" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B393" s="10" t="s">
         <v>53</v>
@@ -11360,7 +11375,7 @@
     </row>
     <row r="394" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B394" s="10"/>
       <c r="C394" s="12"/>
@@ -11369,12 +11384,12 @@
         <v>13</v>
       </c>
       <c r="F394" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B395" s="10" t="s">
         <v>53</v>
@@ -11392,7 +11407,7 @@
     </row>
     <row r="396" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B396" s="10" t="s">
         <v>53</v>
@@ -11403,12 +11418,12 @@
         <v>13</v>
       </c>
       <c r="F396" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B397" s="10" t="s">
         <v>53</v>
@@ -11424,7 +11439,7 @@
     </row>
     <row r="398" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B398" s="10"/>
       <c r="C398" s="12"/>
@@ -11433,12 +11448,12 @@
         <v>13</v>
       </c>
       <c r="F398" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B399" s="10"/>
       <c r="C399" s="12"/>
@@ -11447,12 +11462,12 @@
         <v>13</v>
       </c>
       <c r="F399" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B400" s="10" t="s">
         <v>53</v>
@@ -11468,7 +11483,7 @@
     </row>
     <row r="401" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B401" s="10" t="s">
         <v>53</v>
@@ -11486,7 +11501,7 @@
     </row>
     <row r="402" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B402" s="10" t="s">
         <v>53</v>
@@ -11502,7 +11517,7 @@
     </row>
     <row r="403" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B403" s="10" t="s">
         <v>53</v>
@@ -11518,7 +11533,7 @@
     </row>
     <row r="404" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B404" s="10" t="s">
         <v>53</v>
@@ -11534,7 +11549,7 @@
     </row>
     <row r="405" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B405" s="10"/>
       <c r="C405" s="9"/>
@@ -11548,7 +11563,7 @@
     </row>
     <row r="406" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B406" s="10"/>
       <c r="C406" s="9"/>
@@ -11562,7 +11577,7 @@
     </row>
     <row r="407" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B407" s="10"/>
       <c r="C407" s="9"/>
@@ -11576,7 +11591,7 @@
     </row>
     <row r="408" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B408" s="10"/>
       <c r="C408" s="9"/>
@@ -11590,7 +11605,7 @@
     </row>
     <row r="409" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B409" s="10"/>
       <c r="C409" s="9"/>
@@ -11604,7 +11619,7 @@
     </row>
     <row r="410" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B410" s="10"/>
       <c r="C410" s="9"/>
@@ -11618,7 +11633,7 @@
     </row>
     <row r="411" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B411" s="10"/>
       <c r="C411" s="12"/>
@@ -11632,7 +11647,7 @@
     </row>
     <row r="412" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B412" s="10"/>
       <c r="C412" s="12"/>
@@ -11646,7 +11661,7 @@
     </row>
     <row r="413" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B413" s="10"/>
       <c r="C413" s="9"/>
@@ -11660,7 +11675,7 @@
     </row>
     <row r="414" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="9"/>
@@ -11674,7 +11689,7 @@
     </row>
     <row r="415" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B415" s="10"/>
       <c r="C415" s="9"/>
@@ -11688,7 +11703,7 @@
     </row>
     <row r="416" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B416" s="10"/>
       <c r="C416" s="9"/>
@@ -11702,7 +11717,7 @@
     </row>
     <row r="417" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B417" s="10"/>
       <c r="C417" s="9"/>
@@ -11716,7 +11731,7 @@
     </row>
     <row r="418" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B418" s="10"/>
       <c r="C418" s="9"/>
@@ -11730,7 +11745,7 @@
     </row>
     <row r="419" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B419" s="10"/>
       <c r="C419" s="10"/>
@@ -11744,7 +11759,7 @@
     </row>
     <row r="420" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B420" s="10"/>
       <c r="C420" s="9"/>
@@ -11758,7 +11773,7 @@
     </row>
     <row r="421" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B421" s="10"/>
       <c r="C421" s="9"/>
@@ -11772,7 +11787,7 @@
     </row>
     <row r="422" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B422" s="10"/>
       <c r="C422" s="12"/>
@@ -11781,12 +11796,12 @@
         <v>13</v>
       </c>
       <c r="F422" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B423" s="10" t="s">
         <v>53</v>
@@ -11802,7 +11817,7 @@
     </row>
     <row r="424" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B424" s="10" t="s">
         <v>53</v>
@@ -11818,7 +11833,7 @@
     </row>
     <row r="425" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B425" s="10" t="s">
         <v>53</v>
@@ -11834,7 +11849,7 @@
     </row>
     <row r="426" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B426" s="10" t="s">
         <v>53</v>
@@ -11850,7 +11865,7 @@
     </row>
     <row r="427" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B427" s="10" t="s">
         <v>53</v>
@@ -11866,7 +11881,7 @@
     </row>
     <row r="428" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B428" s="10"/>
       <c r="C428" s="12"/>
@@ -11875,12 +11890,12 @@
         <v>13</v>
       </c>
       <c r="F428" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B429" s="10"/>
       <c r="C429" s="12"/>
@@ -11889,12 +11904,12 @@
         <v>13</v>
       </c>
       <c r="F429" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B430" s="10" t="s">
         <v>53</v>
@@ -11910,7 +11925,7 @@
     </row>
     <row r="431" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B431" s="10" t="s">
         <v>53</v>
@@ -11926,7 +11941,7 @@
     </row>
     <row r="432" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B432" s="10"/>
       <c r="C432" s="10"/>
@@ -11940,7 +11955,7 @@
     </row>
     <row r="433" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B433" s="10"/>
       <c r="C433" s="12"/>
@@ -11949,12 +11964,12 @@
         <v>13</v>
       </c>
       <c r="F433" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B434" s="10" t="s">
         <v>53</v>
@@ -11970,7 +11985,7 @@
     </row>
     <row r="435" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B435" s="10" t="s">
         <v>53</v>
@@ -11986,7 +12001,7 @@
     </row>
     <row r="436" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B436" s="10" t="s">
         <v>53</v>
@@ -12002,7 +12017,7 @@
     </row>
     <row r="437" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B437" s="10" t="s">
         <v>53</v>
@@ -12010,7 +12025,7 @@
       <c r="C437" s="12"/>
       <c r="D437" s="9"/>
       <c r="E437" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F437" s="9" t="s">
         <v>21</v>
@@ -12018,7 +12033,7 @@
     </row>
     <row r="438" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B438" s="10" t="s">
         <v>53</v>
@@ -12034,7 +12049,7 @@
     </row>
     <row r="439" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B439" s="10" t="s">
         <v>53</v>
@@ -12050,7 +12065,7 @@
     </row>
     <row r="440" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B440" s="10" t="s">
         <v>53</v>
@@ -12066,7 +12081,7 @@
     </row>
     <row r="441" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B441" s="10" t="s">
         <v>53</v>
@@ -12084,7 +12099,7 @@
     </row>
     <row r="442" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B442" s="10" t="s">
         <v>53</v>
@@ -12100,7 +12115,7 @@
     </row>
     <row r="443" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B443" s="10" t="s">
         <v>53</v>
@@ -12108,7 +12123,7 @@
       <c r="C443" s="12"/>
       <c r="D443" s="9"/>
       <c r="E443" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>21</v>
@@ -12116,7 +12131,7 @@
     </row>
     <row r="444" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B444" s="10" t="s">
         <v>53</v>
@@ -12134,7 +12149,7 @@
     </row>
     <row r="445" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B445" s="10" t="s">
         <v>53</v>
@@ -12150,7 +12165,7 @@
     </row>
     <row r="446" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B446" s="10" t="s">
         <v>53</v>
@@ -12161,12 +12176,12 @@
         <v>13</v>
       </c>
       <c r="F446" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B447" s="10" t="s">
         <v>53</v>
@@ -12184,7 +12199,7 @@
     </row>
     <row r="448" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B448" s="10" t="s">
         <v>53</v>
@@ -12200,7 +12215,7 @@
     </row>
     <row r="449" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>53</v>
@@ -12216,7 +12231,7 @@
     </row>
     <row r="450" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B450" s="10"/>
       <c r="C450" s="12"/>
@@ -12225,12 +12240,12 @@
         <v>13</v>
       </c>
       <c r="F450" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B451" s="10" t="s">
         <v>53</v>
@@ -12246,7 +12261,7 @@
     </row>
     <row r="452" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="12"/>
@@ -12255,42 +12270,48 @@
         <v>13</v>
       </c>
       <c r="F452" s="9" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="B453" s="10"/>
+        <v>796</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C453" s="10"/>
       <c r="D453" s="9"/>
       <c r="E453" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F453" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="B454" s="10"/>
+        <v>797</v>
+      </c>
+      <c r="B454" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C454" s="10"/>
       <c r="D454" s="9"/>
       <c r="E454" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F454" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="B455" s="10"/>
+        <v>798</v>
+      </c>
+      <c r="B455" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C455" s="10"/>
       <c r="D455" s="9"/>
       <c r="E455" s="9" t="s">
@@ -12302,7 +12323,7 @@
     </row>
     <row r="456" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B456" s="10" t="s">
         <v>53</v>
@@ -12320,7 +12341,7 @@
     </row>
     <row r="457" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B457" s="10" t="s">
         <v>53</v>
@@ -12336,7 +12357,7 @@
     </row>
     <row r="458" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B458" s="10" t="s">
         <v>53</v>
@@ -12352,7 +12373,7 @@
     </row>
     <row r="459" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B459" s="10" t="s">
         <v>53</v>
@@ -12368,7 +12389,7 @@
     </row>
     <row r="460" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B460" s="10" t="s">
         <v>53</v>
@@ -12384,7 +12405,7 @@
     </row>
     <row r="461" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B461" s="10" t="s">
         <v>53</v>
@@ -12402,7 +12423,7 @@
     </row>
     <row r="462" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B462" s="10" t="s">
         <v>53</v>
@@ -12420,7 +12441,7 @@
     </row>
     <row r="463" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B463" s="10" t="s">
         <v>53</v>
@@ -12438,7 +12459,7 @@
     </row>
     <row r="464" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B464" s="10" t="s">
         <v>53</v>
@@ -12454,7 +12475,7 @@
     </row>
     <row r="465" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B465" s="10" t="s">
         <v>53</v>
@@ -12470,7 +12491,7 @@
     </row>
     <row r="466" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B466" s="10"/>
       <c r="C466" s="10"/>
@@ -12484,7 +12505,7 @@
     </row>
     <row r="467" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B467" s="10" t="s">
         <v>53</v>
@@ -12502,7 +12523,7 @@
     </row>
     <row r="468" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B468" s="10" t="s">
         <v>53</v>
@@ -12520,7 +12541,7 @@
     </row>
     <row r="469" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B469" s="10"/>
       <c r="C469" s="12"/>
@@ -12534,7 +12555,7 @@
     </row>
     <row r="470" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B470" s="10"/>
       <c r="C470" s="12"/>
@@ -12548,7 +12569,7 @@
     </row>
     <row r="471" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B471" s="10"/>
       <c r="C471" s="12"/>
@@ -12562,7 +12583,7 @@
     </row>
     <row r="472" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B472" s="10" t="s">
         <v>53</v>
@@ -12578,7 +12599,7 @@
     </row>
     <row r="473" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B473" s="10" t="s">
         <v>53</v>
@@ -12596,7 +12617,7 @@
     </row>
     <row r="474" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B474" s="10" t="s">
         <v>53</v>
@@ -12612,7 +12633,7 @@
     </row>
     <row r="475" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B475" s="10" t="s">
         <v>53</v>
@@ -12628,7 +12649,7 @@
     </row>
     <row r="476" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B476" s="10" t="s">
         <v>53</v>
@@ -12644,7 +12665,7 @@
     </row>
     <row r="477" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B477" s="10" t="s">
         <v>53</v>
@@ -12662,7 +12683,7 @@
     </row>
     <row r="478" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B478" s="10" t="s">
         <v>53</v>
@@ -12680,7 +12701,7 @@
     </row>
     <row r="479" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B479" s="10" t="s">
         <v>53</v>
@@ -12698,7 +12719,7 @@
     </row>
     <row r="480" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B480" s="10"/>
       <c r="C480" s="12"/>
@@ -12712,7 +12733,7 @@
     </row>
     <row r="481" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B481" s="10"/>
       <c r="C481" s="12"/>
@@ -12726,7 +12747,7 @@
     </row>
     <row r="482" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B482" s="10" t="s">
         <v>53</v>
@@ -12744,7 +12765,7 @@
     </row>
     <row r="483" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B483" s="10"/>
       <c r="C483" s="9"/>
@@ -12758,7 +12779,7 @@
     </row>
     <row r="484" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B484" s="10" t="s">
         <v>53</v>
@@ -12776,7 +12797,7 @@
     </row>
     <row r="485" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B485" s="10"/>
       <c r="C485" s="12"/>
@@ -12790,7 +12811,7 @@
     </row>
     <row r="486" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B486" s="10"/>
       <c r="C486" s="12"/>
@@ -12804,7 +12825,7 @@
     </row>
     <row r="487" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B487" s="10" t="s">
         <v>53</v>
@@ -12822,7 +12843,7 @@
     </row>
     <row r="488" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B488" s="10" t="s">
         <v>53</v>
@@ -12838,7 +12859,7 @@
     </row>
     <row r="489" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B489" s="10"/>
       <c r="C489" s="12"/>
@@ -12852,7 +12873,7 @@
     </row>
     <row r="490" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B490" s="10"/>
       <c r="C490" s="12"/>
@@ -12866,7 +12887,7 @@
     </row>
     <row r="491" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B491" s="10" t="s">
         <v>53</v>
@@ -12882,7 +12903,7 @@
     </row>
     <row r="492" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B492" s="10" t="s">
         <v>53</v>
@@ -12898,7 +12919,7 @@
     </row>
     <row r="493" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B493" s="10" t="s">
         <v>53</v>
@@ -12916,7 +12937,7 @@
     </row>
     <row r="494" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B494" s="10" t="s">
         <v>53</v>
@@ -12934,7 +12955,7 @@
     </row>
     <row r="495" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B495" s="10" t="s">
         <v>53</v>
@@ -12952,7 +12973,7 @@
     </row>
     <row r="496" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B496" s="10" t="s">
         <v>53</v>
@@ -12970,7 +12991,7 @@
     </row>
     <row r="497" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B497" s="10" t="s">
         <v>53</v>
@@ -12988,7 +13009,7 @@
     </row>
     <row r="498" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B498" s="10" t="s">
         <v>53</v>
@@ -13004,7 +13025,7 @@
     </row>
     <row r="499" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B499" s="10"/>
       <c r="C499" s="10"/>
@@ -13018,7 +13039,7 @@
     </row>
     <row r="500" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E500" s="9" t="s">
         <v>14</v>
@@ -13029,7 +13050,7 @@
     </row>
     <row r="501" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B501" s="10"/>
       <c r="C501" s="9"/>
@@ -13043,7 +13064,7 @@
     </row>
     <row r="502" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B502" s="10"/>
       <c r="C502" s="10"/>
@@ -13057,7 +13078,7 @@
     </row>
     <row r="503" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E503" s="9" t="s">
         <v>14</v>
@@ -13068,7 +13089,7 @@
     </row>
     <row r="504" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B504" s="10" t="s">
         <v>53</v>
@@ -13084,7 +13105,7 @@
     </row>
     <row r="505" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B505" s="10" t="s">
         <v>53</v>
@@ -13100,7 +13121,7 @@
     </row>
     <row r="506" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B506" s="10" t="s">
         <v>53</v>
@@ -13118,7 +13139,7 @@
     </row>
     <row r="507" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B507" s="10" t="s">
         <v>53</v>
@@ -13134,7 +13155,7 @@
     </row>
     <row r="508" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B508" s="10" t="s">
         <v>53</v>
@@ -13152,7 +13173,7 @@
     </row>
     <row r="509" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="9" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B509" s="10" t="s">
         <v>53</v>
@@ -13170,7 +13191,7 @@
     </row>
     <row r="510" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B510" s="10" t="s">
         <v>53</v>
@@ -13186,7 +13207,7 @@
     </row>
     <row r="511" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B511" s="10" t="s">
         <v>53</v>
@@ -13204,7 +13225,7 @@
     </row>
     <row r="512" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B512" s="10" t="s">
         <v>53</v>
@@ -13220,7 +13241,7 @@
     </row>
     <row r="513" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="9" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B513" s="10" t="s">
         <v>53</v>
@@ -13238,7 +13259,7 @@
     </row>
     <row r="514" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B514" s="10" t="s">
         <v>53</v>
@@ -13254,7 +13275,7 @@
     </row>
     <row r="515" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B515" s="10" t="s">
         <v>53</v>
@@ -13270,7 +13291,7 @@
     </row>
     <row r="516" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B516" s="10" t="s">
         <v>53</v>
@@ -13288,7 +13309,7 @@
     </row>
     <row r="517" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B517" s="10" t="s">
         <v>53</v>
@@ -13306,7 +13327,7 @@
     </row>
     <row r="518" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B518" s="10" t="s">
         <v>53</v>
@@ -13322,7 +13343,7 @@
     </row>
     <row r="519" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B519" s="10" t="s">
         <v>53</v>
@@ -13340,7 +13361,7 @@
     </row>
     <row r="520" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B520" s="10" t="s">
         <v>53</v>
@@ -13358,7 +13379,7 @@
     </row>
     <row r="521" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B521" s="10" t="s">
         <v>53</v>
@@ -13374,7 +13395,7 @@
     </row>
     <row r="522" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B522" s="10" t="s">
         <v>53</v>
@@ -13390,7 +13411,7 @@
     </row>
     <row r="523" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B523" s="10" t="s">
         <v>53</v>
@@ -13406,7 +13427,7 @@
     </row>
     <row r="524" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B524" s="10" t="s">
         <v>53</v>
@@ -13422,7 +13443,7 @@
     </row>
     <row r="525" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B525" s="10" t="s">
         <v>53</v>
@@ -13440,7 +13461,7 @@
     </row>
     <row r="526" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B526" s="10" t="s">
         <v>53</v>
@@ -13456,7 +13477,7 @@
     </row>
     <row r="527" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B527" s="10" t="s">
         <v>53</v>
@@ -13472,7 +13493,7 @@
     </row>
     <row r="528" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B528" s="10" t="s">
         <v>53</v>
@@ -13490,7 +13511,7 @@
     </row>
     <row r="529" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B529" s="10" t="s">
         <v>53</v>
@@ -13508,7 +13529,7 @@
     </row>
     <row r="530" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B530" s="10" t="s">
         <v>53</v>
@@ -13524,7 +13545,7 @@
     </row>
     <row r="531" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B531" s="10" t="s">
         <v>53</v>
@@ -13540,7 +13561,7 @@
     </row>
     <row r="532" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B532" s="10" t="s">
         <v>53</v>
@@ -13556,7 +13577,7 @@
     </row>
     <row r="533" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B533" s="10" t="s">
         <v>53</v>
@@ -13574,7 +13595,7 @@
     </row>
     <row r="534" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B534" s="10" t="s">
         <v>53</v>
@@ -13590,7 +13611,7 @@
     </row>
     <row r="535" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B535" s="10" t="s">
         <v>53</v>
@@ -13608,7 +13629,7 @@
     </row>
     <row r="536" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B536" s="10" t="s">
         <v>53</v>
@@ -13626,7 +13647,7 @@
     </row>
     <row r="537" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B537" s="10" t="s">
         <v>53</v>
@@ -13644,7 +13665,7 @@
     </row>
     <row r="538" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B538" s="10" t="s">
         <v>53</v>
@@ -13660,7 +13681,7 @@
     </row>
     <row r="539" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B539" s="10" t="s">
         <v>53</v>
@@ -13676,7 +13697,7 @@
     </row>
     <row r="540" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B540" s="10" t="s">
         <v>53</v>
@@ -13692,7 +13713,7 @@
     </row>
     <row r="541" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B541" s="10" t="s">
         <v>53</v>
@@ -13708,7 +13729,7 @@
     </row>
     <row r="542" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B542" s="10" t="s">
         <v>53</v>
@@ -13724,7 +13745,7 @@
     </row>
     <row r="543" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B543" s="10" t="s">
         <v>53</v>
@@ -13740,7 +13761,7 @@
     </row>
     <row r="544" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B544" s="10" t="s">
         <v>53</v>
@@ -13756,7 +13777,7 @@
     </row>
     <row r="545" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B545" s="10" t="s">
         <v>53</v>
@@ -13772,7 +13793,7 @@
     </row>
     <row r="546" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B546" s="10" t="s">
         <v>53</v>
@@ -13788,7 +13809,7 @@
     </row>
     <row r="547" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B547" s="10" t="s">
         <v>53</v>
@@ -13804,7 +13825,7 @@
     </row>
     <row r="548" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B548" s="10" t="s">
         <v>53</v>
@@ -13820,7 +13841,7 @@
     </row>
     <row r="549" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B549" s="10" t="s">
         <v>53</v>
@@ -13836,7 +13857,7 @@
     </row>
     <row r="550" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B550" s="10" t="s">
         <v>53</v>
@@ -13852,7 +13873,7 @@
     </row>
     <row r="551" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B551" s="10" t="s">
         <v>53</v>
@@ -13870,7 +13891,7 @@
     </row>
     <row r="552" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B552" s="10" t="s">
         <v>53</v>
@@ -13886,7 +13907,7 @@
     </row>
     <row r="553" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B553" s="10" t="s">
         <v>53</v>
@@ -13902,7 +13923,7 @@
     </row>
     <row r="554" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B554" s="10" t="s">
         <v>53</v>
@@ -13918,7 +13939,7 @@
     </row>
     <row r="555" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B555" s="10" t="s">
         <v>53</v>
@@ -13936,7 +13957,7 @@
     </row>
     <row r="556" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B556" s="10" t="s">
         <v>53</v>
@@ -13952,7 +13973,7 @@
     </row>
     <row r="557" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B557" s="10" t="s">
         <v>53</v>
@@ -13968,7 +13989,7 @@
     </row>
     <row r="558" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B558" s="10" t="s">
         <v>53</v>
@@ -13984,7 +14005,7 @@
     </row>
     <row r="559" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B559" s="10" t="s">
         <v>53</v>
@@ -14000,7 +14021,7 @@
     </row>
     <row r="560" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B560" s="10" t="s">
         <v>53</v>
@@ -14016,7 +14037,7 @@
     </row>
     <row r="561" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B561" s="10" t="s">
         <v>53</v>
@@ -14032,7 +14053,7 @@
     </row>
     <row r="562" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B562" s="10" t="s">
         <v>53</v>
@@ -14048,7 +14069,7 @@
     </row>
     <row r="563" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B563" s="10" t="s">
         <v>53</v>
@@ -14064,7 +14085,7 @@
     </row>
     <row r="564" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B564" s="10" t="s">
         <v>53</v>
@@ -14080,7 +14101,7 @@
     </row>
     <row r="565" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B565" s="10" t="s">
         <v>53</v>
@@ -14096,7 +14117,7 @@
     </row>
     <row r="566" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B566" s="10" t="s">
         <v>53</v>
@@ -14112,7 +14133,7 @@
     </row>
     <row r="567" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B567" s="10" t="s">
         <v>53</v>
@@ -14128,7 +14149,7 @@
     </row>
     <row r="568" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B568" s="10" t="s">
         <v>53</v>
@@ -14144,7 +14165,7 @@
     </row>
     <row r="569" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B569" s="10" t="s">
         <v>53</v>
@@ -14160,7 +14181,7 @@
     </row>
     <row r="570" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B570" s="10" t="s">
         <v>53</v>
@@ -14176,7 +14197,7 @@
     </row>
     <row r="571" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B571" s="10" t="s">
         <v>53</v>
@@ -14192,7 +14213,7 @@
     </row>
     <row r="572" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B572" s="10" t="s">
         <v>53</v>
@@ -14208,7 +14229,7 @@
     </row>
     <row r="573" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B573" s="10" t="s">
         <v>53</v>
@@ -14224,7 +14245,7 @@
     </row>
     <row r="574" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B574" s="10" t="s">
         <v>53</v>
@@ -14240,7 +14261,7 @@
     </row>
     <row r="575" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B575" s="10" t="s">
         <v>53</v>
@@ -14256,7 +14277,7 @@
     </row>
     <row r="576" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B576" s="10" t="s">
         <v>53</v>
@@ -14272,7 +14293,7 @@
     </row>
     <row r="577" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B577" s="10" t="s">
         <v>53</v>
@@ -14288,7 +14309,7 @@
     </row>
     <row r="578" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B578" s="10" t="s">
         <v>53</v>
@@ -14304,7 +14325,7 @@
     </row>
     <row r="579" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B579" s="10" t="s">
         <v>53</v>
@@ -14320,7 +14341,7 @@
     </row>
     <row r="580" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B580" s="10" t="s">
         <v>53</v>
@@ -14336,7 +14357,7 @@
     </row>
     <row r="581" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B581" s="10" t="s">
         <v>53</v>
@@ -14352,7 +14373,7 @@
     </row>
     <row r="582" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B582" s="10" t="s">
         <v>53</v>
@@ -14370,7 +14391,7 @@
     </row>
     <row r="583" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B583" s="10" t="s">
         <v>53</v>
@@ -14388,7 +14409,7 @@
     </row>
     <row r="584" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B584" s="10" t="s">
         <v>53</v>
@@ -14406,7 +14427,7 @@
     </row>
     <row r="585" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B585" s="10" t="s">
         <v>53</v>
@@ -14424,7 +14445,7 @@
     </row>
     <row r="586" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B586" s="10" t="s">
         <v>53</v>
@@ -14442,7 +14463,7 @@
     </row>
     <row r="587" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B587" s="10" t="s">
         <v>53</v>
@@ -14460,7 +14481,7 @@
     </row>
     <row r="588" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B588" s="10" t="s">
         <v>53</v>
@@ -14478,7 +14499,7 @@
     </row>
     <row r="589" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B589" s="10" t="s">
         <v>53</v>
@@ -14496,7 +14517,7 @@
     </row>
     <row r="590" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B590" s="10" t="s">
         <v>53</v>
@@ -14514,7 +14535,7 @@
     </row>
     <row r="591" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B591" s="10" t="s">
         <v>53</v>
@@ -14532,7 +14553,7 @@
     </row>
     <row r="592" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B592" s="10" t="s">
         <v>53</v>
@@ -14548,7 +14569,7 @@
     </row>
     <row r="593" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B593" s="10" t="s">
         <v>53</v>
@@ -14564,7 +14585,7 @@
     </row>
     <row r="594" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B594" s="10" t="s">
         <v>53</v>
@@ -14580,7 +14601,7 @@
     </row>
     <row r="595" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B595" s="10" t="s">
         <v>53</v>
@@ -14596,7 +14617,7 @@
     </row>
     <row r="596" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B596" s="10" t="s">
         <v>53</v>
@@ -14604,7 +14625,7 @@
       <c r="C596" s="10"/>
       <c r="D596" s="9"/>
       <c r="E596" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F596" s="9" t="s">
         <v>17</v>
@@ -14612,7 +14633,7 @@
     </row>
     <row r="597" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B597" s="10" t="s">
         <v>53</v>
@@ -14628,7 +14649,7 @@
     </row>
     <row r="598" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B598" s="10" t="s">
         <v>53</v>
@@ -14644,7 +14665,7 @@
     </row>
     <row r="599" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B599" s="10" t="s">
         <v>53</v>
@@ -14660,7 +14681,7 @@
     </row>
     <row r="600" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B600" s="10" t="s">
         <v>53</v>
@@ -14678,7 +14699,7 @@
     </row>
     <row r="601" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B601" s="10" t="s">
         <v>53</v>
@@ -14694,7 +14715,7 @@
     </row>
     <row r="602" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B602" s="10" t="s">
         <v>53</v>
@@ -14710,7 +14731,7 @@
     </row>
     <row r="603" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B603" s="10" t="s">
         <v>53</v>
@@ -14726,7 +14747,7 @@
     </row>
     <row r="604" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B604" s="10" t="s">
         <v>53</v>
@@ -14742,7 +14763,7 @@
     </row>
     <row r="605" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B605" s="10" t="s">
         <v>53</v>
@@ -14760,7 +14781,7 @@
     </row>
     <row r="606" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B606" s="10" t="s">
         <v>53</v>
@@ -14778,7 +14799,7 @@
     </row>
     <row r="607" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B607" s="10" t="s">
         <v>53</v>
@@ -14794,7 +14815,7 @@
     </row>
     <row r="608" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B608" s="10"/>
       <c r="C608" s="10"/>
@@ -14808,7 +14829,7 @@
     </row>
     <row r="609" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B609" s="10"/>
       <c r="C609" s="9"/>
@@ -14822,7 +14843,7 @@
     </row>
     <row r="610" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B610" s="10" t="s">
         <v>53</v>
@@ -14840,7 +14861,7 @@
     </row>
     <row r="611" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B611" s="10"/>
       <c r="C611" s="9"/>
@@ -14854,7 +14875,7 @@
     </row>
     <row r="612" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B612" s="10" t="s">
         <v>53</v>
@@ -14870,7 +14891,7 @@
     </row>
     <row r="613" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B613" s="10" t="s">
         <v>53</v>
@@ -14886,7 +14907,7 @@
     </row>
     <row r="614" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B614" s="10" t="s">
         <v>53</v>
@@ -14904,7 +14925,7 @@
     </row>
     <row r="615" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B615" s="10" t="s">
         <v>53</v>
@@ -14920,7 +14941,7 @@
     </row>
     <row r="616" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B616" s="10" t="s">
         <v>53</v>
@@ -14938,7 +14959,7 @@
     </row>
     <row r="617" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B617" s="10" t="s">
         <v>53</v>
@@ -14956,7 +14977,7 @@
     </row>
     <row r="618" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B618" s="10" t="s">
         <v>53</v>
@@ -14974,7 +14995,7 @@
     </row>
     <row r="619" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B619" s="10" t="s">
         <v>53</v>
@@ -14992,7 +15013,7 @@
     </row>
     <row r="620" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B620" s="10" t="s">
         <v>53</v>
@@ -15010,7 +15031,7 @@
     </row>
     <row r="621" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A621" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B621" s="10"/>
       <c r="C621" s="9"/>
@@ -15024,7 +15045,7 @@
     </row>
     <row r="622" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B622" s="10" t="s">
         <v>53</v>
@@ -15040,7 +15061,7 @@
     </row>
     <row r="623" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B623" s="10" t="s">
         <v>53</v>
@@ -15056,7 +15077,7 @@
     </row>
     <row r="624" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B624" s="10" t="s">
         <v>53</v>
@@ -15072,7 +15093,7 @@
     </row>
     <row r="625" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B625" s="10" t="s">
         <v>53</v>
@@ -15090,7 +15111,7 @@
     </row>
     <row r="626" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B626" s="10" t="s">
         <v>53</v>
@@ -15106,7 +15127,7 @@
     </row>
     <row r="627" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B627" s="10" t="s">
         <v>53</v>
@@ -15122,7 +15143,7 @@
     </row>
     <row r="628" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B628" s="10" t="s">
         <v>53</v>
@@ -15138,7 +15159,7 @@
     </row>
     <row r="629" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B629" s="10" t="s">
         <v>53</v>
@@ -15154,7 +15175,7 @@
     </row>
     <row r="630" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B630" s="10" t="s">
         <v>53</v>
@@ -15170,7 +15191,7 @@
     </row>
     <row r="631" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B631" s="10" t="s">
         <v>53</v>
@@ -15186,7 +15207,7 @@
     </row>
     <row r="632" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B632" s="10" t="s">
         <v>53</v>
@@ -15202,7 +15223,7 @@
     </row>
     <row r="633" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B633" s="10" t="s">
         <v>53</v>
@@ -15218,7 +15239,7 @@
     </row>
     <row r="634" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B634" s="10" t="s">
         <v>53</v>
@@ -15234,7 +15255,7 @@
     </row>
     <row r="635" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B635" s="10" t="s">
         <v>53</v>
@@ -15250,7 +15271,7 @@
     </row>
     <row r="636" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B636" s="10" t="s">
         <v>53</v>
@@ -15266,7 +15287,7 @@
     </row>
     <row r="637" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B637" s="10" t="s">
         <v>53</v>
@@ -15282,7 +15303,7 @@
     </row>
     <row r="638" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B638" s="10" t="s">
         <v>53</v>
@@ -15298,7 +15319,7 @@
     </row>
     <row r="639" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B639" s="10" t="s">
         <v>53</v>
@@ -15314,7 +15335,7 @@
     </row>
     <row r="640" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B640" s="10" t="s">
         <v>53</v>
@@ -15330,7 +15351,7 @@
     </row>
     <row r="641" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B641" s="10" t="s">
         <v>53</v>
@@ -15346,7 +15367,7 @@
     </row>
     <row r="642" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B642" s="10" t="s">
         <v>53</v>
@@ -15362,7 +15383,7 @@
     </row>
     <row r="643" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B643" s="10" t="s">
         <v>53</v>
@@ -15378,7 +15399,7 @@
     </row>
     <row r="644" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B644" s="10" t="s">
         <v>53</v>
@@ -15394,7 +15415,7 @@
     </row>
     <row r="645" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B645" s="10" t="s">
         <v>53</v>
@@ -15410,7 +15431,7 @@
     </row>
     <row r="646" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B646" s="10" t="s">
         <v>53</v>
@@ -15426,7 +15447,7 @@
     </row>
     <row r="647" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B647" s="10" t="s">
         <v>53</v>
@@ -15442,7 +15463,7 @@
     </row>
     <row r="648" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A648" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B648" s="10"/>
       <c r="C648" s="12"/>
@@ -15456,7 +15477,7 @@
     </row>
     <row r="649" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B649" s="10"/>
       <c r="C649" s="9"/>
@@ -15470,7 +15491,7 @@
     </row>
     <row r="650" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B650" s="10" t="s">
         <v>53</v>
@@ -15486,7 +15507,7 @@
     </row>
     <row r="651" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B651" s="10" t="s">
         <v>53</v>
@@ -15502,7 +15523,7 @@
     </row>
     <row r="652" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B652" s="10" t="s">
         <v>53</v>
@@ -15518,7 +15539,7 @@
     </row>
     <row r="653" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B653" s="10" t="s">
         <v>53</v>
@@ -15534,7 +15555,7 @@
     </row>
     <row r="654" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B654" s="10" t="s">
         <v>53</v>
@@ -15550,7 +15571,7 @@
     </row>
     <row r="655" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B655" s="10" t="s">
         <v>53</v>
@@ -15566,7 +15587,7 @@
     </row>
     <row r="656" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B656" s="10" t="s">
         <v>53</v>
@@ -15582,7 +15603,7 @@
     </row>
     <row r="657" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B657" s="10" t="s">
         <v>53</v>
@@ -15598,7 +15619,7 @@
     </row>
     <row r="658" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B658" s="10" t="s">
         <v>53</v>
@@ -15614,7 +15635,7 @@
     </row>
     <row r="659" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B659" s="10" t="s">
         <v>53</v>
@@ -15630,7 +15651,7 @@
     </row>
     <row r="660" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B660" s="10" t="s">
         <v>53</v>
@@ -15646,7 +15667,7 @@
     </row>
     <row r="661" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B661" s="10" t="s">
         <v>53</v>
@@ -15662,7 +15683,7 @@
     </row>
     <row r="662" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B662" s="10" t="s">
         <v>53</v>
@@ -15678,7 +15699,7 @@
     </row>
     <row r="663" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B663" s="10" t="s">
         <v>53</v>
@@ -15694,7 +15715,7 @@
     </row>
     <row r="664" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B664" s="10" t="s">
         <v>53</v>
@@ -15710,7 +15731,7 @@
     </row>
     <row r="665" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B665" s="10" t="s">
         <v>53</v>
@@ -15726,7 +15747,7 @@
     </row>
     <row r="666" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B666" s="10" t="s">
         <v>53</v>
@@ -15742,7 +15763,7 @@
     </row>
     <row r="667" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B667" s="10" t="s">
         <v>53</v>
@@ -15758,7 +15779,7 @@
     </row>
     <row r="668" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B668" s="10" t="s">
         <v>53</v>
@@ -15774,7 +15795,7 @@
     </row>
     <row r="669" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B669" s="10" t="s">
         <v>53</v>
@@ -15790,7 +15811,7 @@
     </row>
     <row r="670" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B670" s="10" t="s">
         <v>53</v>
@@ -15806,7 +15827,7 @@
     </row>
     <row r="671" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B671" s="10" t="s">
         <v>53</v>
@@ -15822,7 +15843,7 @@
     </row>
     <row r="672" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B672" s="10" t="s">
         <v>53</v>
@@ -15838,7 +15859,7 @@
     </row>
     <row r="673" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B673" s="10" t="s">
         <v>53</v>
@@ -15856,7 +15877,7 @@
     </row>
     <row r="674" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B674" s="10" t="s">
         <v>53</v>
@@ -15872,7 +15893,7 @@
     </row>
     <row r="675" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B675" s="10" t="s">
         <v>53</v>
@@ -15888,7 +15909,7 @@
     </row>
     <row r="676" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B676" s="10" t="s">
         <v>53</v>
@@ -15904,7 +15925,7 @@
     </row>
     <row r="677" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A677" s="9" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B677" s="10"/>
       <c r="C677" s="10"/>
@@ -15918,7 +15939,7 @@
     </row>
     <row r="678" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B678" s="10" t="s">
         <v>53</v>
@@ -15936,7 +15957,7 @@
     </row>
     <row r="679" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B679" s="10" t="s">
         <v>53</v>
@@ -15952,7 +15973,7 @@
     </row>
     <row r="680" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A680" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B680" s="10"/>
       <c r="C680" s="9"/>
@@ -15966,7 +15987,7 @@
     </row>
     <row r="681" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B681" s="10" t="s">
         <v>53</v>
@@ -15984,7 +16005,7 @@
     </row>
     <row r="682" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B682" s="10" t="s">
         <v>53</v>
@@ -16000,7 +16021,7 @@
     </row>
     <row r="683" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B683" s="10" t="s">
         <v>53</v>
@@ -16016,7 +16037,7 @@
     </row>
     <row r="684" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B684" s="10" t="s">
         <v>53</v>
@@ -16032,7 +16053,7 @@
     </row>
     <row r="685" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B685" s="10" t="s">
         <v>53</v>
@@ -16048,7 +16069,7 @@
     </row>
     <row r="686" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B686" s="10" t="s">
         <v>53</v>
@@ -16064,7 +16085,7 @@
     </row>
     <row r="687" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B687" s="10" t="s">
         <v>53</v>
@@ -16080,7 +16101,7 @@
     </row>
     <row r="688" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B688" s="10" t="s">
         <v>53</v>
@@ -16096,7 +16117,7 @@
     </row>
     <row r="689" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B689" s="10"/>
       <c r="C689" s="9"/>
@@ -16110,7 +16131,7 @@
     </row>
     <row r="690" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B690" s="10"/>
       <c r="C690" s="9"/>
@@ -16124,7 +16145,7 @@
     </row>
     <row r="691" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B691" s="10"/>
       <c r="C691" s="9"/>
@@ -16138,7 +16159,7 @@
     </row>
     <row r="692" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B692" s="10"/>
       <c r="C692" s="9"/>
@@ -16152,7 +16173,7 @@
     </row>
     <row r="693" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B693" s="10"/>
       <c r="C693" s="9"/>
@@ -16166,7 +16187,7 @@
     </row>
     <row r="694" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B694" s="10"/>
       <c r="C694" s="9"/>
@@ -16180,7 +16201,7 @@
     </row>
     <row r="695" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="9" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B695" s="10" t="s">
         <v>53</v>
@@ -16196,7 +16217,7 @@
     </row>
     <row r="696" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B696" s="10" t="s">
         <v>53</v>
@@ -16212,7 +16233,7 @@
     </row>
     <row r="697" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B697" s="10" t="s">
         <v>53</v>
@@ -16230,7 +16251,7 @@
     </row>
     <row r="698" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B698" s="10" t="s">
         <v>53</v>
@@ -16248,7 +16269,7 @@
     </row>
     <row r="699" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A699" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B699" s="10"/>
       <c r="C699" s="9"/>
@@ -16262,7 +16283,7 @@
     </row>
     <row r="700" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B700" s="10" t="s">
         <v>53</v>
@@ -16278,7 +16299,7 @@
     </row>
     <row r="701" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A701" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B701" s="10"/>
       <c r="C701" s="9"/>
@@ -16292,7 +16313,7 @@
     </row>
     <row r="702" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B702" s="10" t="s">
         <v>53</v>
@@ -16310,7 +16331,7 @@
     </row>
     <row r="703" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A703" s="9" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B703" s="10"/>
       <c r="C703" s="9"/>
@@ -16324,7 +16345,7 @@
     </row>
     <row r="704" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A704" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B704" s="10"/>
       <c r="C704" s="9"/>
@@ -16338,7 +16359,7 @@
     </row>
     <row r="705" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A705" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B705" s="10"/>
       <c r="C705" s="9"/>
@@ -16352,7 +16373,7 @@
     </row>
     <row r="706" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A706" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B706" s="10"/>
       <c r="C706" s="9"/>
@@ -16366,7 +16387,7 @@
     </row>
     <row r="707" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A707" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B707" s="10"/>
       <c r="C707" s="10"/>
@@ -16380,7 +16401,7 @@
     </row>
     <row r="708" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B708" s="10" t="s">
         <v>53</v>
@@ -16396,9 +16417,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="9" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B709" s="10" t="s">
         <v>53</v>
@@ -16414,7 +16435,7 @@
     </row>
     <row r="710" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A710" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B710" s="10"/>
       <c r="C710" s="9"/>
@@ -16428,7 +16449,7 @@
     </row>
     <row r="711" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A711" s="9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B711" s="10"/>
       <c r="C711" s="12"/>
@@ -16442,7 +16463,7 @@
     </row>
     <row r="712" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B712" s="10" t="s">
         <v>53</v>
@@ -16458,7 +16479,7 @@
     </row>
     <row r="713" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B713" s="10" t="s">
         <v>53</v>
@@ -16474,7 +16495,7 @@
     </row>
     <row r="714" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B714" s="10" t="s">
         <v>53</v>
@@ -16490,7 +16511,7 @@
     </row>
     <row r="715" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B715" s="10" t="s">
         <v>53</v>
@@ -16506,7 +16527,7 @@
     </row>
     <row r="716" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B716" s="10" t="s">
         <v>53</v>
@@ -16522,7 +16543,7 @@
     </row>
     <row r="717" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B717" s="10" t="s">
         <v>53</v>
@@ -16538,7 +16559,7 @@
     </row>
     <row r="718" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B718" s="10"/>
       <c r="C718" s="12"/>
@@ -16552,7 +16573,7 @@
     </row>
     <row r="719" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B719" s="10"/>
       <c r="C719" s="12"/>
@@ -16566,7 +16587,7 @@
     </row>
     <row r="720" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B720" s="10" t="s">
         <v>53</v>
@@ -16582,7 +16603,7 @@
     </row>
     <row r="721" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="9" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B721" s="10" t="s">
         <v>53</v>
@@ -16598,7 +16619,7 @@
     </row>
     <row r="722" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B722" s="10" t="s">
         <v>53</v>
@@ -16614,7 +16635,7 @@
     </row>
     <row r="723" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B723" s="10"/>
       <c r="C723" s="9"/>
@@ -16628,7 +16649,7 @@
     </row>
     <row r="724" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B724" s="10"/>
       <c r="C724" s="12"/>
@@ -16642,7 +16663,7 @@
     </row>
     <row r="725" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="9" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B725" s="10" t="s">
         <v>53</v>
@@ -16660,7 +16681,7 @@
     </row>
     <row r="726" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B726" s="10" t="s">
         <v>53</v>
@@ -16678,7 +16699,7 @@
     </row>
     <row r="727" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B727" s="10" t="s">
         <v>53</v>
@@ -16696,7 +16717,7 @@
     </row>
     <row r="728" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B728" s="10" t="s">
         <v>53</v>
@@ -16712,7 +16733,7 @@
     </row>
     <row r="729" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B729" s="10"/>
       <c r="C729" s="12"/>
@@ -16726,7 +16747,7 @@
     </row>
     <row r="730" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A730" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B730" s="10"/>
       <c r="C730" s="10"/>
@@ -16740,7 +16761,7 @@
     </row>
     <row r="731" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A731" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B731" s="10"/>
       <c r="C731" s="10"/>
@@ -16754,7 +16775,7 @@
     </row>
     <row r="732" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B732" s="10" t="s">
         <v>53</v>
@@ -16772,7 +16793,7 @@
     </row>
     <row r="733" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B733" s="10" t="s">
         <v>53</v>
@@ -16790,7 +16811,7 @@
     </row>
     <row r="734" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B734" s="10" t="s">
         <v>53</v>
@@ -16808,7 +16829,7 @@
     </row>
     <row r="735" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B735" s="10" t="s">
         <v>53</v>
@@ -16826,10 +16847,14 @@
     </row>
     <row r="736" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A736" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B736" s="10"/>
-      <c r="C736" s="10"/>
+        <v>1048</v>
+      </c>
+      <c r="B736" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C736" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D736" s="9"/>
       <c r="E736" s="9" t="s">
         <v>13</v>
@@ -16840,10 +16865,14 @@
     </row>
     <row r="737" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A737" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B737" s="10"/>
-      <c r="C737" s="10"/>
+        <v>1049</v>
+      </c>
+      <c r="B737" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C737" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D737" s="9"/>
       <c r="E737" s="9" t="s">
         <v>13</v>
@@ -16854,9 +16883,11 @@
     </row>
     <row r="738" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A738" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B738" s="10"/>
+        <v>1050</v>
+      </c>
+      <c r="B738" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C738" s="9"/>
       <c r="D738" s="9"/>
       <c r="E738" s="9" t="s">
@@ -16868,7 +16899,7 @@
     </row>
     <row r="739" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B739" s="10" t="s">
         <v>53</v>
@@ -16884,7 +16915,7 @@
     </row>
     <row r="740" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B740" s="10" t="s">
         <v>53</v>
@@ -16900,7 +16931,7 @@
     </row>
     <row r="741" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B741" s="10" t="s">
         <v>53</v>
@@ -16916,7 +16947,7 @@
     </row>
     <row r="742" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B742" s="10" t="s">
         <v>53</v>
@@ -16932,7 +16963,7 @@
     </row>
     <row r="743" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B743" s="10" t="s">
         <v>53</v>
@@ -16948,7 +16979,7 @@
     </row>
     <row r="744" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B744" s="10" t="s">
         <v>53</v>
@@ -16966,7 +16997,7 @@
     </row>
     <row r="745" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B745" s="10" t="s">
         <v>53</v>
@@ -16984,7 +17015,7 @@
     </row>
     <row r="746" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B746" s="10" t="s">
         <v>53</v>
@@ -17002,7 +17033,7 @@
     </row>
     <row r="747" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B747" s="10"/>
       <c r="C747" s="10"/>
@@ -17016,7 +17047,7 @@
     </row>
     <row r="748" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E748" s="9" t="s">
         <v>14</v>
@@ -17027,7 +17058,7 @@
     </row>
     <row r="749" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B749" s="10"/>
       <c r="C749" s="10"/>
@@ -17041,7 +17072,7 @@
     </row>
     <row r="750" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B750" s="10"/>
       <c r="C750" s="10"/>
@@ -17055,7 +17086,7 @@
     </row>
     <row r="751" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E751" s="9" t="s">
         <v>14</v>
@@ -17066,7 +17097,7 @@
     </row>
     <row r="752" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B752" s="10"/>
       <c r="C752" s="10"/>
@@ -17080,7 +17111,7 @@
     </row>
     <row r="753" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E753" s="9" t="s">
         <v>14</v>
@@ -17091,7 +17122,7 @@
     </row>
     <row r="754" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B754" s="10"/>
       <c r="C754" s="10"/>
@@ -17105,7 +17136,7 @@
     </row>
     <row r="755" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E755" s="9" t="s">
         <v>14</v>
@@ -17116,7 +17147,7 @@
     </row>
     <row r="756" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B756" s="10"/>
       <c r="C756" s="10"/>
@@ -17130,7 +17161,7 @@
     </row>
     <row r="757" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E757" s="9" t="s">
         <v>14</v>
@@ -17141,7 +17172,7 @@
     </row>
     <row r="758" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B758" s="10"/>
       <c r="C758" s="10"/>
@@ -17155,7 +17186,7 @@
     </row>
     <row r="759" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="5" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E759" s="9" t="s">
         <v>14</v>
@@ -17166,7 +17197,7 @@
     </row>
     <row r="760" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B760" s="10"/>
       <c r="C760" s="10"/>
@@ -17180,7 +17211,7 @@
     </row>
     <row r="761" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E761" s="9" t="s">
         <v>14</v>
@@ -17191,7 +17222,7 @@
     </row>
     <row r="762" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B762" s="10"/>
       <c r="C762" s="10"/>
@@ -17205,7 +17236,7 @@
     </row>
     <row r="763" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E763" s="9" t="s">
         <v>14</v>
@@ -17216,7 +17247,7 @@
     </row>
     <row r="764" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B764" s="10"/>
       <c r="C764" s="10"/>
@@ -17230,7 +17261,7 @@
     </row>
     <row r="765" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E765" s="9" t="s">
         <v>14</v>
@@ -17241,7 +17272,7 @@
     </row>
     <row r="766" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B766" s="10"/>
       <c r="C766" s="10"/>
@@ -17255,7 +17286,7 @@
     </row>
     <row r="767" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E767" s="9" t="s">
         <v>14</v>
@@ -17266,7 +17297,7 @@
     </row>
     <row r="768" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B768" s="10"/>
       <c r="C768" s="10"/>
@@ -17280,7 +17311,7 @@
     </row>
     <row r="769" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E769" s="9" t="s">
         <v>14</v>
@@ -17291,7 +17322,7 @@
     </row>
     <row r="770" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B770" s="10"/>
       <c r="C770" s="10"/>
@@ -17305,7 +17336,7 @@
     </row>
     <row r="771" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B771" s="10" t="s">
         <v>53</v>
@@ -17323,7 +17354,7 @@
     </row>
     <row r="772" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B772" s="10" t="s">
         <v>53</v>
@@ -17339,7 +17370,7 @@
     </row>
     <row r="773" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B773" s="10" t="s">
         <v>53</v>
@@ -17355,7 +17386,7 @@
     </row>
     <row r="774" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B774" s="10" t="s">
         <v>53</v>
@@ -17371,7 +17402,7 @@
     </row>
     <row r="775" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B775" s="10" t="s">
         <v>53</v>
@@ -17387,7 +17418,7 @@
     </row>
     <row r="776" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A776" s="9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B776" s="10"/>
       <c r="C776" s="9"/>
@@ -17401,7 +17432,7 @@
     </row>
     <row r="777" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B777" s="10"/>
       <c r="C777" s="12"/>
@@ -17415,7 +17446,7 @@
     </row>
     <row r="778" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B778" s="10" t="s">
         <v>53</v>
@@ -17433,7 +17464,7 @@
     </row>
     <row r="779" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B779" s="10" t="s">
         <v>53</v>
@@ -17446,12 +17477,12 @@
         <v>14</v>
       </c>
       <c r="F779" s="9" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="780" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B780" s="10" t="s">
         <v>53</v>
@@ -17467,7 +17498,7 @@
     </row>
     <row r="781" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="9" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B781" s="10" t="s">
         <v>53</v>
@@ -17483,7 +17514,7 @@
     </row>
     <row r="782" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B782" s="10" t="s">
         <v>53</v>
@@ -17499,7 +17530,7 @@
     </row>
     <row r="783" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="9" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B783" s="10" t="s">
         <v>53</v>
@@ -17515,7 +17546,7 @@
     </row>
     <row r="784" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B784" s="10" t="s">
         <v>53</v>
@@ -17531,7 +17562,7 @@
     </row>
     <row r="785" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B785" s="10" t="s">
         <v>53</v>
@@ -17547,7 +17578,7 @@
     </row>
     <row r="786" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B786" s="10" t="s">
         <v>53</v>
@@ -17563,7 +17594,7 @@
     </row>
     <row r="787" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B787" s="10" t="s">
         <v>53</v>
@@ -17581,7 +17612,7 @@
     </row>
     <row r="788" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="9" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B788" s="10" t="s">
         <v>53</v>
@@ -17599,7 +17630,7 @@
     </row>
     <row r="789" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B789" s="10" t="s">
         <v>53</v>
@@ -17615,7 +17646,7 @@
     </row>
     <row r="790" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B790" s="10" t="s">
         <v>53</v>
@@ -17631,7 +17662,7 @@
     </row>
     <row r="791" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B791" s="10" t="s">
         <v>53</v>
@@ -17647,7 +17678,7 @@
     </row>
     <row r="792" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B792" s="10" t="s">
         <v>53</v>
@@ -17663,7 +17694,7 @@
     </row>
     <row r="793" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B793" s="10" t="s">
         <v>53</v>
@@ -17679,7 +17710,7 @@
     </row>
     <row r="794" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B794" s="10" t="s">
         <v>53</v>
@@ -17695,7 +17726,7 @@
     </row>
     <row r="795" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="9" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B795" s="10" t="s">
         <v>53</v>
@@ -17713,7 +17744,7 @@
     </row>
     <row r="796" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B796" s="10" t="s">
         <v>53</v>
@@ -17729,7 +17760,7 @@
     </row>
     <row r="797" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B797" s="10" t="s">
         <v>53</v>
@@ -17745,7 +17776,7 @@
     </row>
     <row r="798" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A798" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B798" s="10"/>
       <c r="C798" s="12"/>
@@ -17759,7 +17790,7 @@
     </row>
     <row r="799" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A799" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B799" s="10"/>
       <c r="C799" s="9"/>
@@ -17773,7 +17804,7 @@
     </row>
     <row r="800" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A800" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B800" s="10"/>
       <c r="C800" s="12"/>
@@ -17787,7 +17818,7 @@
     </row>
     <row r="801" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A801" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B801" s="10"/>
       <c r="C801" s="12"/>
@@ -17801,7 +17832,7 @@
     </row>
     <row r="802" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B802" s="10" t="s">
         <v>53</v>
@@ -17817,7 +17848,7 @@
     </row>
     <row r="803" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B803" s="10" t="s">
         <v>53</v>
@@ -17835,7 +17866,7 @@
     </row>
     <row r="804" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B804" s="10" t="s">
         <v>53</v>
@@ -17853,7 +17884,7 @@
     </row>
     <row r="805" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B805" s="10" t="s">
         <v>53</v>
@@ -17871,7 +17902,7 @@
     </row>
     <row r="806" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B806" s="10" t="s">
         <v>53</v>
@@ -17889,7 +17920,7 @@
     </row>
     <row r="807" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B807" s="10" t="s">
         <v>53</v>
@@ -17935,7 +17966,7 @@
     </row>
     <row r="810" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="9" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B810" s="10" t="s">
         <v>53</v>
@@ -17951,7 +17982,7 @@
     </row>
     <row r="811" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B811" s="10" t="s">
         <v>53</v>
@@ -17969,7 +18000,7 @@
     </row>
     <row r="812" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B812" s="10" t="s">
         <v>53</v>
@@ -17987,7 +18018,7 @@
     </row>
     <row r="813" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B813" s="10" t="s">
         <v>53</v>
@@ -18003,7 +18034,7 @@
     </row>
     <row r="814" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="9" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B814" s="10" t="s">
         <v>53</v>
@@ -18019,7 +18050,7 @@
     </row>
     <row r="815" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B815" s="10" t="s">
         <v>53</v>
@@ -18035,7 +18066,7 @@
     </row>
     <row r="816" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B816" s="10" t="s">
         <v>53</v>
@@ -18051,7 +18082,7 @@
     </row>
     <row r="817" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B817" s="10" t="s">
         <v>53</v>
@@ -18069,7 +18100,7 @@
     </row>
     <row r="818" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B818" s="10" t="s">
         <v>53</v>
@@ -18087,7 +18118,7 @@
     </row>
     <row r="819" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A819" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B819" s="10"/>
       <c r="C819" s="9"/>
@@ -18101,7 +18132,7 @@
     </row>
     <row r="820" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B820" s="10" t="s">
         <v>53</v>
@@ -18119,7 +18150,7 @@
     </row>
     <row r="821" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B821" s="10" t="s">
         <v>53</v>
@@ -18135,7 +18166,7 @@
     </row>
     <row r="822" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B822" s="10" t="s">
         <v>53</v>
@@ -18151,7 +18182,7 @@
     </row>
     <row r="823" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B823" s="10" t="s">
         <v>53</v>
@@ -18169,7 +18200,7 @@
     </row>
     <row r="824" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B824" s="10" t="s">
         <v>53</v>
@@ -18185,7 +18216,7 @@
     </row>
     <row r="825" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B825" s="10" t="s">
         <v>53</v>
@@ -18203,7 +18234,7 @@
     </row>
     <row r="826" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B826" s="10" t="s">
         <v>53</v>
@@ -18221,7 +18252,7 @@
     </row>
     <row r="827" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B827" s="10" t="s">
         <v>53</v>
@@ -18239,7 +18270,7 @@
     </row>
     <row r="828" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="9" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B828" s="10" t="s">
         <v>53</v>
@@ -18257,7 +18288,7 @@
     </row>
     <row r="829" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B829" s="10" t="s">
         <v>53</v>
@@ -18275,7 +18306,7 @@
     </row>
     <row r="830" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B830" s="10" t="s">
         <v>53</v>
@@ -18293,7 +18324,7 @@
     </row>
     <row r="831" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B831" s="10" t="s">
         <v>53</v>
@@ -18311,7 +18342,7 @@
     </row>
     <row r="832" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B832" s="10" t="s">
         <v>53</v>
@@ -18329,7 +18360,7 @@
     </row>
     <row r="833" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="9" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B833" s="10" t="s">
         <v>53</v>
@@ -18345,7 +18376,7 @@
     </row>
     <row r="834" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="9" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B834" s="10" t="s">
         <v>53</v>
@@ -18361,7 +18392,7 @@
     </row>
     <row r="835" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A835" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B835" s="10"/>
       <c r="C835" s="12"/>
@@ -18375,7 +18406,7 @@
     </row>
     <row r="836" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="9" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B836" s="10" t="s">
         <v>53</v>
@@ -18391,7 +18422,7 @@
     </row>
     <row r="837" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="9" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B837" s="10" t="s">
         <v>53</v>
@@ -18407,7 +18438,7 @@
     </row>
     <row r="838" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="9" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B838" s="10" t="s">
         <v>53</v>
@@ -18425,13 +18456,13 @@
     </row>
     <row r="839" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B839" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C839" s="12" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D839" s="9"/>
       <c r="E839" s="9" t="s">
@@ -18443,7 +18474,7 @@
     </row>
     <row r="840" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B840" s="10"/>
       <c r="C840" s="12"/>
@@ -18457,7 +18488,7 @@
     </row>
     <row r="841" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="9" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B841" s="10" t="s">
         <v>53</v>
@@ -18473,7 +18504,7 @@
     </row>
     <row r="842" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B842" s="10" t="s">
         <v>53</v>
@@ -18489,7 +18520,7 @@
     </row>
     <row r="843" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="9" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B843" s="10" t="s">
         <v>53</v>
@@ -18507,7 +18538,7 @@
     </row>
     <row r="844" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="9" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B844" s="10" t="s">
         <v>53</v>
@@ -18525,7 +18556,7 @@
     </row>
     <row r="845" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="9" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B845" s="10" t="s">
         <v>53</v>
@@ -18543,13 +18574,13 @@
     </row>
     <row r="846" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B846" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C846" s="12" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D846" s="9"/>
       <c r="E846" s="9" t="s">
@@ -18561,7 +18592,7 @@
     </row>
     <row r="847" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="9" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B847" s="10" t="s">
         <v>53</v>
@@ -18577,7 +18608,7 @@
     </row>
     <row r="848" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B848" s="10" t="s">
         <v>53</v>
@@ -18593,7 +18624,7 @@
     </row>
     <row r="849" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="9" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B849" s="10" t="s">
         <v>53</v>
@@ -18609,7 +18640,7 @@
     </row>
     <row r="850" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B850" s="10" t="s">
         <v>53</v>
@@ -18625,7 +18656,7 @@
     </row>
     <row r="851" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B851" s="10" t="s">
         <v>53</v>
@@ -18641,7 +18672,7 @@
     </row>
     <row r="852" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B852" s="10" t="s">
         <v>53</v>
@@ -18657,7 +18688,7 @@
     </row>
     <row r="853" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B853" s="10" t="s">
         <v>53</v>
@@ -18673,7 +18704,7 @@
     </row>
     <row r="854" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B854" s="10" t="s">
         <v>53</v>
@@ -18689,7 +18720,7 @@
     </row>
     <row r="855" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B855" s="10" t="s">
         <v>53</v>
@@ -18705,7 +18736,7 @@
     </row>
     <row r="856" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B856" s="10" t="s">
         <v>53</v>
@@ -18721,7 +18752,7 @@
     </row>
     <row r="857" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B857" s="10" t="s">
         <v>53</v>
@@ -18737,7 +18768,7 @@
     </row>
     <row r="858" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B858" s="10" t="s">
         <v>53</v>
@@ -18753,7 +18784,7 @@
     </row>
     <row r="859" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B859" s="10" t="s">
         <v>53</v>
@@ -18771,7 +18802,7 @@
     </row>
     <row r="860" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B860" s="10" t="s">
         <v>53</v>
@@ -18787,7 +18818,7 @@
     </row>
     <row r="861" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B861" s="10" t="s">
         <v>53</v>
@@ -18803,7 +18834,7 @@
     </row>
     <row r="862" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B862" s="10" t="s">
         <v>53</v>
@@ -18819,7 +18850,7 @@
     </row>
     <row r="863" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B863" s="10" t="s">
         <v>53</v>
@@ -18835,7 +18866,7 @@
     </row>
     <row r="864" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B864" s="10" t="s">
         <v>53</v>
@@ -18851,7 +18882,7 @@
     </row>
     <row r="865" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B865" s="10" t="s">
         <v>53</v>
@@ -18867,7 +18898,7 @@
     </row>
     <row r="866" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B866" s="10" t="s">
         <v>53</v>
@@ -18883,7 +18914,7 @@
     </row>
     <row r="867" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B867" s="10" t="s">
         <v>53</v>
@@ -18899,7 +18930,7 @@
     </row>
     <row r="868" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B868" s="10" t="s">
         <v>53</v>
@@ -18915,7 +18946,7 @@
     </row>
     <row r="869" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B869" s="10" t="s">
         <v>53</v>
@@ -18931,7 +18962,7 @@
     </row>
     <row r="870" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B870" s="10" t="s">
         <v>53</v>
@@ -18947,7 +18978,7 @@
     </row>
     <row r="871" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B871" s="10" t="s">
         <v>53</v>
@@ -18963,7 +18994,7 @@
     </row>
     <row r="872" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B872" s="10" t="s">
         <v>53</v>
@@ -18979,7 +19010,7 @@
     </row>
     <row r="873" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B873" s="10" t="s">
         <v>53</v>
@@ -18995,7 +19026,7 @@
     </row>
     <row r="874" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B874" s="10" t="s">
         <v>53</v>
@@ -19011,7 +19042,7 @@
     </row>
     <row r="875" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B875" s="10" t="s">
         <v>53</v>
@@ -19027,7 +19058,7 @@
     </row>
     <row r="876" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B876" s="10" t="s">
         <v>53</v>
@@ -19043,7 +19074,7 @@
     </row>
     <row r="877" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B877" s="10" t="s">
         <v>53</v>
@@ -19059,7 +19090,7 @@
     </row>
     <row r="878" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B878" s="10" t="s">
         <v>53</v>
@@ -19075,7 +19106,7 @@
     </row>
     <row r="879" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B879" s="10" t="s">
         <v>53</v>
@@ -19091,7 +19122,7 @@
     </row>
     <row r="880" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="9" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B880" s="10" t="s">
         <v>53</v>
@@ -19107,7 +19138,7 @@
     </row>
     <row r="881" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B881" s="10" t="s">
         <v>53</v>
@@ -19123,7 +19154,7 @@
     </row>
     <row r="882" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B882" s="10" t="s">
         <v>53</v>
@@ -19139,7 +19170,7 @@
     </row>
     <row r="883" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B883" s="10" t="s">
         <v>53</v>
@@ -19155,7 +19186,7 @@
     </row>
     <row r="884" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A884" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B884" s="10"/>
       <c r="C884" s="12"/>
@@ -19169,7 +19200,7 @@
     </row>
     <row r="885" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A885" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B885" s="10"/>
       <c r="C885" s="12"/>
@@ -19183,7 +19214,7 @@
     </row>
     <row r="886" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B886" s="10" t="s">
         <v>53</v>
@@ -19199,7 +19230,7 @@
     </row>
     <row r="887" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B887" s="10" t="s">
         <v>53</v>
@@ -19215,7 +19246,7 @@
     </row>
     <row r="888" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B888" s="10" t="s">
         <v>53</v>
@@ -19231,7 +19262,7 @@
     </row>
     <row r="889" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B889" s="10" t="s">
         <v>53</v>
@@ -19247,7 +19278,7 @@
     </row>
     <row r="890" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B890" s="10" t="s">
         <v>53</v>
@@ -19263,7 +19294,7 @@
     </row>
     <row r="891" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B891" s="10" t="s">
         <v>53</v>
@@ -19279,7 +19310,7 @@
     </row>
     <row r="892" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="9" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B892" s="10" t="s">
         <v>53</v>
@@ -19295,7 +19326,7 @@
     </row>
     <row r="893" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B893" s="10" t="s">
         <v>53</v>
@@ -19311,7 +19342,7 @@
     </row>
     <row r="894" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="9" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B894" s="10" t="s">
         <v>53</v>
@@ -19327,7 +19358,7 @@
     </row>
     <row r="895" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="9" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B895" s="10" t="s">
         <v>53</v>
@@ -19343,7 +19374,7 @@
     </row>
     <row r="896" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="9" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B896" s="10"/>
       <c r="C896" s="12"/>
@@ -19357,7 +19388,7 @@
     </row>
     <row r="897" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="9" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B897" s="10"/>
       <c r="C897" s="12"/>
@@ -19371,7 +19402,7 @@
     </row>
     <row r="898" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="9" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B898" s="10" t="s">
         <v>53</v>
@@ -19387,7 +19418,7 @@
     </row>
     <row r="899" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="9" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B899" s="10" t="s">
         <v>53</v>
@@ -19403,7 +19434,7 @@
     </row>
     <row r="900" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="9" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>53</v>
@@ -19419,7 +19450,7 @@
     </row>
     <row r="901" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A901" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B901" s="10"/>
       <c r="C901" s="9"/>
@@ -19433,7 +19464,7 @@
     </row>
     <row r="902" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A902" s="9" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B902" s="10"/>
       <c r="C902" s="9"/>
@@ -19447,7 +19478,7 @@
     </row>
     <row r="903" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A903" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B903" s="10"/>
       <c r="C903" s="12"/>
@@ -19461,7 +19492,7 @@
     </row>
     <row r="904" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B904" s="10" t="s">
         <v>53</v>
@@ -19477,7 +19508,7 @@
     </row>
     <row r="905" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B905" s="10" t="s">
         <v>53</v>
@@ -19495,7 +19526,7 @@
     </row>
     <row r="906" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B906" s="10" t="s">
         <v>53</v>
@@ -19513,7 +19544,7 @@
     </row>
     <row r="907" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="9" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B907" s="10" t="s">
         <v>53</v>
@@ -19531,7 +19562,7 @@
     </row>
     <row r="908" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B908" s="10" t="s">
         <v>53</v>
@@ -19542,12 +19573,12 @@
         <v>14</v>
       </c>
       <c r="F908" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="9" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B909" s="10" t="s">
         <v>53</v>
@@ -19563,7 +19594,7 @@
     </row>
     <row r="910" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="9" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B910" s="10" t="s">
         <v>53</v>
@@ -19581,7 +19612,7 @@
     </row>
     <row r="911" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B911" s="10" t="s">
         <v>53</v>
@@ -19597,7 +19628,7 @@
     </row>
     <row r="912" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="9" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B912" s="10" t="s">
         <v>53</v>
@@ -19613,7 +19644,7 @@
     </row>
     <row r="913" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B913" s="10" t="s">
         <v>53</v>
@@ -19629,7 +19660,7 @@
     </row>
     <row r="914" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B914" s="10" t="s">
         <v>53</v>
@@ -19645,7 +19676,7 @@
     </row>
     <row r="915" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A915" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B915" s="10"/>
       <c r="C915" s="12"/>
@@ -19659,7 +19690,7 @@
     </row>
     <row r="916" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B916" s="10" t="s">
         <v>53</v>
@@ -19675,7 +19706,7 @@
     </row>
     <row r="917" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="9" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B917" s="10" t="s">
         <v>53</v>
@@ -19691,7 +19722,7 @@
     </row>
     <row r="918" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B918" s="10" t="s">
         <v>53</v>
@@ -19709,7 +19740,7 @@
     </row>
     <row r="919" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B919" s="10" t="s">
         <v>53</v>
@@ -19727,7 +19758,7 @@
     </row>
     <row r="920" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B920" s="10" t="s">
         <v>53</v>
@@ -19743,7 +19774,7 @@
     </row>
     <row r="921" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B921" s="10" t="s">
         <v>53</v>
@@ -19761,7 +19792,7 @@
     </row>
     <row r="922" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B922" s="10" t="s">
         <v>53</v>
@@ -19777,7 +19808,7 @@
     </row>
     <row r="923" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="9" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B923" s="10" t="s">
         <v>53</v>
@@ -19793,7 +19824,7 @@
     </row>
     <row r="924" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="9" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B924" s="10" t="s">
         <v>53</v>
@@ -19807,9 +19838,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="925" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="9" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B925" s="10" t="s">
         <v>53</v>
@@ -19825,7 +19856,7 @@
     </row>
     <row r="926" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="9" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B926" s="10" t="s">
         <v>53</v>
@@ -19841,7 +19872,7 @@
     </row>
     <row r="927" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="9" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B927" s="10" t="s">
         <v>53</v>
@@ -19857,9 +19888,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="9" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B928" s="10" t="s">
         <v>53</v>
@@ -19873,9 +19904,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="929" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="9" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B929" s="10" t="s">
         <v>53</v>
@@ -19891,7 +19922,7 @@
     </row>
     <row r="930" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="9" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B930" s="10" t="s">
         <v>53</v>
@@ -19909,7 +19940,7 @@
     </row>
     <row r="931" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="9" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B931" s="10" t="s">
         <v>53</v>
@@ -19927,7 +19958,7 @@
     </row>
     <row r="932" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="9" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B932" s="10" t="s">
         <v>53</v>
@@ -19945,7 +19976,7 @@
     </row>
     <row r="933" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B933" s="10" t="s">
         <v>53</v>
@@ -19963,7 +19994,7 @@
     </row>
     <row r="934" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B934" s="10" t="s">
         <v>53</v>
@@ -19981,7 +20012,7 @@
     </row>
     <row r="935" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B935" s="10" t="s">
         <v>53</v>
@@ -19999,7 +20030,7 @@
     </row>
     <row r="936" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="9" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B936" s="10" t="s">
         <v>53</v>
@@ -20017,7 +20048,7 @@
     </row>
     <row r="937" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B937" s="10" t="s">
         <v>53</v>
@@ -20035,7 +20066,7 @@
     </row>
     <row r="938" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B938" s="10" t="s">
         <v>53</v>
@@ -20053,7 +20084,7 @@
     </row>
     <row r="939" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="9" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B939" s="10" t="s">
         <v>53</v>
@@ -20069,7 +20100,7 @@
     </row>
     <row r="940" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="9" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B940" s="10" t="s">
         <v>53</v>
@@ -20087,7 +20118,7 @@
     </row>
     <row r="941" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="9" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B941" s="10" t="s">
         <v>53</v>
@@ -20103,7 +20134,7 @@
     </row>
     <row r="942" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B942" s="10" t="s">
         <v>53</v>
@@ -20119,7 +20150,7 @@
     </row>
     <row r="943" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="9" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B943" s="10" t="s">
         <v>53</v>
@@ -20135,7 +20166,7 @@
     </row>
     <row r="944" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B944" s="10" t="s">
         <v>53</v>
@@ -20151,7 +20182,7 @@
     </row>
     <row r="945" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B945" s="10" t="s">
         <v>53</v>
@@ -20169,7 +20200,7 @@
     </row>
     <row r="946" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B946" s="10" t="s">
         <v>53</v>
@@ -20185,7 +20216,7 @@
     </row>
     <row r="947" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A947" s="9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B947" s="10"/>
       <c r="C947" s="9"/>
@@ -20199,7 +20230,7 @@
     </row>
     <row r="948" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="9" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B948" s="10" t="s">
         <v>53</v>
@@ -20215,7 +20246,7 @@
     </row>
     <row r="949" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B949" s="10" t="s">
         <v>53</v>
@@ -20231,7 +20262,7 @@
     </row>
     <row r="950" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B950" s="10" t="s">
         <v>53</v>
@@ -20249,7 +20280,7 @@
     </row>
     <row r="951" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="9" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B951" s="10" t="s">
         <v>53</v>
@@ -20267,7 +20298,7 @@
     </row>
     <row r="952" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="9" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B952" s="10" t="s">
         <v>53</v>
@@ -20283,7 +20314,7 @@
     </row>
     <row r="953" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B953" s="10" t="s">
         <v>53</v>
@@ -20299,7 +20330,7 @@
     </row>
     <row r="954" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B954" s="10" t="s">
         <v>53</v>
@@ -20317,7 +20348,7 @@
     </row>
     <row r="955" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B955" s="10" t="s">
         <v>53</v>
@@ -20333,7 +20364,7 @@
     </row>
     <row r="956" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="9" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B956" s="10" t="s">
         <v>53</v>
@@ -20349,7 +20380,7 @@
     </row>
     <row r="957" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="9" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B957" s="10" t="s">
         <v>53</v>
@@ -20365,7 +20396,7 @@
     </row>
     <row r="958" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B958" s="10" t="s">
         <v>53</v>
@@ -20381,7 +20412,7 @@
     </row>
     <row r="959" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B959" s="10" t="s">
         <v>53</v>
@@ -20397,7 +20428,7 @@
     </row>
     <row r="960" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A960" s="9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B960" s="10"/>
       <c r="C960" s="9"/>
@@ -20411,7 +20442,7 @@
     </row>
     <row r="961" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B961" s="10" t="s">
         <v>53</v>
@@ -20429,7 +20460,7 @@
     </row>
     <row r="962" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B962" s="10" t="s">
         <v>53</v>
@@ -20447,7 +20478,7 @@
     </row>
     <row r="963" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B963" s="10" t="s">
         <v>53</v>
@@ -20465,7 +20496,7 @@
     </row>
     <row r="964" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B964" s="10" t="s">
         <v>53</v>
@@ -20483,7 +20514,7 @@
     </row>
     <row r="965" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A965" s="9" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B965" s="10"/>
       <c r="C965" s="10"/>
@@ -20497,7 +20528,7 @@
     </row>
     <row r="966" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="9" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B966" s="10" t="s">
         <v>53</v>
@@ -20513,7 +20544,7 @@
     </row>
     <row r="967" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="9" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B967" s="10" t="s">
         <v>53</v>
@@ -20529,7 +20560,7 @@
     </row>
     <row r="968" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="9" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B968" s="10" t="s">
         <v>53</v>
@@ -20545,7 +20576,7 @@
     </row>
     <row r="969" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="9" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B969" s="10" t="s">
         <v>53</v>
@@ -20561,7 +20592,7 @@
     </row>
     <row r="970" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B970" s="10" t="s">
         <v>53</v>
@@ -20579,7 +20610,7 @@
     </row>
     <row r="971" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B971" s="10" t="s">
         <v>53</v>
@@ -20597,7 +20628,7 @@
     </row>
     <row r="972" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B972" s="10"/>
       <c r="C972" s="12"/>
@@ -20611,7 +20642,7 @@
     </row>
     <row r="973" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B973" s="10" t="s">
         <v>53</v>
@@ -20627,7 +20658,7 @@
     </row>
     <row r="974" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B974" s="10" t="s">
         <v>53</v>
@@ -20643,7 +20674,7 @@
     </row>
     <row r="975" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B975" s="10" t="s">
         <v>53</v>
@@ -20659,7 +20690,7 @@
     </row>
     <row r="976" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A976" s="9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B976" s="10"/>
       <c r="C976" s="12"/>
@@ -20673,7 +20704,7 @@
     </row>
     <row r="977" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A977" s="9" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B977" s="10"/>
       <c r="C977" s="12"/>
@@ -20687,7 +20718,7 @@
     </row>
     <row r="978" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A978" s="9" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B978" s="10"/>
       <c r="C978" s="12"/>
@@ -20701,7 +20732,7 @@
     </row>
     <row r="979" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A979" s="9" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B979" s="10"/>
       <c r="C979" s="10"/>
@@ -20715,7 +20746,7 @@
     </row>
     <row r="980" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="9" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B980" s="10" t="s">
         <v>53</v>
@@ -20731,7 +20762,7 @@
     </row>
     <row r="981" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="9" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B981" s="10"/>
       <c r="C981" s="9"/>
@@ -20745,7 +20776,7 @@
     </row>
     <row r="982" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="9" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B982" s="10"/>
       <c r="C982" s="9"/>
@@ -20759,7 +20790,7 @@
     </row>
     <row r="983" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="9" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B983" s="10" t="s">
         <v>53</v>
@@ -20775,7 +20806,7 @@
     </row>
     <row r="984" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="9" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B984" s="10"/>
       <c r="C984" s="9"/>
@@ -20789,7 +20820,7 @@
     </row>
     <row r="985" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="9" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B985" s="10"/>
       <c r="C985" s="9"/>
@@ -20801,12 +20832,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="986" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="9" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B986" s="10"/>
-      <c r="C986" s="12"/>
+        <v>1241</v>
+      </c>
+      <c r="B986" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C986" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D986" s="9"/>
       <c r="E986" s="9" t="s">
         <v>13</v>
@@ -20817,7 +20852,7 @@
     </row>
     <row r="987" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="9" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B987" s="10"/>
       <c r="C987" s="12"/>
@@ -20831,7 +20866,7 @@
     </row>
     <row r="988" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="9" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B988" s="10"/>
       <c r="C988" s="9"/>
@@ -20845,7 +20880,7 @@
     </row>
     <row r="989" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="9" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B989" s="10"/>
       <c r="C989" s="12"/>
@@ -20859,7 +20894,7 @@
     </row>
     <row r="990" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="9" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B990" s="10"/>
       <c r="C990" s="12"/>
@@ -20873,7 +20908,7 @@
     </row>
     <row r="991" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="9" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B991" s="10"/>
       <c r="C991" s="12"/>
@@ -20887,7 +20922,7 @@
     </row>
     <row r="992" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="9" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B992" s="10"/>
       <c r="C992" s="12"/>
@@ -20901,7 +20936,7 @@
     </row>
     <row r="993" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B993" s="10"/>
       <c r="C993" s="12"/>
@@ -20915,7 +20950,7 @@
     </row>
     <row r="994" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B994" s="10"/>
       <c r="C994" s="12"/>
@@ -20929,7 +20964,7 @@
     </row>
     <row r="995" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" s="9" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B995" s="10"/>
       <c r="C995" s="12"/>
@@ -20943,7 +20978,7 @@
     </row>
     <row r="996" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="9" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B996" s="10"/>
       <c r="C996" s="12"/>
@@ -20957,7 +20992,7 @@
     </row>
     <row r="997" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="9" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B997" s="10"/>
       <c r="C997" s="12"/>
@@ -20971,7 +21006,7 @@
     </row>
     <row r="998" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="9" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B998" s="10"/>
       <c r="C998" s="12"/>
@@ -20985,7 +21020,7 @@
     </row>
     <row r="999" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="9" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B999" s="10"/>
       <c r="C999" s="12"/>
@@ -20999,7 +21034,7 @@
     </row>
     <row r="1000" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="9" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1000" s="10"/>
       <c r="C1000" s="12"/>
@@ -21013,7 +21048,7 @@
     </row>
     <row r="1001" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="9" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1001" s="10"/>
       <c r="C1001" s="12"/>
@@ -21027,7 +21062,7 @@
     </row>
     <row r="1002" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="9" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1002" s="10"/>
       <c r="C1002" s="12"/>
@@ -21041,7 +21076,7 @@
     </row>
     <row r="1003" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="9" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1003" s="10"/>
       <c r="C1003" s="12"/>
@@ -21055,7 +21090,7 @@
     </row>
     <row r="1004" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="9" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1004" s="10"/>
       <c r="C1004" s="12"/>
@@ -21069,7 +21104,7 @@
     </row>
     <row r="1005" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1005" s="10"/>
       <c r="C1005" s="12"/>
@@ -21083,7 +21118,7 @@
     </row>
     <row r="1006" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1006" s="10"/>
       <c r="C1006" s="9"/>
@@ -21097,7 +21132,7 @@
     </row>
     <row r="1007" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1007" s="10"/>
       <c r="C1007" s="12"/>
@@ -21111,7 +21146,7 @@
     </row>
     <row r="1008" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="9" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1008" s="10"/>
       <c r="C1008" s="12"/>
@@ -21125,7 +21160,7 @@
     </row>
     <row r="1009" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="9" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1009" s="10"/>
       <c r="C1009" s="12"/>
@@ -21139,7 +21174,7 @@
     </row>
     <row r="1010" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="9" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1010" s="10"/>
       <c r="C1010" s="9"/>
@@ -21153,7 +21188,7 @@
     </row>
     <row r="1011" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1011" s="10"/>
       <c r="C1011" s="12"/>
@@ -21167,7 +21202,7 @@
     </row>
     <row r="1012" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1012" s="10"/>
       <c r="C1012" s="9"/>
@@ -21181,7 +21216,7 @@
     </row>
     <row r="1013" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="9" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1013" s="10"/>
       <c r="C1013" s="12"/>
@@ -21195,7 +21230,7 @@
     </row>
     <row r="1014" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="9" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1014" s="10"/>
       <c r="C1014" s="12"/>
@@ -21209,7 +21244,7 @@
     </row>
     <row r="1015" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="9" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1015" s="10"/>
       <c r="C1015" s="12"/>
@@ -21223,7 +21258,7 @@
     </row>
     <row r="1016" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1016" s="10"/>
       <c r="C1016" s="12"/>
@@ -21237,7 +21272,7 @@
     </row>
     <row r="1017" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="9" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1017" s="10"/>
       <c r="C1017" s="12"/>
@@ -21251,7 +21286,7 @@
     </row>
     <row r="1018" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="9" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1018" s="10"/>
       <c r="C1018" s="12"/>
@@ -21265,7 +21300,7 @@
     </row>
     <row r="1019" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="9" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1019" s="10"/>
       <c r="C1019" s="12"/>
@@ -21279,7 +21314,7 @@
     </row>
     <row r="1020" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1020" s="10"/>
       <c r="C1020" s="12"/>
@@ -21293,7 +21328,7 @@
     </row>
     <row r="1021" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="9" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1021" s="10"/>
       <c r="C1021" s="12"/>
@@ -21307,7 +21342,7 @@
     </row>
     <row r="1022" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1022" s="10"/>
       <c r="C1022" s="9"/>
@@ -21321,7 +21356,7 @@
     </row>
     <row r="1023" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1023" s="10"/>
       <c r="C1023" s="12"/>
@@ -21335,7 +21370,7 @@
     </row>
     <row r="1024" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1024" s="10"/>
       <c r="C1024" s="12"/>
@@ -21349,7 +21384,7 @@
     </row>
     <row r="1025" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1025" s="10"/>
       <c r="C1025" s="12"/>
@@ -21363,7 +21398,7 @@
     </row>
     <row r="1026" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1026" s="10"/>
       <c r="C1026" s="12"/>
@@ -21377,7 +21412,7 @@
     </row>
     <row r="1027" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="9" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1027" s="10"/>
       <c r="C1027" s="12"/>
@@ -21391,7 +21426,7 @@
     </row>
     <row r="1028" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="9" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1028" s="10"/>
       <c r="C1028" s="12"/>
@@ -21405,7 +21440,7 @@
     </row>
     <row r="1029" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="9" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1029" s="10"/>
       <c r="C1029" s="9"/>
@@ -21419,7 +21454,7 @@
     </row>
     <row r="1030" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1030" s="10"/>
       <c r="C1030" s="12"/>
@@ -21433,7 +21468,7 @@
     </row>
     <row r="1031" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1031" s="10"/>
       <c r="C1031" s="12"/>
@@ -21447,7 +21482,7 @@
     </row>
     <row r="1032" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1032" s="10"/>
       <c r="C1032" s="12"/>
@@ -21461,7 +21496,7 @@
     </row>
     <row r="1033" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1033" s="10"/>
       <c r="C1033" s="12"/>
@@ -21475,7 +21510,7 @@
     </row>
     <row r="1034" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="9" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1034" s="10"/>
       <c r="C1034" s="9"/>
@@ -21489,7 +21524,7 @@
     </row>
     <row r="1035" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="9" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1035" s="10"/>
       <c r="C1035" s="12"/>
@@ -21503,7 +21538,7 @@
     </row>
     <row r="1036" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="9" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1036" s="10"/>
       <c r="C1036" s="9"/>
@@ -21517,7 +21552,7 @@
     </row>
     <row r="1037" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" s="9" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1037" s="10"/>
       <c r="C1037" s="12"/>
@@ -21531,7 +21566,7 @@
     </row>
     <row r="1038" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" s="9" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1038" s="10"/>
       <c r="C1038" s="9"/>
@@ -21545,7 +21580,7 @@
     </row>
     <row r="1039" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1039" s="10"/>
       <c r="C1039" s="12"/>
@@ -21559,7 +21594,7 @@
     </row>
     <row r="1040" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="9" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1040" s="10"/>
       <c r="C1040" s="12"/>
@@ -21573,7 +21608,7 @@
     </row>
     <row r="1041" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1041" s="10"/>
       <c r="C1041" s="9"/>
@@ -21587,7 +21622,7 @@
     </row>
     <row r="1042" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1042" s="10"/>
       <c r="C1042" s="9"/>
@@ -21601,7 +21636,7 @@
     </row>
     <row r="1043" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="9" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1043" s="10"/>
       <c r="C1043" s="12"/>
@@ -21615,7 +21650,7 @@
     </row>
     <row r="1044" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="9" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1044" s="10"/>
       <c r="C1044" s="12"/>
@@ -21629,7 +21664,7 @@
     </row>
     <row r="1045" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="9" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B1045" s="10"/>
       <c r="C1045" s="9"/>
@@ -21643,7 +21678,7 @@
     </row>
     <row r="1046" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="9" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1046" s="10"/>
       <c r="C1046" s="12"/>
@@ -21657,7 +21692,7 @@
     </row>
     <row r="1047" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="9" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1047" s="10"/>
       <c r="C1047" s="12"/>
@@ -21671,7 +21706,7 @@
     </row>
     <row r="1048" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="9" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1048" s="10"/>
       <c r="C1048" s="12"/>
@@ -21685,7 +21720,7 @@
     </row>
     <row r="1049" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1049" s="10"/>
       <c r="C1049" s="12"/>
@@ -21699,7 +21734,7 @@
     </row>
     <row r="1050" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="9" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1050" s="10"/>
       <c r="C1050" s="12"/>
@@ -21713,7 +21748,7 @@
     </row>
     <row r="1051" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="9" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1051" s="10"/>
       <c r="C1051" s="12"/>
@@ -21727,7 +21762,7 @@
     </row>
     <row r="1052" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" s="9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1052" s="10"/>
       <c r="C1052" s="12"/>
@@ -21741,7 +21776,7 @@
     </row>
     <row r="1053" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1053" s="10"/>
       <c r="C1053" s="12"/>
@@ -21755,7 +21790,7 @@
     </row>
     <row r="1054" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" s="9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1054" s="10"/>
       <c r="C1054" s="9"/>
@@ -21769,7 +21804,7 @@
     </row>
     <row r="1055" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" s="9" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1055" s="10"/>
       <c r="C1055" s="12"/>
@@ -21783,7 +21818,7 @@
     </row>
     <row r="1056" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="9" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B1056" s="10"/>
       <c r="C1056" s="12"/>
@@ -21797,7 +21832,7 @@
     </row>
     <row r="1057" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1057" s="10"/>
       <c r="C1057" s="9"/>
@@ -21811,7 +21846,7 @@
     </row>
     <row r="1058" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1058" s="10"/>
       <c r="C1058" s="12"/>
@@ -21825,7 +21860,7 @@
     </row>
     <row r="1059" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1059" s="10"/>
       <c r="C1059" s="9"/>
@@ -21839,7 +21874,7 @@
     </row>
     <row r="1060" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="9" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1060" s="10"/>
       <c r="C1060" s="9"/>
@@ -21853,7 +21888,7 @@
     </row>
     <row r="1061" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1061" s="10"/>
       <c r="C1061" s="12"/>
@@ -21867,7 +21902,7 @@
     </row>
     <row r="1062" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="9" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1062" s="10"/>
       <c r="C1062" s="12"/>
@@ -21881,7 +21916,7 @@
     </row>
     <row r="1063" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1063" s="10"/>
       <c r="C1063" s="9"/>
@@ -21895,7 +21930,7 @@
     </row>
     <row r="1064" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1064" s="10"/>
       <c r="C1064" s="12"/>
@@ -21909,7 +21944,7 @@
     </row>
     <row r="1065" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="9" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1065" s="10"/>
       <c r="C1065" s="12"/>
@@ -21923,7 +21958,7 @@
     </row>
     <row r="1066" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="9" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1066" s="10"/>
       <c r="C1066" s="9"/>
@@ -21937,7 +21972,7 @@
     </row>
     <row r="1067" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067" s="9" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1067" s="10"/>
       <c r="C1067" s="12"/>
@@ -21951,7 +21986,7 @@
     </row>
     <row r="1068" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="9" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1068" s="10"/>
       <c r="C1068" s="9"/>
@@ -21965,7 +22000,7 @@
     </row>
     <row r="1069" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1069" s="9" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1069" s="10"/>
       <c r="C1069" s="12"/>
@@ -21979,7 +22014,7 @@
     </row>
     <row r="1070" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="9" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1070" s="10"/>
       <c r="C1070" s="9"/>
@@ -21993,7 +22028,7 @@
     </row>
     <row r="1071" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071" s="9" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1071" s="10"/>
       <c r="C1071" s="12"/>
@@ -22007,7 +22042,7 @@
     </row>
     <row r="1072" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072" s="9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1072" s="10"/>
       <c r="C1072" s="12"/>
@@ -22021,7 +22056,7 @@
     </row>
     <row r="1073" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1073" s="10"/>
       <c r="C1073" s="9"/>
@@ -22035,7 +22070,7 @@
     </row>
     <row r="1074" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1074" s="9" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1074" s="10"/>
       <c r="C1074" s="12"/>
@@ -22049,7 +22084,7 @@
     </row>
     <row r="1075" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075" s="9" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1075" s="10"/>
       <c r="C1075" s="9"/>
@@ -22063,7 +22098,7 @@
     </row>
     <row r="1076" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1076" s="9" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1076" s="10"/>
       <c r="C1076" s="12"/>
@@ -22077,7 +22112,7 @@
     </row>
     <row r="1077" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="9" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1077" s="10"/>
       <c r="C1077" s="12"/>
@@ -22091,7 +22126,7 @@
     </row>
     <row r="1078" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078" s="9" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1078" s="10"/>
       <c r="C1078" s="12"/>
@@ -22105,7 +22140,7 @@
     </row>
     <row r="1079" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079" s="9" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1079" s="10"/>
       <c r="C1079" s="12"/>
@@ -22119,7 +22154,7 @@
     </row>
     <row r="1080" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="9" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1080" s="10"/>
       <c r="C1080" s="12"/>
@@ -22133,7 +22168,7 @@
     </row>
     <row r="1081" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="9" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1081" s="10"/>
       <c r="C1081" s="9"/>
@@ -22147,7 +22182,7 @@
     </row>
     <row r="1082" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="9" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1082" s="10"/>
       <c r="C1082" s="12"/>
@@ -22161,7 +22196,7 @@
     </row>
     <row r="1083" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="9" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1083" s="10"/>
       <c r="C1083" s="9"/>
@@ -22175,7 +22210,7 @@
     </row>
     <row r="1084" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="9" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1084" s="10"/>
       <c r="C1084" s="12"/>
@@ -22189,7 +22224,7 @@
     </row>
     <row r="1085" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="9" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1085" s="10"/>
       <c r="C1085" s="9"/>
@@ -22203,7 +22238,7 @@
     </row>
     <row r="1086" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1086" s="9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1086" s="10"/>
       <c r="C1086" s="12"/>
@@ -22217,7 +22252,7 @@
     </row>
     <row r="1087" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1087" s="9" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1087" s="10"/>
       <c r="C1087" s="12"/>
@@ -22231,7 +22266,7 @@
     </row>
     <row r="1088" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="9" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1088" s="10"/>
       <c r="C1088" s="9"/>
@@ -22245,7 +22280,7 @@
     </row>
     <row r="1089" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="9" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1089" s="10"/>
       <c r="C1089" s="12"/>
@@ -22259,7 +22294,7 @@
     </row>
     <row r="1090" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1090" s="9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1090" s="10"/>
       <c r="C1090" s="12"/>
@@ -22273,7 +22308,7 @@
     </row>
     <row r="1091" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1091" s="9" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1091" s="10"/>
       <c r="C1091" s="12"/>
@@ -22287,7 +22322,7 @@
     </row>
     <row r="1092" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1092" s="9" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1092" s="10" t="s">
         <v>53</v>
@@ -22303,7 +22338,7 @@
     </row>
     <row r="1093" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1093" s="9" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1093" s="10" t="s">
         <v>53</v>
@@ -22319,7 +22354,7 @@
     </row>
     <row r="1094" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1094" s="9" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1094" s="10" t="s">
         <v>53</v>
@@ -22335,7 +22370,7 @@
     </row>
     <row r="1095" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1095" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1095" s="10" t="s">
         <v>53</v>
@@ -22353,7 +22388,7 @@
     </row>
     <row r="1096" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1096" s="10" t="s">
         <v>53</v>
@@ -22369,7 +22404,7 @@
     </row>
     <row r="1097" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1097" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1097" s="10" t="s">
         <v>53</v>
@@ -22385,7 +22420,7 @@
     </row>
     <row r="1098" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1098" s="9" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1098" s="10" t="s">
         <v>53</v>
@@ -22401,7 +22436,7 @@
     </row>
     <row r="1099" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="9" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1099" s="10" t="s">
         <v>53</v>
@@ -22412,12 +22447,12 @@
         <v>13</v>
       </c>
       <c r="F1099" s="9" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1100" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1100" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1100" s="10" t="s">
         <v>53</v>
@@ -22433,7 +22468,7 @@
     </row>
     <row r="1101" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1101" s="9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1101" s="10" t="s">
         <v>53</v>
@@ -23645,7 +23680,7 @@
     </row>
     <row r="1187" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1187" s="9" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B1187" s="10" t="s">
         <v>53</v>
@@ -23661,7 +23696,7 @@
     </row>
     <row r="1188" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1188" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1188" s="10" t="s">
         <v>53</v>
@@ -23677,7 +23712,7 @@
     </row>
     <row r="1189" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1189" s="9" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1189" s="10" t="s">
         <v>53</v>
@@ -23693,7 +23728,7 @@
     </row>
     <row r="1190" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1190" s="9" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1190" s="10" t="s">
         <v>53</v>
@@ -23709,7 +23744,7 @@
     </row>
     <row r="1191" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1191" s="9" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1191" s="10" t="s">
         <v>53</v>
@@ -23725,7 +23760,7 @@
     </row>
     <row r="1192" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1192" s="9" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1192" s="10" t="s">
         <v>53</v>
@@ -23741,7 +23776,7 @@
     </row>
     <row r="1193" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1193" s="9" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B1193" s="10" t="s">
         <v>53</v>
@@ -23757,7 +23792,7 @@
     </row>
     <row r="1194" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1194" s="9" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B1194" s="10" t="s">
         <v>53</v>

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B1DDA5EF-A56D-4C84-9683-DC8BE5C1CEFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{57725ADA-AA44-462E-977B-E1A7C82842CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6289" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6290" uniqueCount="1618">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -5306,8 +5306,8 @@
   <dimension ref="A1:F1231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
+      <pane ySplit="1" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,11 +7305,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="B135" s="10"/>
+      <c r="B135" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
@@ -7351,7 +7353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>559</v>
       </c>
@@ -7369,7 +7371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>560</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>1050</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>669</v>
       </c>
@@ -9977,7 +9979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>685</v>
       </c>
@@ -10871,7 +10873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>729</v>
       </c>
@@ -16845,7 +16847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="9" t="s">
         <v>1048</v>
       </c>
@@ -16863,7 +16865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16881,7 +16883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="9" t="s">
         <v>1050</v>
       </c>

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{57725ADA-AA44-462E-977B-E1A7C82842CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F85EEE43-2C6E-4B28-896A-B905D8249EA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6290" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6308" uniqueCount="1618">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -4657,12 +4657,6 @@
     <t>function FCreate2(cFile AS STRING, dwAttr AS DWORD) AS IntPtr</t>
   </si>
   <si>
-    <t>function FFCount(pszFile AS STRING, nAttr AS DWORD) AS DWORD</t>
-  </si>
-  <si>
-    <t>function FFirst(pszFile AS STRING, nAttr AS DWORD) AS LOGIC</t>
-  </si>
-  <si>
     <t>function FFLock(pHandle AS IntPtr, dwOffset AS DWORD, dwLength AS DWORD) AS LOGIC</t>
   </si>
   <si>
@@ -4895,6 +4889,12 @@
   </si>
   <si>
     <t>function ArrayInit(dwDim AS DWORD,aValues REF USUAL[]) AS Array</t>
+  </si>
+  <si>
+    <t>function FFCount(cFile AS STRING, nAttr AS DWORD) AS DWORD</t>
+  </si>
+  <si>
+    <t>function FFirst(cFile AS STRING, nAttr AS DWORD) AS LOGIC</t>
   </si>
 </sst>
 </file>
@@ -5306,8 +5306,8 @@
   <dimension ref="A1:F1231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A470" sqref="A470"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B385" sqref="B385:C385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,7 +5681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>1380</v>
       </c>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>53</v>
@@ -6587,7 +6587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>514</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>518</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>1441</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>1438</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>1439</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>1440</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>519</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>520</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>521</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>522</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>523</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>524</v>
       </c>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="103" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>53</v>
@@ -6828,7 +6828,7 @@
         <v>13</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -6993,7 +6993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>535</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>538</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>539</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>540</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>14</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7092,7 +7092,7 @@
         <v>13</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7106,10 +7106,10 @@
         <v>13</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>543</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>544</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>545</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>546</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>547</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>557</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>561</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>563</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>564</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>565</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>569</v>
       </c>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="150" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>53</v>
@@ -7605,7 +7605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>573</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>576</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>577</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>578</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>579</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>581</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>582</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>584</v>
       </c>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="216" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>53</v>
@@ -8587,7 +8587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>633</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>670</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>674</v>
       </c>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="273" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B273" s="10" t="s">
         <v>53</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="274" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B274" s="10" t="s">
         <v>53</v>
@@ -9524,7 +9524,7 @@
         <v>13</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9542,7 +9542,7 @@
         <v>13</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10073,7 +10073,7 @@
     </row>
     <row r="312" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B312" s="10" t="s">
         <v>53</v>
@@ -10084,7 +10084,7 @@
         <v>13</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10100,10 +10100,10 @@
         <v>14</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>692</v>
       </c>
@@ -10114,12 +10114,12 @@
         <v>14</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B315" s="10" t="s">
         <v>53</v>
@@ -10130,7 +10130,7 @@
         <v>13</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10146,12 +10146,12 @@
         <v>14</v>
       </c>
       <c r="F316" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B317" s="10" t="s">
         <v>53</v>
@@ -10162,7 +10162,7 @@
         <v>13</v>
       </c>
       <c r="F317" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10178,12 +10178,12 @@
         <v>14</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>53</v>
@@ -10194,7 +10194,7 @@
         <v>13</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10210,12 +10210,12 @@
         <v>14</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B321" s="10" t="s">
         <v>53</v>
@@ -10226,12 +10226,12 @@
         <v>13</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B322" s="10" t="s">
         <v>53</v>
@@ -10242,12 +10242,12 @@
         <v>13</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B323" s="10" t="s">
         <v>53</v>
@@ -10258,7 +10258,7 @@
         <v>13</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10274,12 +10274,12 @@
         <v>13</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B325" s="10" t="s">
         <v>53</v>
@@ -10290,12 +10290,12 @@
         <v>13</v>
       </c>
       <c r="F325" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B326" s="10" t="s">
         <v>53</v>
@@ -10306,12 +10306,12 @@
         <v>13</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>53</v>
@@ -10322,7 +10322,7 @@
         <v>13</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10341,7 +10341,7 @@
     </row>
     <row r="329" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B329" s="10" t="s">
         <v>53</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="330" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B330" s="10" t="s">
         <v>53</v>
@@ -10937,7 +10937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
         <v>733</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>735</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>737</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>738</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>739</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>746</v>
       </c>
@@ -11233,14 +11233,18 @@
       <c r="A385" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="B385" s="10"/>
-      <c r="C385" s="12"/>
+      <c r="B385" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D385" s="9"/>
       <c r="E385" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F385" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11295,7 +11299,7 @@
     </row>
     <row r="389" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B389" s="10" t="s">
         <v>53</v>
@@ -11324,7 +11328,7 @@
         <v>13</v>
       </c>
       <c r="F390" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -11338,7 +11342,7 @@
         <v>13</v>
       </c>
       <c r="F391" s="9" t="s">
-        <v>1561</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11379,14 +11383,18 @@
       <c r="A394" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="B394" s="10"/>
-      <c r="C394" s="12"/>
+      <c r="B394" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D394" s="9"/>
       <c r="E394" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F394" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11420,7 +11428,7 @@
         <v>13</v>
       </c>
       <c r="F396" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11439,37 +11447,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B398" s="10"/>
-      <c r="C398" s="12"/>
+        <v>1616</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D398" s="9"/>
       <c r="E398" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F398" s="9" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B399" s="10"/>
-      <c r="C399" s="12"/>
+        <v>1617</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D399" s="9"/>
       <c r="E399" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F399" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B400" s="10" t="s">
         <v>53</v>
@@ -11503,7 +11519,7 @@
     </row>
     <row r="402" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B402" s="10" t="s">
         <v>53</v>
@@ -11535,7 +11551,7 @@
     </row>
     <row r="404" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B404" s="10" t="s">
         <v>53</v>
@@ -11798,7 +11814,7 @@
         <v>13</v>
       </c>
       <c r="F422" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11881,32 +11897,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B428" s="10"/>
-      <c r="C428" s="12"/>
+      <c r="B428" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D428" s="9"/>
       <c r="E428" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F428" s="9" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="B429" s="10"/>
-      <c r="C429" s="12"/>
+      <c r="B429" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D429" s="9"/>
       <c r="E429" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F429" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11927,7 +11951,7 @@
     </row>
     <row r="431" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B431" s="10" t="s">
         <v>53</v>
@@ -11941,7 +11965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>785</v>
       </c>
@@ -11966,7 +11990,7 @@
         <v>13</v>
       </c>
       <c r="F433" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11987,7 +12011,7 @@
     </row>
     <row r="435" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B435" s="10" t="s">
         <v>53</v>
@@ -12035,7 +12059,7 @@
     </row>
     <row r="438" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B438" s="10" t="s">
         <v>53</v>
@@ -12051,7 +12075,7 @@
     </row>
     <row r="439" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B439" s="10" t="s">
         <v>53</v>
@@ -12083,7 +12107,7 @@
     </row>
     <row r="441" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B441" s="10" t="s">
         <v>53</v>
@@ -12101,7 +12125,7 @@
     </row>
     <row r="442" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B442" s="10" t="s">
         <v>53</v>
@@ -12133,7 +12157,7 @@
     </row>
     <row r="444" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B444" s="10" t="s">
         <v>53</v>
@@ -12167,7 +12191,7 @@
     </row>
     <row r="446" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B446" s="10" t="s">
         <v>53</v>
@@ -12178,7 +12202,7 @@
         <v>13</v>
       </c>
       <c r="F446" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -12217,7 +12241,7 @@
     </row>
     <row r="449" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>53</v>
@@ -12231,28 +12255,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="B450" s="10"/>
-      <c r="C450" s="12"/>
+      <c r="B450" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C450" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D450" s="9"/>
       <c r="E450" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F450" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B451" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C451" s="10"/>
+      <c r="C451" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D451" s="9"/>
       <c r="E451" s="9" t="s">
         <v>13</v>
@@ -12261,18 +12291,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="B452" s="10"/>
-      <c r="C452" s="12"/>
+      <c r="B452" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D452" s="9"/>
       <c r="E452" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F452" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -12282,7 +12316,9 @@
       <c r="B453" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C453" s="10"/>
+      <c r="C453" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D453" s="9"/>
       <c r="E453" s="9" t="s">
         <v>14</v>
@@ -12325,7 +12361,7 @@
     </row>
     <row r="456" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B456" s="10" t="s">
         <v>53</v>
@@ -12359,7 +12395,7 @@
     </row>
     <row r="458" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B458" s="10" t="s">
         <v>53</v>
@@ -12375,7 +12411,7 @@
     </row>
     <row r="459" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B459" s="10" t="s">
         <v>53</v>
@@ -12407,7 +12443,7 @@
     </row>
     <row r="461" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B461" s="10" t="s">
         <v>53</v>
@@ -12425,7 +12461,7 @@
     </row>
     <row r="462" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B462" s="10" t="s">
         <v>53</v>
@@ -12443,7 +12479,7 @@
     </row>
     <row r="463" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B463" s="10" t="s">
         <v>53</v>
@@ -12477,7 +12513,7 @@
     </row>
     <row r="465" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B465" s="10" t="s">
         <v>53</v>
@@ -12493,7 +12529,7 @@
     </row>
     <row r="466" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B466" s="10"/>
       <c r="C466" s="10"/>
@@ -13413,7 +13449,7 @@
     </row>
     <row r="523" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B523" s="10" t="s">
         <v>53</v>
@@ -13429,7 +13465,7 @@
     </row>
     <row r="524" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B524" s="10" t="s">
         <v>53</v>
@@ -15031,7 +15067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="9" t="s">
         <v>940</v>
       </c>
@@ -15463,7 +15499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="9" t="s">
         <v>967</v>
       </c>
@@ -15471,13 +15507,13 @@
       <c r="C648" s="12"/>
       <c r="D648" s="9"/>
       <c r="E648" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F648" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
         <v>968</v>
       </c>
@@ -15973,7 +16009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="9" t="s">
         <v>997</v>
       </c>
@@ -16269,7 +16305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="9" t="s">
         <v>1015</v>
       </c>
@@ -16299,7 +16335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="9" t="s">
         <v>1017</v>
       </c>
@@ -16331,7 +16367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="9" t="s">
         <v>1432</v>
       </c>
@@ -16345,7 +16381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="9" t="s">
         <v>1019</v>
       </c>
@@ -16359,7 +16395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="9" t="s">
         <v>1020</v>
       </c>
@@ -16373,7 +16409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="9" t="s">
         <v>1433</v>
       </c>
@@ -16435,7 +16471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="9" t="s">
         <v>1023</v>
       </c>
@@ -16449,7 +16485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="9" t="s">
         <v>1024</v>
       </c>
@@ -16457,7 +16493,7 @@
       <c r="C711" s="12"/>
       <c r="D711" s="9"/>
       <c r="E711" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F711" s="9" t="s">
         <v>26</v>
@@ -16665,7 +16701,7 @@
     </row>
     <row r="725" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="9" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B725" s="10" t="s">
         <v>53</v>
@@ -16747,7 +16783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="9" t="s">
         <v>1042</v>
       </c>
@@ -16761,7 +16797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="9" t="s">
         <v>1043</v>
       </c>
@@ -17418,7 +17454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="9" t="s">
         <v>1064</v>
       </c>
@@ -17479,7 +17515,7 @@
         <v>14</v>
       </c>
       <c r="F779" s="9" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="780" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17500,7 +17536,7 @@
     </row>
     <row r="781" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="9" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B781" s="10" t="s">
         <v>53</v>
@@ -17532,7 +17568,7 @@
     </row>
     <row r="783" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="9" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B783" s="10" t="s">
         <v>53</v>
@@ -17564,7 +17600,7 @@
     </row>
     <row r="785" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="9" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B785" s="10" t="s">
         <v>53</v>
@@ -17580,7 +17616,7 @@
     </row>
     <row r="786" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="9" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B786" s="10" t="s">
         <v>53</v>
@@ -17728,7 +17764,7 @@
     </row>
     <row r="795" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="9" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B795" s="10" t="s">
         <v>53</v>
@@ -17790,7 +17826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="9" t="s">
         <v>1082</v>
       </c>
@@ -18118,7 +18154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="9" t="s">
         <v>1100</v>
       </c>
@@ -18236,7 +18272,7 @@
     </row>
     <row r="826" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="9" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B826" s="10" t="s">
         <v>53</v>
@@ -18272,7 +18308,7 @@
     </row>
     <row r="828" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="9" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B828" s="10" t="s">
         <v>53</v>
@@ -18362,7 +18398,7 @@
     </row>
     <row r="833" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="9" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B833" s="10" t="s">
         <v>53</v>
@@ -18378,7 +18414,7 @@
     </row>
     <row r="834" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="9" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B834" s="10" t="s">
         <v>53</v>
@@ -18408,7 +18444,7 @@
     </row>
     <row r="836" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="9" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B836" s="10" t="s">
         <v>53</v>
@@ -18424,7 +18460,7 @@
     </row>
     <row r="837" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="9" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B837" s="10" t="s">
         <v>53</v>
@@ -18440,7 +18476,7 @@
     </row>
     <row r="838" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="9" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B838" s="10" t="s">
         <v>53</v>
@@ -18464,7 +18500,7 @@
         <v>53</v>
       </c>
       <c r="C839" s="12" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D839" s="9"/>
       <c r="E839" s="9" t="s">
@@ -18490,7 +18526,7 @@
     </row>
     <row r="841" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="9" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B841" s="10" t="s">
         <v>53</v>
@@ -18506,7 +18542,7 @@
     </row>
     <row r="842" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="9" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B842" s="10" t="s">
         <v>53</v>
@@ -18522,7 +18558,7 @@
     </row>
     <row r="843" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="9" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B843" s="10" t="s">
         <v>53</v>
@@ -18540,7 +18576,7 @@
     </row>
     <row r="844" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="9" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B844" s="10" t="s">
         <v>53</v>
@@ -18558,7 +18594,7 @@
     </row>
     <row r="845" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="9" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B845" s="10" t="s">
         <v>53</v>
@@ -18582,7 +18618,7 @@
         <v>53</v>
       </c>
       <c r="C846" s="12" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D846" s="9"/>
       <c r="E846" s="9" t="s">
@@ -18594,7 +18630,7 @@
     </row>
     <row r="847" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="9" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B847" s="10" t="s">
         <v>53</v>
@@ -18836,7 +18872,7 @@
     </row>
     <row r="862" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="9" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B862" s="10" t="s">
         <v>53</v>
@@ -18852,7 +18888,7 @@
     </row>
     <row r="863" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="9" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B863" s="10" t="s">
         <v>53</v>
@@ -19124,7 +19160,7 @@
     </row>
     <row r="880" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B880" s="10" t="s">
         <v>53</v>
@@ -19312,7 +19348,7 @@
     </row>
     <row r="892" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="9" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B892" s="10" t="s">
         <v>53</v>
@@ -19420,7 +19456,7 @@
     </row>
     <row r="899" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="9" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B899" s="10" t="s">
         <v>53</v>
@@ -19450,7 +19486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="9" t="s">
         <v>1164</v>
       </c>
@@ -19464,7 +19500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="9" t="s">
         <v>1165</v>
       </c>
@@ -19575,7 +19611,7 @@
         <v>14</v>
       </c>
       <c r="F908" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19708,7 +19744,7 @@
     </row>
     <row r="917" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="9" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B917" s="10" t="s">
         <v>53</v>
@@ -20068,7 +20104,7 @@
     </row>
     <row r="938" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="9" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B938" s="10" t="s">
         <v>53</v>
@@ -20102,7 +20138,7 @@
     </row>
     <row r="940" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="9" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B940" s="10" t="s">
         <v>53</v>
@@ -20136,7 +20172,7 @@
     </row>
     <row r="942" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="9" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B942" s="10" t="s">
         <v>53</v>
@@ -20216,7 +20252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="9" t="s">
         <v>1206</v>
       </c>
@@ -20428,7 +20464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="960" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="9" t="s">
         <v>1219</v>
       </c>
@@ -20462,7 +20498,7 @@
     </row>
     <row r="962" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="9" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B962" s="10" t="s">
         <v>53</v>
@@ -20480,7 +20516,7 @@
     </row>
     <row r="963" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="9" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B963" s="10" t="s">
         <v>53</v>
@@ -20514,7 +20550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="9" t="s">
         <v>1222</v>
       </c>
@@ -20530,7 +20566,7 @@
     </row>
     <row r="966" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="9" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B966" s="10" t="s">
         <v>53</v>
@@ -20732,7 +20768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="979" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="9" t="s">
         <v>1234</v>
       </c>
@@ -22449,7 +22485,7 @@
         <v>13</v>
       </c>
       <c r="F1099" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1100" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23808,7 +23844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1195" s="9"/>
       <c r="B1195" s="10"/>
       <c r="C1195" s="10"/>
@@ -23816,7 +23852,7 @@
       <c r="E1195" s="9"/>
       <c r="F1195" s="9"/>
     </row>
-    <row r="1196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1196" s="9"/>
       <c r="B1196" s="10"/>
       <c r="C1196" s="10"/>
@@ -23824,7 +23860,7 @@
       <c r="E1196" s="9"/>
       <c r="F1196" s="9"/>
     </row>
-    <row r="1197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1197" s="9"/>
       <c r="B1197" s="10"/>
       <c r="C1197" s="10"/>
@@ -23832,7 +23868,7 @@
       <c r="E1197" s="9"/>
       <c r="F1197" s="9"/>
     </row>
-    <row r="1198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1198" s="9"/>
       <c r="B1198" s="10"/>
       <c r="C1198" s="10"/>
@@ -24061,9 +24097,8 @@
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="Core"/>
-        <filter val="VO"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F85EEE43-2C6E-4B28-896A-B905D8249EA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1B3B8227-5309-41F2-BEF3-D475FB3139A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$A$1:$G$437</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Functions!$A$1:$F$1199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Functions!$A$1:$F$1198</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6308" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6324" uniqueCount="1617">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -3276,9 +3276,6 @@
   </si>
   <si>
     <t>function QPEncString(cIn AS STRING) AS STRING</t>
-  </si>
-  <si>
-    <t>function QueryRTRegArray(cSubKey AS STRING) AS Array</t>
   </si>
   <si>
     <t>function QueryRTRegInt(cSubKey AS STRING,cKeyName AS STRING) AS DWORD</t>
@@ -5303,11 +5300,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F1231"/>
+  <dimension ref="A1:F1230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B385" sqref="B385:C385"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,7 +5336,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="9"/>
@@ -5353,7 +5350,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="9"/>
@@ -5367,7 +5364,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
@@ -5381,7 +5378,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
@@ -5395,7 +5392,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
@@ -5409,7 +5406,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
@@ -5423,7 +5420,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>53</v>
@@ -5439,7 +5436,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
@@ -5453,7 +5450,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -5467,7 +5464,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
@@ -5495,7 +5492,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
@@ -5509,7 +5506,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
@@ -5523,7 +5520,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
@@ -5551,7 +5548,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
@@ -5565,7 +5562,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
@@ -5579,7 +5576,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
@@ -5593,7 +5590,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
@@ -5607,7 +5604,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
@@ -5621,7 +5618,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
@@ -5635,7 +5632,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
@@ -5649,7 +5646,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>53</v>
@@ -5667,7 +5664,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>53</v>
@@ -5683,7 +5680,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5697,7 +5694,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>53</v>
@@ -5715,7 +5712,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
@@ -5729,7 +5726,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
@@ -5743,7 +5740,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
@@ -5757,7 +5754,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
@@ -5771,7 +5768,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
@@ -5785,7 +5782,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
@@ -5799,7 +5796,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
@@ -5813,7 +5810,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="9"/>
@@ -5827,7 +5824,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="9"/>
@@ -5841,7 +5838,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="9"/>
@@ -5855,7 +5852,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="9"/>
@@ -5869,7 +5866,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="9"/>
@@ -5883,7 +5880,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="9"/>
@@ -5897,7 +5894,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="9"/>
@@ -5911,7 +5908,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
@@ -5925,7 +5922,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="9"/>
@@ -5939,7 +5936,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="9"/>
@@ -5953,7 +5950,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="9"/>
@@ -5967,7 +5964,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="9"/>
@@ -5981,7 +5978,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="9"/>
@@ -5995,7 +5992,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="9"/>
@@ -6009,7 +6006,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="9"/>
@@ -6023,7 +6020,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="9"/>
@@ -6037,7 +6034,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>53</v>
@@ -6053,7 +6050,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="9"/>
@@ -6067,7 +6064,7 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>53</v>
@@ -6083,7 +6080,7 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>53</v>
@@ -6099,7 +6096,7 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -6115,7 +6112,7 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
@@ -6129,7 +6126,7 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>53</v>
@@ -6145,7 +6142,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
@@ -6159,7 +6156,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
@@ -6173,7 +6170,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="9"/>
@@ -6187,7 +6184,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
@@ -6201,7 +6198,7 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="9"/>
@@ -6215,7 +6212,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="9"/>
@@ -6229,7 +6226,7 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>53</v>
@@ -6245,7 +6242,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="9"/>
@@ -6259,7 +6256,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="9"/>
@@ -6273,7 +6270,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>53</v>
@@ -6291,7 +6288,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>53</v>
@@ -6307,7 +6304,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>53</v>
@@ -6323,7 +6320,7 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="9"/>
@@ -6337,7 +6334,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="9"/>
@@ -6351,7 +6348,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="9"/>
@@ -6365,7 +6362,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>53</v>
@@ -6413,7 +6410,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>53</v>
@@ -6429,7 +6426,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>53</v>
@@ -6445,7 +6442,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>53</v>
@@ -6461,7 +6458,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>53</v>
@@ -6477,7 +6474,7 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>53</v>
@@ -6493,7 +6490,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>53</v>
@@ -6509,7 +6506,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>53</v>
@@ -6525,7 +6522,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -6541,7 +6538,7 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>53</v>
@@ -6557,7 +6554,7 @@
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>53</v>
@@ -6573,7 +6570,7 @@
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>53</v>
@@ -6603,7 +6600,7 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -6623,7 +6620,7 @@
       <c r="C89" s="10"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>24</v>
@@ -6677,7 +6674,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="9"/>
@@ -6691,7 +6688,7 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="9"/>
@@ -6705,7 +6702,7 @@
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="9"/>
@@ -6719,7 +6716,7 @@
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="9"/>
@@ -6817,7 +6814,7 @@
     </row>
     <row r="103" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>53</v>
@@ -6828,7 +6825,7 @@
         <v>13</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -7078,7 +7075,7 @@
         <v>14</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7092,7 +7089,7 @@
         <v>13</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7106,7 +7103,7 @@
         <v>13</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -7543,7 +7540,7 @@
     </row>
     <row r="150" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>53</v>
@@ -7655,7 +7652,7 @@
     </row>
     <row r="157" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>53</v>
@@ -7701,7 +7698,7 @@
     </row>
     <row r="160" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>53</v>
@@ -8571,7 +8568,7 @@
     </row>
     <row r="216" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>53</v>
@@ -8675,7 +8672,7 @@
     </row>
     <row r="222" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -8689,7 +8686,7 @@
     </row>
     <row r="223" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -8703,7 +8700,7 @@
     </row>
     <row r="224" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -8717,7 +8714,7 @@
     </row>
     <row r="225" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -8731,7 +8728,7 @@
     </row>
     <row r="226" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -8745,7 +8742,7 @@
     </row>
     <row r="227" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -8773,7 +8770,7 @@
     </row>
     <row r="229" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -8787,7 +8784,7 @@
     </row>
     <row r="230" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -8801,7 +8798,7 @@
     </row>
     <row r="231" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -8815,7 +8812,7 @@
     </row>
     <row r="232" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -8837,7 +8834,7 @@
       <c r="C233" s="10"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>17</v>
@@ -8947,7 +8944,7 @@
     </row>
     <row r="240" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B240" s="10" t="s">
         <v>53</v>
@@ -9017,7 +9014,7 @@
     </row>
     <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -9495,7 +9492,7 @@
     </row>
     <row r="273" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B273" s="10" t="s">
         <v>53</v>
@@ -9513,7 +9510,7 @@
     </row>
     <row r="274" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B274" s="10" t="s">
         <v>53</v>
@@ -9524,7 +9521,7 @@
         <v>13</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9542,7 +9539,7 @@
         <v>13</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9583,7 +9580,7 @@
     </row>
     <row r="278" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
@@ -9597,7 +9594,7 @@
     </row>
     <row r="279" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
@@ -9611,7 +9608,7 @@
     </row>
     <row r="280" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -9639,7 +9636,7 @@
     </row>
     <row r="282" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B282" s="10" t="s">
         <v>53</v>
@@ -9655,7 +9652,7 @@
     </row>
     <row r="283" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
@@ -9669,7 +9666,7 @@
     </row>
     <row r="284" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -9683,7 +9680,7 @@
     </row>
     <row r="285" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -9743,7 +9740,7 @@
     </row>
     <row r="289" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -9771,7 +9768,7 @@
     </row>
     <row r="291" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
@@ -9827,7 +9824,7 @@
     </row>
     <row r="295" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B295" s="10" t="s">
         <v>53</v>
@@ -9843,7 +9840,7 @@
     </row>
     <row r="296" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
@@ -9857,7 +9854,7 @@
     </row>
     <row r="297" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
@@ -9871,7 +9868,7 @@
     </row>
     <row r="298" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>14</v>
@@ -9882,7 +9879,7 @@
     </row>
     <row r="299" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
@@ -9896,7 +9893,7 @@
     </row>
     <row r="300" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>14</v>
@@ -9907,7 +9904,7 @@
     </row>
     <row r="301" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
@@ -9937,7 +9934,7 @@
     </row>
     <row r="303" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
@@ -9951,7 +9948,7 @@
     </row>
     <row r="304" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
@@ -9965,7 +9962,7 @@
     </row>
     <row r="305" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B305" s="10" t="s">
         <v>53</v>
@@ -10025,12 +10022,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="B309" s="10"/>
-      <c r="C309" s="12"/>
+      <c r="B309" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D309" s="9"/>
       <c r="E309" s="9" t="s">
         <v>13</v>
@@ -10046,7 +10047,9 @@
       <c r="B310" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C310" s="10"/>
+      <c r="C310" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D310" s="10"/>
       <c r="E310" s="9" t="s">
         <v>14</v>
@@ -10062,7 +10065,9 @@
       <c r="B311" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C311" s="10"/>
+      <c r="C311" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D311" s="10"/>
       <c r="E311" s="9" t="s">
         <v>14</v>
@@ -10073,18 +10078,20 @@
     </row>
     <row r="312" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B312" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C312" s="9"/>
+      <c r="C312" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10094,13 +10101,15 @@
       <c r="B313" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C313" s="9"/>
+      <c r="C313" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D313" s="9"/>
       <c r="E313" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10114,12 +10123,12 @@
         <v>14</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B315" s="10" t="s">
         <v>53</v>
@@ -10130,7 +10139,7 @@
         <v>13</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10146,12 +10155,12 @@
         <v>14</v>
       </c>
       <c r="F316" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B317" s="10" t="s">
         <v>53</v>
@@ -10162,7 +10171,7 @@
         <v>13</v>
       </c>
       <c r="F317" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10178,12 +10187,12 @@
         <v>14</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>53</v>
@@ -10194,7 +10203,7 @@
         <v>13</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10210,12 +10219,12 @@
         <v>14</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B321" s="10" t="s">
         <v>53</v>
@@ -10226,12 +10235,12 @@
         <v>13</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B322" s="10" t="s">
         <v>53</v>
@@ -10242,12 +10251,12 @@
         <v>13</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B323" s="10" t="s">
         <v>53</v>
@@ -10258,7 +10267,7 @@
         <v>13</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10274,12 +10283,12 @@
         <v>13</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B325" s="10" t="s">
         <v>53</v>
@@ -10290,12 +10299,12 @@
         <v>13</v>
       </c>
       <c r="F325" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B326" s="10" t="s">
         <v>53</v>
@@ -10306,12 +10315,12 @@
         <v>13</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>53</v>
@@ -10322,7 +10331,7 @@
         <v>13</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10341,7 +10350,7 @@
     </row>
     <row r="329" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B329" s="10" t="s">
         <v>53</v>
@@ -10357,7 +10366,7 @@
     </row>
     <row r="330" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B330" s="10" t="s">
         <v>53</v>
@@ -11229,7 +11238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>752</v>
       </c>
@@ -11244,12 +11253,12 @@
         <v>13</v>
       </c>
       <c r="F385" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B386" s="10" t="s">
         <v>53</v>
@@ -11281,7 +11290,7 @@
     </row>
     <row r="388" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B388" s="10" t="s">
         <v>53</v>
@@ -11299,7 +11308,7 @@
     </row>
     <row r="389" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B389" s="10" t="s">
         <v>53</v>
@@ -11317,7 +11326,7 @@
     </row>
     <row r="390" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B390" s="10" t="s">
         <v>53</v>
@@ -11328,10 +11337,10 @@
         <v>13</v>
       </c>
       <c r="F390" s="9" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>754</v>
       </c>
@@ -11363,7 +11372,7 @@
     </row>
     <row r="393" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B393" s="10" t="s">
         <v>53</v>
@@ -11379,7 +11388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
         <v>756</v>
       </c>
@@ -11394,12 +11403,12 @@
         <v>13</v>
       </c>
       <c r="F394" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B395" s="10" t="s">
         <v>53</v>
@@ -11428,12 +11437,12 @@
         <v>13</v>
       </c>
       <c r="F396" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B397" s="10" t="s">
         <v>53</v>
@@ -11449,7 +11458,7 @@
     </row>
     <row r="398" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B398" s="10" t="s">
         <v>53</v>
@@ -11462,12 +11471,12 @@
         <v>13</v>
       </c>
       <c r="F398" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B399" s="10" t="s">
         <v>53</v>
@@ -11480,12 +11489,12 @@
         <v>13</v>
       </c>
       <c r="F399" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B400" s="10" t="s">
         <v>53</v>
@@ -11501,7 +11510,7 @@
     </row>
     <row r="401" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B401" s="10" t="s">
         <v>53</v>
@@ -11519,7 +11528,7 @@
     </row>
     <row r="402" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B402" s="10" t="s">
         <v>53</v>
@@ -11551,7 +11560,7 @@
     </row>
     <row r="404" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B404" s="10" t="s">
         <v>53</v>
@@ -11803,18 +11812,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B422" s="10"/>
-      <c r="C422" s="12"/>
+      <c r="B422" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D422" s="9"/>
       <c r="E422" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F422" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11824,7 +11837,9 @@
       <c r="B423" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C423" s="10"/>
+      <c r="C423" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D423" s="10"/>
       <c r="E423" s="9" t="s">
         <v>14</v>
@@ -11912,7 +11927,7 @@
         <v>13</v>
       </c>
       <c r="F428" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11930,7 +11945,7 @@
         <v>13</v>
       </c>
       <c r="F429" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11951,7 +11966,7 @@
     </row>
     <row r="431" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B431" s="10" t="s">
         <v>53</v>
@@ -11979,18 +11994,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B433" s="10"/>
-      <c r="C433" s="12"/>
+      <c r="B433" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D433" s="9"/>
       <c r="E433" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F433" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -12011,7 +12030,7 @@
     </row>
     <row r="435" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B435" s="10" t="s">
         <v>53</v>
@@ -12051,7 +12070,7 @@
       <c r="C437" s="12"/>
       <c r="D437" s="9"/>
       <c r="E437" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F437" s="9" t="s">
         <v>21</v>
@@ -12059,7 +12078,7 @@
     </row>
     <row r="438" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B438" s="10" t="s">
         <v>53</v>
@@ -12075,7 +12094,7 @@
     </row>
     <row r="439" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B439" s="10" t="s">
         <v>53</v>
@@ -12107,7 +12126,7 @@
     </row>
     <row r="441" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B441" s="10" t="s">
         <v>53</v>
@@ -12125,7 +12144,7 @@
     </row>
     <row r="442" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B442" s="10" t="s">
         <v>53</v>
@@ -12149,7 +12168,7 @@
       <c r="C443" s="12"/>
       <c r="D443" s="9"/>
       <c r="E443" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>21</v>
@@ -12157,7 +12176,7 @@
     </row>
     <row r="444" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B444" s="10" t="s">
         <v>53</v>
@@ -12191,7 +12210,7 @@
     </row>
     <row r="446" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B446" s="10" t="s">
         <v>53</v>
@@ -12202,12 +12221,12 @@
         <v>13</v>
       </c>
       <c r="F446" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B447" s="10" t="s">
         <v>53</v>
@@ -12241,7 +12260,7 @@
     </row>
     <row r="449" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>53</v>
@@ -12270,12 +12289,12 @@
         <v>13</v>
       </c>
       <c r="F450" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B451" s="10" t="s">
         <v>53</v>
@@ -12306,7 +12325,7 @@
         <v>13</v>
       </c>
       <c r="F452" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -12361,7 +12380,7 @@
     </row>
     <row r="456" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B456" s="10" t="s">
         <v>53</v>
@@ -12395,7 +12414,7 @@
     </row>
     <row r="458" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B458" s="10" t="s">
         <v>53</v>
@@ -12411,7 +12430,7 @@
     </row>
     <row r="459" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B459" s="10" t="s">
         <v>53</v>
@@ -12443,7 +12462,7 @@
     </row>
     <row r="461" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B461" s="10" t="s">
         <v>53</v>
@@ -12461,7 +12480,7 @@
     </row>
     <row r="462" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B462" s="10" t="s">
         <v>53</v>
@@ -12479,7 +12498,7 @@
     </row>
     <row r="463" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B463" s="10" t="s">
         <v>53</v>
@@ -12513,7 +12532,7 @@
     </row>
     <row r="465" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B465" s="10" t="s">
         <v>53</v>
@@ -12529,7 +12548,7 @@
     </row>
     <row r="466" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B466" s="10"/>
       <c r="C466" s="10"/>
@@ -13063,7 +13082,7 @@
     </row>
     <row r="499" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B499" s="10"/>
       <c r="C499" s="10"/>
@@ -13077,7 +13096,7 @@
     </row>
     <row r="500" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E500" s="9" t="s">
         <v>14</v>
@@ -13102,7 +13121,7 @@
     </row>
     <row r="502" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B502" s="10"/>
       <c r="C502" s="10"/>
@@ -13116,7 +13135,7 @@
     </row>
     <row r="503" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E503" s="9" t="s">
         <v>14</v>
@@ -13211,7 +13230,7 @@
     </row>
     <row r="509" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B509" s="10" t="s">
         <v>53</v>
@@ -13245,7 +13264,7 @@
     </row>
     <row r="511" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B511" s="10" t="s">
         <v>53</v>
@@ -13279,7 +13298,7 @@
     </row>
     <row r="513" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B513" s="10" t="s">
         <v>53</v>
@@ -13347,7 +13366,7 @@
     </row>
     <row r="517" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B517" s="10" t="s">
         <v>53</v>
@@ -13449,7 +13468,7 @@
     </row>
     <row r="523" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B523" s="10" t="s">
         <v>53</v>
@@ -13465,7 +13484,7 @@
     </row>
     <row r="524" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B524" s="10" t="s">
         <v>53</v>
@@ -13481,7 +13500,7 @@
     </row>
     <row r="525" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="9" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B525" s="10" t="s">
         <v>53</v>
@@ -13615,7 +13634,7 @@
     </row>
     <row r="533" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B533" s="10" t="s">
         <v>53</v>
@@ -13847,7 +13866,7 @@
     </row>
     <row r="547" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B547" s="10" t="s">
         <v>53</v>
@@ -13911,7 +13930,7 @@
     </row>
     <row r="551" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B551" s="10" t="s">
         <v>53</v>
@@ -13977,7 +13996,7 @@
     </row>
     <row r="555" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B555" s="10" t="s">
         <v>53</v>
@@ -14663,7 +14682,7 @@
       <c r="C596" s="10"/>
       <c r="D596" s="9"/>
       <c r="E596" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F596" s="9" t="s">
         <v>17</v>
@@ -14819,7 +14838,7 @@
     </row>
     <row r="606" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B606" s="10" t="s">
         <v>53</v>
@@ -15817,7 +15836,7 @@
     </row>
     <row r="668" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="9" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B668" s="10" t="s">
         <v>53</v>
@@ -15963,7 +15982,7 @@
     </row>
     <row r="677" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A677" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B677" s="10"/>
       <c r="C677" s="10"/>
@@ -16239,7 +16258,7 @@
     </row>
     <row r="695" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="9" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B695" s="10" t="s">
         <v>53</v>
@@ -16369,7 +16388,7 @@
     </row>
     <row r="703" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="9" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B703" s="10"/>
       <c r="C703" s="9"/>
@@ -16411,7 +16430,7 @@
     </row>
     <row r="706" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="9" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B706" s="10"/>
       <c r="C706" s="9"/>
@@ -16457,7 +16476,7 @@
     </row>
     <row r="709" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="9" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B709" s="10" t="s">
         <v>53</v>
@@ -16701,7 +16720,7 @@
     </row>
     <row r="725" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B725" s="10" t="s">
         <v>53</v>
@@ -17071,7 +17090,7 @@
     </row>
     <row r="747" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B747" s="10"/>
       <c r="C747" s="10"/>
@@ -17085,7 +17104,7 @@
     </row>
     <row r="748" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E748" s="9" t="s">
         <v>14</v>
@@ -17096,7 +17115,7 @@
     </row>
     <row r="749" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B749" s="10"/>
       <c r="C749" s="10"/>
@@ -17110,7 +17129,7 @@
     </row>
     <row r="750" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B750" s="10"/>
       <c r="C750" s="10"/>
@@ -17124,7 +17143,7 @@
     </row>
     <row r="751" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E751" s="9" t="s">
         <v>14</v>
@@ -17135,7 +17154,7 @@
     </row>
     <row r="752" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B752" s="10"/>
       <c r="C752" s="10"/>
@@ -17149,7 +17168,7 @@
     </row>
     <row r="753" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E753" s="9" t="s">
         <v>14</v>
@@ -17160,7 +17179,7 @@
     </row>
     <row r="754" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B754" s="10"/>
       <c r="C754" s="10"/>
@@ -17174,7 +17193,7 @@
     </row>
     <row r="755" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E755" s="9" t="s">
         <v>14</v>
@@ -17185,7 +17204,7 @@
     </row>
     <row r="756" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B756" s="10"/>
       <c r="C756" s="10"/>
@@ -17199,7 +17218,7 @@
     </row>
     <row r="757" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E757" s="9" t="s">
         <v>14</v>
@@ -17210,7 +17229,7 @@
     </row>
     <row r="758" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B758" s="10"/>
       <c r="C758" s="10"/>
@@ -17224,7 +17243,7 @@
     </row>
     <row r="759" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E759" s="9" t="s">
         <v>14</v>
@@ -17235,7 +17254,7 @@
     </row>
     <row r="760" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B760" s="10"/>
       <c r="C760" s="10"/>
@@ -17249,7 +17268,7 @@
     </row>
     <row r="761" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E761" s="9" t="s">
         <v>14</v>
@@ -17260,7 +17279,7 @@
     </row>
     <row r="762" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B762" s="10"/>
       <c r="C762" s="10"/>
@@ -17274,7 +17293,7 @@
     </row>
     <row r="763" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E763" s="9" t="s">
         <v>14</v>
@@ -17285,7 +17304,7 @@
     </row>
     <row r="764" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B764" s="10"/>
       <c r="C764" s="10"/>
@@ -17299,7 +17318,7 @@
     </row>
     <row r="765" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E765" s="9" t="s">
         <v>14</v>
@@ -17310,7 +17329,7 @@
     </row>
     <row r="766" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B766" s="10"/>
       <c r="C766" s="10"/>
@@ -17324,7 +17343,7 @@
     </row>
     <row r="767" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E767" s="9" t="s">
         <v>14</v>
@@ -17335,7 +17354,7 @@
     </row>
     <row r="768" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B768" s="10"/>
       <c r="C768" s="10"/>
@@ -17349,7 +17368,7 @@
     </row>
     <row r="769" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E769" s="9" t="s">
         <v>14</v>
@@ -17360,7 +17379,7 @@
     </row>
     <row r="770" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B770" s="10"/>
       <c r="C770" s="10"/>
@@ -17515,7 +17534,7 @@
         <v>14</v>
       </c>
       <c r="F779" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="780" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17536,7 +17555,7 @@
     </row>
     <row r="781" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B781" s="10" t="s">
         <v>53</v>
@@ -17568,7 +17587,7 @@
     </row>
     <row r="783" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="9" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B783" s="10" t="s">
         <v>53</v>
@@ -17600,7 +17619,7 @@
     </row>
     <row r="785" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B785" s="10" t="s">
         <v>53</v>
@@ -17616,7 +17635,7 @@
     </row>
     <row r="786" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="9" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B786" s="10" t="s">
         <v>53</v>
@@ -17764,7 +17783,7 @@
     </row>
     <row r="795" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="9" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B795" s="10" t="s">
         <v>53</v>
@@ -17830,22 +17849,30 @@
       <c r="A799" s="9" t="s">
         <v>1082</v>
       </c>
-      <c r="B799" s="10"/>
-      <c r="C799" s="9"/>
+      <c r="B799" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C799" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D799" s="9"/>
       <c r="E799" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F799" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="B800" s="10"/>
-      <c r="C800" s="12"/>
+      <c r="B800" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C800" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D800" s="9"/>
       <c r="E800" s="9" t="s">
         <v>13</v>
@@ -17854,18 +17881,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="B801" s="10"/>
-      <c r="C801" s="12"/>
-      <c r="D801" s="9"/>
+      <c r="B801" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C801" s="10"/>
+      <c r="D801" s="10"/>
       <c r="E801" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F801" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17875,13 +17904,15 @@
       <c r="B802" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C802" s="10"/>
-      <c r="D802" s="10"/>
+      <c r="C802" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D802" s="9"/>
       <c r="E802" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F802" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17958,25 +17989,21 @@
     </row>
     <row r="807" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="9" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B807" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C807" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B807" s="10"/>
+      <c r="C807" s="12"/>
       <c r="D807" s="9"/>
       <c r="E807" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F807" s="9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="808" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B808" s="10"/>
       <c r="C808" s="12"/>
@@ -17990,16 +18017,18 @@
     </row>
     <row r="809" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B809" s="10"/>
-      <c r="C809" s="12"/>
+        <v>1090</v>
+      </c>
+      <c r="B809" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C809" s="9"/>
       <c r="D809" s="9"/>
       <c r="E809" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F809" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="810" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18009,13 +18038,15 @@
       <c r="B810" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C810" s="9"/>
-      <c r="D810" s="9"/>
+      <c r="C810" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D810" s="10"/>
       <c r="E810" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F810" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18043,15 +18074,13 @@
       <c r="B812" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C812" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D812" s="10"/>
+      <c r="C812" s="9"/>
+      <c r="D812" s="9"/>
       <c r="E812" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F812" s="9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18109,13 +18138,15 @@
       <c r="B816" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C816" s="9"/>
+      <c r="C816" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D816" s="9"/>
       <c r="E816" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F816" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="817" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18140,32 +18171,32 @@
       <c r="A818" s="9" t="s">
         <v>1099</v>
       </c>
-      <c r="B818" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C818" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="B818" s="10"/>
+      <c r="C818" s="9"/>
       <c r="D818" s="9"/>
       <c r="E818" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F818" s="9" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="B819" s="10"/>
-      <c r="C819" s="9"/>
+      <c r="B819" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C819" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D819" s="9"/>
       <c r="E819" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F819" s="9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="820" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18175,15 +18206,13 @@
       <c r="B820" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C820" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D820" s="9"/>
+      <c r="C820" s="10"/>
+      <c r="D820" s="10"/>
       <c r="E820" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F820" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="821" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18193,13 +18222,13 @@
       <c r="B821" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C821" s="10"/>
-      <c r="D821" s="10"/>
+      <c r="C821" s="9"/>
+      <c r="D821" s="9"/>
       <c r="E821" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F821" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="822" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18209,13 +18238,15 @@
       <c r="B822" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C822" s="9"/>
+      <c r="C822" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D822" s="9"/>
       <c r="E822" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F822" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="823" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18225,15 +18256,13 @@
       <c r="B823" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C823" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C823" s="9"/>
       <c r="D823" s="9"/>
       <c r="E823" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F823" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="824" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18243,23 +18272,25 @@
       <c r="B824" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C824" s="9"/>
+      <c r="C824" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D824" s="9"/>
       <c r="E824" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F824" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="825" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="9" t="s">
-        <v>1106</v>
+        <v>1595</v>
       </c>
       <c r="B825" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C825" s="10" t="s">
+      <c r="C825" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D825" s="9"/>
@@ -18267,17 +18298,17 @@
         <v>13</v>
       </c>
       <c r="F825" s="9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="9" t="s">
-        <v>1596</v>
+        <v>1106</v>
       </c>
       <c r="B826" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C826" s="9" t="s">
+      <c r="C826" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D826" s="9"/>
@@ -18290,25 +18321,25 @@
     </row>
     <row r="827" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="9" t="s">
-        <v>1107</v>
+        <v>1610</v>
       </c>
       <c r="B827" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C827" s="12" t="s">
+      <c r="C827" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D827" s="9"/>
       <c r="E827" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F827" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="828" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="9" t="s">
-        <v>1611</v>
+        <v>1107</v>
       </c>
       <c r="B828" s="10" t="s">
         <v>53</v>
@@ -18321,7 +18352,7 @@
         <v>14</v>
       </c>
       <c r="F828" s="9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="829" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18331,15 +18362,15 @@
       <c r="B829" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C829" s="10" t="s">
+      <c r="C829" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D829" s="9"/>
       <c r="E829" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F829" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="830" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18380,14 +18411,12 @@
     </row>
     <row r="832" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="9" t="s">
-        <v>1111</v>
+        <v>1565</v>
       </c>
       <c r="B832" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C832" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="C832" s="12"/>
       <c r="D832" s="9"/>
       <c r="E832" s="9" t="s">
         <v>13</v>
@@ -18412,13 +18441,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A834" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B834" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>1111</v>
+      </c>
+      <c r="B834" s="10"/>
       <c r="C834" s="12"/>
       <c r="D834" s="9"/>
       <c r="E834" s="9" t="s">
@@ -18428,11 +18455,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="9" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B835" s="10"/>
+        <v>1563</v>
+      </c>
+      <c r="B835" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C835" s="12"/>
       <c r="D835" s="9"/>
       <c r="E835" s="9" t="s">
@@ -18460,12 +18489,14 @@
     </row>
     <row r="837" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="9" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B837" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C837" s="12"/>
+      <c r="C837" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D837" s="9"/>
       <c r="E837" s="9" t="s">
         <v>13</v>
@@ -18476,13 +18507,13 @@
     </row>
     <row r="838" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="9" t="s">
-        <v>1563</v>
+        <v>1112</v>
       </c>
       <c r="B838" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C838" s="12" t="s">
-        <v>53</v>
+        <v>1598</v>
       </c>
       <c r="D838" s="9"/>
       <c r="E838" s="9" t="s">
@@ -18496,32 +18527,30 @@
       <c r="A839" s="9" t="s">
         <v>1113</v>
       </c>
-      <c r="B839" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C839" s="12" t="s">
-        <v>1599</v>
-      </c>
+      <c r="B839" s="10"/>
+      <c r="C839" s="12"/>
       <c r="D839" s="9"/>
       <c r="E839" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F839" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="840" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B840" s="10"/>
+        <v>1573</v>
+      </c>
+      <c r="B840" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C840" s="12"/>
       <c r="D840" s="9"/>
       <c r="E840" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F840" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18542,12 +18571,14 @@
     </row>
     <row r="842" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="9" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
       <c r="B842" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C842" s="12"/>
+      <c r="C842" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D842" s="9"/>
       <c r="E842" s="9" t="s">
         <v>13</v>
@@ -18594,13 +18625,13 @@
     </row>
     <row r="845" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="9" t="s">
-        <v>1562</v>
+        <v>1114</v>
       </c>
       <c r="B845" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C845" s="12" t="s">
-        <v>53</v>
+        <v>1598</v>
       </c>
       <c r="D845" s="9"/>
       <c r="E845" s="9" t="s">
@@ -18612,14 +18643,12 @@
     </row>
     <row r="846" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="9" t="s">
-        <v>1115</v>
+        <v>1567</v>
       </c>
       <c r="B846" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C846" s="12" t="s">
-        <v>1599</v>
-      </c>
+      <c r="C846" s="12"/>
       <c r="D846" s="9"/>
       <c r="E846" s="9" t="s">
         <v>13</v>
@@ -18630,7 +18659,7 @@
     </row>
     <row r="847" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="9" t="s">
-        <v>1568</v>
+        <v>1115</v>
       </c>
       <c r="B847" s="10" t="s">
         <v>53</v>
@@ -18811,13 +18840,15 @@
       <c r="B858" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C858" s="12"/>
+      <c r="C858" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D858" s="9"/>
       <c r="E858" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F858" s="9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="859" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18827,15 +18858,13 @@
       <c r="B859" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C859" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="C859" s="12"/>
       <c r="D859" s="9"/>
       <c r="E859" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F859" s="9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18856,7 +18885,7 @@
     </row>
     <row r="861" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="9" t="s">
-        <v>1129</v>
+        <v>1571</v>
       </c>
       <c r="B861" s="10" t="s">
         <v>53</v>
@@ -18888,7 +18917,7 @@
     </row>
     <row r="863" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="9" t="s">
-        <v>1573</v>
+        <v>1129</v>
       </c>
       <c r="B863" s="10" t="s">
         <v>53</v>
@@ -19021,13 +19050,13 @@
       <c r="B871" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C871" s="12"/>
+      <c r="C871" s="9"/>
       <c r="D871" s="9"/>
       <c r="E871" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F871" s="9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="872" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19043,7 +19072,7 @@
         <v>14</v>
       </c>
       <c r="F872" s="9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="873" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19053,13 +19082,13 @@
       <c r="B873" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C873" s="9"/>
+      <c r="C873" s="12"/>
       <c r="D873" s="9"/>
       <c r="E873" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F873" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="874" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19085,13 +19114,13 @@
       <c r="B875" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C875" s="12"/>
+      <c r="C875" s="9"/>
       <c r="D875" s="9"/>
       <c r="E875" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F875" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="876" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19144,23 +19173,23 @@
     </row>
     <row r="879" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="9" t="s">
-        <v>1145</v>
+        <v>1568</v>
       </c>
       <c r="B879" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C879" s="9"/>
+      <c r="C879" s="12"/>
       <c r="D879" s="9"/>
       <c r="E879" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F879" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="880" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="9" t="s">
-        <v>1569</v>
+        <v>1145</v>
       </c>
       <c r="B880" s="10" t="s">
         <v>53</v>
@@ -19213,21 +19242,27 @@
       <c r="B883" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C883" s="12"/>
+      <c r="C883" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D883" s="9"/>
       <c r="E883" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F883" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="884" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="9" t="s">
         <v>1149</v>
       </c>
-      <c r="B884" s="10"/>
-      <c r="C884" s="12"/>
+      <c r="B884" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C884" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D884" s="9"/>
       <c r="E884" s="9" t="s">
         <v>13</v>
@@ -19236,18 +19271,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="9" t="s">
         <v>1150</v>
       </c>
-      <c r="B885" s="10"/>
+      <c r="B885" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C885" s="12"/>
       <c r="D885" s="9"/>
       <c r="E885" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F885" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="886" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19332,7 +19369,7 @@
     </row>
     <row r="891" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="9" t="s">
-        <v>1156</v>
+        <v>1569</v>
       </c>
       <c r="B891" s="10" t="s">
         <v>53</v>
@@ -19348,7 +19385,7 @@
     </row>
     <row r="892" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="9" t="s">
-        <v>1570</v>
+        <v>1156</v>
       </c>
       <c r="B892" s="10" t="s">
         <v>53</v>
@@ -19398,16 +19435,14 @@
       <c r="A895" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="B895" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="B895" s="10"/>
       <c r="C895" s="12"/>
       <c r="D895" s="9"/>
       <c r="E895" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F895" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="896" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19428,35 +19463,37 @@
       <c r="A897" s="9" t="s">
         <v>1161</v>
       </c>
-      <c r="B897" s="10"/>
-      <c r="C897" s="12"/>
+      <c r="B897" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C897" s="9"/>
       <c r="D897" s="9"/>
       <c r="E897" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F897" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="898" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="9" t="s">
-        <v>1162</v>
+        <v>1570</v>
       </c>
       <c r="B898" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C898" s="9"/>
+      <c r="C898" s="12"/>
       <c r="D898" s="9"/>
       <c r="E898" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F898" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="899" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="9" t="s">
-        <v>1571</v>
+        <v>1162</v>
       </c>
       <c r="B899" s="10" t="s">
         <v>53</v>
@@ -19474,16 +19511,14 @@
       <c r="A900" s="9" t="s">
         <v>1163</v>
       </c>
-      <c r="B900" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C900" s="12"/>
+      <c r="B900" s="10"/>
+      <c r="C900" s="9"/>
       <c r="D900" s="9"/>
       <c r="E900" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F900" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="901" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19500,32 +19535,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A902" s="9" t="s">
         <v>1165</v>
       </c>
       <c r="B902" s="10"/>
-      <c r="C902" s="9"/>
+      <c r="C902" s="12"/>
       <c r="D902" s="9"/>
       <c r="E902" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F902" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="903" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="9" t="s">
         <v>1166</v>
       </c>
-      <c r="B903" s="10"/>
-      <c r="C903" s="12"/>
-      <c r="D903" s="9"/>
+      <c r="B903" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C903" s="10"/>
+      <c r="D903" s="10"/>
       <c r="E903" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F903" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="904" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19535,13 +19572,15 @@
       <c r="B904" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C904" s="10"/>
-      <c r="D904" s="10"/>
+      <c r="C904" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D904" s="9"/>
       <c r="E904" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F904" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="905" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19587,15 +19626,13 @@
       <c r="B907" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C907" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C907" s="9"/>
       <c r="D907" s="9"/>
       <c r="E907" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F907" s="9" t="s">
-        <v>24</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="908" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19605,13 +19642,13 @@
       <c r="B908" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C908" s="9"/>
-      <c r="D908" s="9"/>
+      <c r="C908" s="10"/>
+      <c r="D908" s="10"/>
       <c r="E908" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F908" s="9" t="s">
-        <v>1559</v>
+        <v>28</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19621,13 +19658,15 @@
       <c r="B909" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C909" s="10"/>
-      <c r="D909" s="10"/>
+      <c r="C909" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D909" s="9"/>
       <c r="E909" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F909" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="910" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19637,15 +19676,13 @@
       <c r="B910" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C910" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D910" s="9"/>
+      <c r="C910" s="10"/>
+      <c r="D910" s="10"/>
       <c r="E910" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F910" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="911" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19696,66 +19733,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A914" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="B914" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C914" s="10"/>
-      <c r="D914" s="10"/>
+      <c r="B914" s="10"/>
+      <c r="C914" s="12"/>
+      <c r="D914" s="9"/>
       <c r="E914" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F914" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="915" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="9" t="s">
         <v>1178</v>
       </c>
-      <c r="B915" s="10"/>
-      <c r="C915" s="12"/>
+      <c r="B915" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C915" s="10"/>
       <c r="D915" s="9"/>
       <c r="E915" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F915" s="9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="916" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="9" t="s">
-        <v>1179</v>
+        <v>1613</v>
       </c>
       <c r="B916" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C916" s="10"/>
-      <c r="D916" s="9"/>
+      <c r="D916" s="10"/>
       <c r="E916" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F916" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="917" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="9" t="s">
-        <v>1614</v>
+        <v>1179</v>
       </c>
       <c r="B917" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C917" s="10"/>
-      <c r="D917" s="10"/>
+      <c r="C917" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D917" s="9"/>
       <c r="E917" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F917" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="918" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19770,10 +19809,10 @@
       </c>
       <c r="D918" s="9"/>
       <c r="E918" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F918" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="919" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19783,15 +19822,13 @@
       <c r="B919" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C919" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D919" s="9"/>
+      <c r="C919" s="10"/>
+      <c r="D919" s="10"/>
       <c r="E919" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F919" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="920" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19801,13 +19838,15 @@
       <c r="B920" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C920" s="10"/>
-      <c r="D920" s="10"/>
+      <c r="C920" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D920" s="9"/>
       <c r="E920" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F920" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19817,15 +19856,13 @@
       <c r="B921" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C921" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C921" s="9"/>
       <c r="D921" s="9"/>
       <c r="E921" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F921" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="922" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19835,13 +19872,13 @@
       <c r="B922" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C922" s="9"/>
-      <c r="D922" s="9"/>
+      <c r="C922" s="10"/>
+      <c r="D922" s="10"/>
       <c r="E922" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F922" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="923" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19857,7 +19894,7 @@
         <v>14</v>
       </c>
       <c r="F923" s="9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="924" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19867,13 +19904,13 @@
       <c r="B924" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C924" s="10"/>
-      <c r="D924" s="10"/>
+      <c r="C924" s="9"/>
+      <c r="D924" s="9"/>
       <c r="E924" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F924" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="925" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19883,13 +19920,13 @@
       <c r="B925" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C925" s="9"/>
-      <c r="D925" s="9"/>
+      <c r="C925" s="10"/>
+      <c r="D925" s="10"/>
       <c r="E925" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F925" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="926" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19899,13 +19936,15 @@
       <c r="B926" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C926" s="10"/>
-      <c r="D926" s="10"/>
+      <c r="C926" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D926" s="9"/>
       <c r="E926" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F926" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="927" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19915,12 +19954,10 @@
       <c r="B927" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C927" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C927" s="9"/>
       <c r="D927" s="9"/>
       <c r="E927" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F927" s="9" t="s">
         <v>24</v>
@@ -19949,10 +19986,12 @@
       <c r="B929" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C929" s="9"/>
+      <c r="C929" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D929" s="9"/>
       <c r="E929" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F929" s="9" t="s">
         <v>24</v>
@@ -19986,12 +20025,12 @@
       <c r="C931" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D931" s="9"/>
+      <c r="D931" s="10"/>
       <c r="E931" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F931" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="932" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20086,7 +20125,7 @@
     </row>
     <row r="937" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="9" t="s">
-        <v>1199</v>
+        <v>1599</v>
       </c>
       <c r="B937" s="10" t="s">
         <v>53</v>
@@ -20094,24 +20133,22 @@
       <c r="C937" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D937" s="10"/>
+      <c r="D937" s="9"/>
       <c r="E937" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F937" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="938" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="9" t="s">
-        <v>1600</v>
+        <v>1199</v>
       </c>
       <c r="B938" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C938" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C938" s="10"/>
       <c r="D938" s="9"/>
       <c r="E938" s="9" t="s">
         <v>14</v>
@@ -20122,12 +20159,14 @@
     </row>
     <row r="939" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="9" t="s">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="B939" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C939" s="10"/>
+      <c r="C939" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D939" s="9"/>
       <c r="E939" s="9" t="s">
         <v>14</v>
@@ -20138,14 +20177,12 @@
     </row>
     <row r="940" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="9" t="s">
-        <v>1601</v>
+        <v>1200</v>
       </c>
       <c r="B940" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C940" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C940" s="10"/>
       <c r="D940" s="9"/>
       <c r="E940" s="9" t="s">
         <v>14</v>
@@ -20156,7 +20193,7 @@
     </row>
     <row r="941" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="9" t="s">
-        <v>1201</v>
+        <v>1601</v>
       </c>
       <c r="B941" s="10" t="s">
         <v>53</v>
@@ -20172,7 +20209,7 @@
     </row>
     <row r="942" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="9" t="s">
-        <v>1602</v>
+        <v>1201</v>
       </c>
       <c r="B942" s="10" t="s">
         <v>53</v>
@@ -20209,7 +20246,9 @@
       <c r="B944" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C944" s="10"/>
+      <c r="C944" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D944" s="9"/>
       <c r="E944" s="9" t="s">
         <v>14</v>
@@ -20225,9 +20264,7 @@
       <c r="B945" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C945" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C945" s="10"/>
       <c r="D945" s="9"/>
       <c r="E945" s="9" t="s">
         <v>14</v>
@@ -20240,30 +20277,30 @@
       <c r="A946" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="B946" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C946" s="10"/>
+      <c r="B946" s="10"/>
+      <c r="C946" s="9"/>
       <c r="D946" s="9"/>
       <c r="E946" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F946" s="9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="947" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="B947" s="10"/>
-      <c r="C947" s="9"/>
-      <c r="D947" s="9"/>
+      <c r="B947" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C947" s="10"/>
+      <c r="D947" s="10"/>
       <c r="E947" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F947" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="948" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20273,13 +20310,13 @@
       <c r="B948" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C948" s="10"/>
-      <c r="D948" s="10"/>
+      <c r="C948" s="9"/>
+      <c r="D948" s="9"/>
       <c r="E948" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F948" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20289,13 +20326,15 @@
       <c r="B949" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C949" s="9"/>
+      <c r="C949" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D949" s="9"/>
       <c r="E949" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F949" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="950" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20323,12 +20362,10 @@
       <c r="B951" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C951" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="C951" s="9"/>
       <c r="D951" s="9"/>
       <c r="E951" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F951" s="9" t="s">
         <v>41</v>
@@ -20357,13 +20394,15 @@
       <c r="B953" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C953" s="9"/>
+      <c r="C953" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D953" s="9"/>
       <c r="E953" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F953" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="954" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20373,15 +20412,13 @@
       <c r="B954" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C954" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C954" s="9"/>
       <c r="D954" s="9"/>
       <c r="E954" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F954" s="9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="955" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20429,7 +20466,7 @@
         <v>14</v>
       </c>
       <c r="F957" s="9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="958" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20439,40 +20476,42 @@
       <c r="B958" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C958" s="9"/>
-      <c r="D958" s="9"/>
+      <c r="C958" s="10"/>
+      <c r="D958" s="10"/>
       <c r="E958" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F958" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="959" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="B959" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C959" s="10"/>
-      <c r="D959" s="10"/>
+      <c r="B959" s="10"/>
+      <c r="C959" s="9"/>
+      <c r="D959" s="9"/>
       <c r="E959" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F959" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="960" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="9" t="s">
         <v>1219</v>
       </c>
-      <c r="B960" s="10"/>
-      <c r="C960" s="9"/>
+      <c r="B960" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C960" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D960" s="9"/>
       <c r="E960" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F960" s="9" t="s">
         <v>24</v>
@@ -20480,12 +20519,12 @@
     </row>
     <row r="961" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="9" t="s">
-        <v>1220</v>
+        <v>1596</v>
       </c>
       <c r="B961" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C961" s="10" t="s">
+      <c r="C961" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D961" s="9"/>
@@ -20493,7 +20532,7 @@
         <v>13</v>
       </c>
       <c r="F961" s="9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="962" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20516,7 +20555,7 @@
     </row>
     <row r="963" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="9" t="s">
-        <v>1598</v>
+        <v>1220</v>
       </c>
       <c r="B963" s="10" t="s">
         <v>53</v>
@@ -20526,7 +20565,7 @@
       </c>
       <c r="D963" s="9"/>
       <c r="E963" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F963" s="9" t="s">
         <v>41</v>
@@ -20536,37 +20575,35 @@
       <c r="A964" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="B964" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C964" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="B964" s="10"/>
+      <c r="C964" s="10"/>
       <c r="D964" s="9"/>
       <c r="E964" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F964" s="9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B965" s="10"/>
-      <c r="C965" s="10"/>
+        <v>1592</v>
+      </c>
+      <c r="B965" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C965" s="9"/>
       <c r="D965" s="9"/>
       <c r="E965" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F965" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="966" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="9" t="s">
-        <v>1593</v>
+        <v>1427</v>
       </c>
       <c r="B966" s="10" t="s">
         <v>53</v>
@@ -20577,12 +20614,12 @@
         <v>14</v>
       </c>
       <c r="F966" s="9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="967" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="9" t="s">
-        <v>1428</v>
+        <v>1222</v>
       </c>
       <c r="B967" s="10" t="s">
         <v>53</v>
@@ -20619,13 +20656,15 @@
       <c r="B969" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C969" s="9"/>
+      <c r="C969" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D969" s="9"/>
       <c r="E969" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F969" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20650,32 +20689,30 @@
       <c r="A971" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="B971" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C971" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="B971" s="10"/>
+      <c r="C971" s="12"/>
       <c r="D971" s="9"/>
       <c r="E971" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F971" s="9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="9" t="s">
         <v>1227</v>
       </c>
-      <c r="B972" s="10"/>
-      <c r="C972" s="12"/>
-      <c r="D972" s="9"/>
+      <c r="B972" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C972" s="10"/>
+      <c r="D972" s="10"/>
       <c r="E972" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F972" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="973" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20685,13 +20722,13 @@
       <c r="B973" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C973" s="10"/>
-      <c r="D973" s="10"/>
+      <c r="C973" s="9"/>
+      <c r="D973" s="9"/>
       <c r="E973" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F973" s="9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20710,20 +20747,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="975" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A975" s="9" t="s">
         <v>1230</v>
       </c>
-      <c r="B975" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C975" s="9"/>
+      <c r="B975" s="10"/>
+      <c r="C975" s="12"/>
       <c r="D975" s="9"/>
       <c r="E975" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F975" s="9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="976" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -20754,48 +20789,48 @@
         <v>52</v>
       </c>
     </row>
-    <row r="978" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="9" t="s">
         <v>1233</v>
       </c>
       <c r="B978" s="10"/>
-      <c r="C978" s="12"/>
-      <c r="D978" s="9"/>
+      <c r="C978" s="10"/>
+      <c r="D978" s="10"/>
       <c r="E978" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F978" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="979" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="9" t="s">
         <v>1234</v>
       </c>
-      <c r="B979" s="10"/>
-      <c r="C979" s="10"/>
-      <c r="D979" s="10"/>
+      <c r="B979" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C979" s="9"/>
+      <c r="D979" s="9"/>
       <c r="E979" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F979" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="9" t="s">
         <v>1235</v>
       </c>
-      <c r="B980" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="B980" s="10"/>
       <c r="C980" s="9"/>
       <c r="D980" s="9"/>
       <c r="E980" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F980" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="981" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20816,30 +20851,30 @@
       <c r="A982" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="B982" s="10"/>
-      <c r="C982" s="9"/>
-      <c r="D982" s="9"/>
+      <c r="B982" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C982" s="10"/>
+      <c r="D982" s="10"/>
       <c r="E982" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F982" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="983" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="9" t="s">
         <v>1238</v>
       </c>
-      <c r="B983" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C983" s="10"/>
-      <c r="D983" s="10"/>
+      <c r="B983" s="10"/>
+      <c r="C983" s="9"/>
+      <c r="D983" s="9"/>
       <c r="E983" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F983" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20860,32 +20895,32 @@
       <c r="A985" s="9" t="s">
         <v>1240</v>
       </c>
-      <c r="B985" s="10"/>
-      <c r="C985" s="9"/>
+      <c r="B985" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C985" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D985" s="9"/>
       <c r="E985" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F985" s="9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="986" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="B986" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C986" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B986" s="10"/>
+      <c r="C986" s="12"/>
       <c r="D986" s="9"/>
       <c r="E986" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F986" s="9" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="987" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20893,10 +20928,10 @@
         <v>1242</v>
       </c>
       <c r="B987" s="10"/>
-      <c r="C987" s="12"/>
+      <c r="C987" s="9"/>
       <c r="D987" s="9"/>
       <c r="E987" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F987" s="9" t="s">
         <v>15</v>
@@ -20907,10 +20942,10 @@
         <v>1243</v>
       </c>
       <c r="B988" s="10"/>
-      <c r="C988" s="9"/>
+      <c r="C988" s="12"/>
       <c r="D988" s="9"/>
       <c r="E988" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F988" s="9" t="s">
         <v>15</v>
@@ -21145,10 +21180,10 @@
         <v>1260</v>
       </c>
       <c r="B1005" s="10"/>
-      <c r="C1005" s="12"/>
+      <c r="C1005" s="9"/>
       <c r="D1005" s="9"/>
       <c r="E1005" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1005" s="9" t="s">
         <v>15</v>
@@ -21159,10 +21194,10 @@
         <v>1261</v>
       </c>
       <c r="B1006" s="10"/>
-      <c r="C1006" s="9"/>
+      <c r="C1006" s="12"/>
       <c r="D1006" s="9"/>
       <c r="E1006" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1006" s="9" t="s">
         <v>15</v>
@@ -21201,10 +21236,10 @@
         <v>1264</v>
       </c>
       <c r="B1009" s="10"/>
-      <c r="C1009" s="12"/>
+      <c r="C1009" s="9"/>
       <c r="D1009" s="9"/>
       <c r="E1009" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1009" s="9" t="s">
         <v>15</v>
@@ -21215,10 +21250,10 @@
         <v>1265</v>
       </c>
       <c r="B1010" s="10"/>
-      <c r="C1010" s="9"/>
+      <c r="C1010" s="12"/>
       <c r="D1010" s="9"/>
       <c r="E1010" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1010" s="9" t="s">
         <v>15</v>
@@ -21229,10 +21264,10 @@
         <v>1266</v>
       </c>
       <c r="B1011" s="10"/>
-      <c r="C1011" s="12"/>
+      <c r="C1011" s="9"/>
       <c r="D1011" s="9"/>
       <c r="E1011" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1011" s="9" t="s">
         <v>15</v>
@@ -21243,10 +21278,10 @@
         <v>1267</v>
       </c>
       <c r="B1012" s="10"/>
-      <c r="C1012" s="9"/>
+      <c r="C1012" s="12"/>
       <c r="D1012" s="9"/>
       <c r="E1012" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1012" s="9" t="s">
         <v>15</v>
@@ -21369,10 +21404,10 @@
         <v>1276</v>
       </c>
       <c r="B1021" s="10"/>
-      <c r="C1021" s="12"/>
+      <c r="C1021" s="9"/>
       <c r="D1021" s="9"/>
       <c r="E1021" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1021" s="9" t="s">
         <v>15</v>
@@ -21383,10 +21418,10 @@
         <v>1277</v>
       </c>
       <c r="B1022" s="10"/>
-      <c r="C1022" s="9"/>
+      <c r="C1022" s="12"/>
       <c r="D1022" s="9"/>
       <c r="E1022" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1022" s="9" t="s">
         <v>15</v>
@@ -21394,7 +21429,7 @@
     </row>
     <row r="1023" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1023" s="10"/>
       <c r="C1023" s="12"/>
@@ -21467,10 +21502,10 @@
         <v>1282</v>
       </c>
       <c r="B1028" s="10"/>
-      <c r="C1028" s="12"/>
+      <c r="C1028" s="9"/>
       <c r="D1028" s="9"/>
       <c r="E1028" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1028" s="9" t="s">
         <v>15</v>
@@ -21481,10 +21516,10 @@
         <v>1283</v>
       </c>
       <c r="B1029" s="10"/>
-      <c r="C1029" s="9"/>
+      <c r="C1029" s="12"/>
       <c r="D1029" s="9"/>
       <c r="E1029" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1029" s="9" t="s">
         <v>15</v>
@@ -21537,10 +21572,10 @@
         <v>1287</v>
       </c>
       <c r="B1033" s="10"/>
-      <c r="C1033" s="12"/>
+      <c r="C1033" s="9"/>
       <c r="D1033" s="9"/>
       <c r="E1033" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1033" s="9" t="s">
         <v>15</v>
@@ -21551,10 +21586,10 @@
         <v>1288</v>
       </c>
       <c r="B1034" s="10"/>
-      <c r="C1034" s="9"/>
+      <c r="C1034" s="12"/>
       <c r="D1034" s="9"/>
       <c r="E1034" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1034" s="9" t="s">
         <v>15</v>
@@ -21565,10 +21600,10 @@
         <v>1289</v>
       </c>
       <c r="B1035" s="10"/>
-      <c r="C1035" s="12"/>
+      <c r="C1035" s="9"/>
       <c r="D1035" s="9"/>
       <c r="E1035" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1035" s="9" t="s">
         <v>15</v>
@@ -21579,10 +21614,10 @@
         <v>1290</v>
       </c>
       <c r="B1036" s="10"/>
-      <c r="C1036" s="9"/>
+      <c r="C1036" s="12"/>
       <c r="D1036" s="9"/>
       <c r="E1036" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1036" s="9" t="s">
         <v>15</v>
@@ -21593,10 +21628,10 @@
         <v>1291</v>
       </c>
       <c r="B1037" s="10"/>
-      <c r="C1037" s="12"/>
+      <c r="C1037" s="9"/>
       <c r="D1037" s="9"/>
       <c r="E1037" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1037" s="9" t="s">
         <v>15</v>
@@ -21607,10 +21642,10 @@
         <v>1292</v>
       </c>
       <c r="B1038" s="10"/>
-      <c r="C1038" s="9"/>
+      <c r="C1038" s="12"/>
       <c r="D1038" s="9"/>
       <c r="E1038" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1038" s="9" t="s">
         <v>15</v>
@@ -21635,10 +21670,10 @@
         <v>1294</v>
       </c>
       <c r="B1040" s="10"/>
-      <c r="C1040" s="12"/>
+      <c r="C1040" s="9"/>
       <c r="D1040" s="9"/>
       <c r="E1040" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1040" s="9" t="s">
         <v>15</v>
@@ -21663,10 +21698,10 @@
         <v>1296</v>
       </c>
       <c r="B1042" s="10"/>
-      <c r="C1042" s="9"/>
+      <c r="C1042" s="12"/>
       <c r="D1042" s="9"/>
       <c r="E1042" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1042" s="9" t="s">
         <v>15</v>
@@ -21691,10 +21726,10 @@
         <v>1298</v>
       </c>
       <c r="B1044" s="10"/>
-      <c r="C1044" s="12"/>
+      <c r="C1044" s="9"/>
       <c r="D1044" s="9"/>
       <c r="E1044" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1044" s="9" t="s">
         <v>15</v>
@@ -21705,10 +21740,10 @@
         <v>1299</v>
       </c>
       <c r="B1045" s="10"/>
-      <c r="C1045" s="9"/>
+      <c r="C1045" s="12"/>
       <c r="D1045" s="9"/>
       <c r="E1045" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1045" s="9" t="s">
         <v>15</v>
@@ -21817,10 +21852,10 @@
         <v>1307</v>
       </c>
       <c r="B1053" s="10"/>
-      <c r="C1053" s="12"/>
+      <c r="C1053" s="9"/>
       <c r="D1053" s="9"/>
       <c r="E1053" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1053" s="9" t="s">
         <v>15</v>
@@ -21831,10 +21866,10 @@
         <v>1308</v>
       </c>
       <c r="B1054" s="10"/>
-      <c r="C1054" s="9"/>
+      <c r="C1054" s="12"/>
       <c r="D1054" s="9"/>
       <c r="E1054" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1054" s="9" t="s">
         <v>15</v>
@@ -21859,10 +21894,10 @@
         <v>1310</v>
       </c>
       <c r="B1056" s="10"/>
-      <c r="C1056" s="12"/>
+      <c r="C1056" s="9"/>
       <c r="D1056" s="9"/>
       <c r="E1056" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1056" s="9" t="s">
         <v>15</v>
@@ -21873,10 +21908,10 @@
         <v>1311</v>
       </c>
       <c r="B1057" s="10"/>
-      <c r="C1057" s="9"/>
+      <c r="C1057" s="12"/>
       <c r="D1057" s="9"/>
       <c r="E1057" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1057" s="9" t="s">
         <v>15</v>
@@ -21887,10 +21922,10 @@
         <v>1312</v>
       </c>
       <c r="B1058" s="10"/>
-      <c r="C1058" s="12"/>
+      <c r="C1058" s="9"/>
       <c r="D1058" s="9"/>
       <c r="E1058" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1058" s="9" t="s">
         <v>15</v>
@@ -21915,10 +21950,10 @@
         <v>1314</v>
       </c>
       <c r="B1060" s="10"/>
-      <c r="C1060" s="9"/>
+      <c r="C1060" s="12"/>
       <c r="D1060" s="9"/>
       <c r="E1060" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1060" s="9" t="s">
         <v>15</v>
@@ -21943,10 +21978,10 @@
         <v>1316</v>
       </c>
       <c r="B1062" s="10"/>
-      <c r="C1062" s="12"/>
+      <c r="C1062" s="9"/>
       <c r="D1062" s="9"/>
       <c r="E1062" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1062" s="9" t="s">
         <v>15</v>
@@ -21957,10 +21992,10 @@
         <v>1317</v>
       </c>
       <c r="B1063" s="10"/>
-      <c r="C1063" s="9"/>
+      <c r="C1063" s="12"/>
       <c r="D1063" s="9"/>
       <c r="E1063" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1063" s="9" t="s">
         <v>15</v>
@@ -21985,10 +22020,10 @@
         <v>1319</v>
       </c>
       <c r="B1065" s="10"/>
-      <c r="C1065" s="12"/>
+      <c r="C1065" s="9"/>
       <c r="D1065" s="9"/>
       <c r="E1065" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1065" s="9" t="s">
         <v>15</v>
@@ -21999,10 +22034,10 @@
         <v>1320</v>
       </c>
       <c r="B1066" s="10"/>
-      <c r="C1066" s="9"/>
+      <c r="C1066" s="12"/>
       <c r="D1066" s="9"/>
       <c r="E1066" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1066" s="9" t="s">
         <v>15</v>
@@ -22013,10 +22048,10 @@
         <v>1321</v>
       </c>
       <c r="B1067" s="10"/>
-      <c r="C1067" s="12"/>
+      <c r="C1067" s="9"/>
       <c r="D1067" s="9"/>
       <c r="E1067" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1067" s="9" t="s">
         <v>15</v>
@@ -22027,10 +22062,10 @@
         <v>1322</v>
       </c>
       <c r="B1068" s="10"/>
-      <c r="C1068" s="9"/>
+      <c r="C1068" s="12"/>
       <c r="D1068" s="9"/>
       <c r="E1068" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1068" s="9" t="s">
         <v>15</v>
@@ -22041,10 +22076,10 @@
         <v>1323</v>
       </c>
       <c r="B1069" s="10"/>
-      <c r="C1069" s="12"/>
+      <c r="C1069" s="9"/>
       <c r="D1069" s="9"/>
       <c r="E1069" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1069" s="9" t="s">
         <v>15</v>
@@ -22055,10 +22090,10 @@
         <v>1324</v>
       </c>
       <c r="B1070" s="10"/>
-      <c r="C1070" s="9"/>
+      <c r="C1070" s="12"/>
       <c r="D1070" s="9"/>
       <c r="E1070" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1070" s="9" t="s">
         <v>15</v>
@@ -22083,10 +22118,10 @@
         <v>1326</v>
       </c>
       <c r="B1072" s="10"/>
-      <c r="C1072" s="12"/>
+      <c r="C1072" s="9"/>
       <c r="D1072" s="9"/>
       <c r="E1072" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1072" s="9" t="s">
         <v>15</v>
@@ -22097,10 +22132,10 @@
         <v>1327</v>
       </c>
       <c r="B1073" s="10"/>
-      <c r="C1073" s="9"/>
+      <c r="C1073" s="12"/>
       <c r="D1073" s="9"/>
       <c r="E1073" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1073" s="9" t="s">
         <v>15</v>
@@ -22111,10 +22146,10 @@
         <v>1328</v>
       </c>
       <c r="B1074" s="10"/>
-      <c r="C1074" s="12"/>
+      <c r="C1074" s="9"/>
       <c r="D1074" s="9"/>
       <c r="E1074" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1074" s="9" t="s">
         <v>15</v>
@@ -22125,10 +22160,10 @@
         <v>1329</v>
       </c>
       <c r="B1075" s="10"/>
-      <c r="C1075" s="9"/>
+      <c r="C1075" s="12"/>
       <c r="D1075" s="9"/>
       <c r="E1075" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1075" s="9" t="s">
         <v>15</v>
@@ -22195,10 +22230,10 @@
         <v>1334</v>
       </c>
       <c r="B1080" s="10"/>
-      <c r="C1080" s="12"/>
+      <c r="C1080" s="9"/>
       <c r="D1080" s="9"/>
       <c r="E1080" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1080" s="9" t="s">
         <v>15</v>
@@ -22209,10 +22244,10 @@
         <v>1335</v>
       </c>
       <c r="B1081" s="10"/>
-      <c r="C1081" s="9"/>
+      <c r="C1081" s="12"/>
       <c r="D1081" s="9"/>
       <c r="E1081" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1081" s="9" t="s">
         <v>15</v>
@@ -22223,10 +22258,10 @@
         <v>1336</v>
       </c>
       <c r="B1082" s="10"/>
-      <c r="C1082" s="12"/>
+      <c r="C1082" s="9"/>
       <c r="D1082" s="9"/>
       <c r="E1082" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1082" s="9" t="s">
         <v>15</v>
@@ -22237,10 +22272,10 @@
         <v>1337</v>
       </c>
       <c r="B1083" s="10"/>
-      <c r="C1083" s="9"/>
+      <c r="C1083" s="12"/>
       <c r="D1083" s="9"/>
       <c r="E1083" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1083" s="9" t="s">
         <v>15</v>
@@ -22251,10 +22286,10 @@
         <v>1338</v>
       </c>
       <c r="B1084" s="10"/>
-      <c r="C1084" s="12"/>
+      <c r="C1084" s="9"/>
       <c r="D1084" s="9"/>
       <c r="E1084" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1084" s="9" t="s">
         <v>15</v>
@@ -22265,10 +22300,10 @@
         <v>1339</v>
       </c>
       <c r="B1085" s="10"/>
-      <c r="C1085" s="9"/>
+      <c r="C1085" s="12"/>
       <c r="D1085" s="9"/>
       <c r="E1085" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1085" s="9" t="s">
         <v>15</v>
@@ -22293,10 +22328,10 @@
         <v>1341</v>
       </c>
       <c r="B1087" s="10"/>
-      <c r="C1087" s="12"/>
+      <c r="C1087" s="9"/>
       <c r="D1087" s="9"/>
       <c r="E1087" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1087" s="9" t="s">
         <v>15</v>
@@ -22307,10 +22342,10 @@
         <v>1342</v>
       </c>
       <c r="B1088" s="10"/>
-      <c r="C1088" s="9"/>
+      <c r="C1088" s="12"/>
       <c r="D1088" s="9"/>
       <c r="E1088" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1088" s="9" t="s">
         <v>15</v>
@@ -22348,14 +22383,16 @@
       <c r="A1091" s="9" t="s">
         <v>1345</v>
       </c>
-      <c r="B1091" s="10"/>
-      <c r="C1091" s="12"/>
+      <c r="B1091" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1091" s="9"/>
       <c r="D1091" s="9"/>
       <c r="E1091" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1091" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1092" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22397,13 +22434,15 @@
       <c r="B1094" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1094" s="9"/>
-      <c r="D1094" s="9"/>
+      <c r="C1094" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1094" s="10"/>
       <c r="E1094" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1094" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1095" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22413,15 +22452,13 @@
       <c r="B1095" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1095" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1095" s="10"/>
+      <c r="C1095" s="9"/>
+      <c r="D1095" s="9"/>
       <c r="E1095" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1095" s="9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1096" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22463,13 +22500,13 @@
       <c r="B1098" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1098" s="9"/>
+      <c r="C1098" s="12"/>
       <c r="D1098" s="9"/>
       <c r="E1098" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1098" s="9" t="s">
-        <v>17</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1099" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22479,13 +22516,13 @@
       <c r="B1099" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1099" s="12"/>
+      <c r="C1099" s="9"/>
       <c r="D1099" s="9"/>
       <c r="E1099" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1099" s="9" t="s">
-        <v>1559</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1100" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22495,36 +22532,34 @@
       <c r="B1100" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1100" s="9"/>
+      <c r="C1100" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D1100" s="9"/>
       <c r="E1100" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F1100" s="9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1101" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1101" s="9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B1101" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1101" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1101" s="9"/>
+      <c r="A1101" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1101" s="10"/>
+      <c r="C1101" s="10"/>
+      <c r="D1101" s="10"/>
       <c r="E1101" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F1101" s="9" t="s">
-        <v>37</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1102" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1102" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B1102" s="10"/>
       <c r="C1102" s="10"/>
@@ -22538,7 +22573,7 @@
     </row>
     <row r="1103" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1103" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B1103" s="10"/>
       <c r="C1103" s="10"/>
@@ -22552,7 +22587,7 @@
     </row>
     <row r="1104" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1104" s="5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B1104" s="10"/>
       <c r="C1104" s="10"/>
@@ -22566,7 +22601,7 @@
     </row>
     <row r="1105" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1105" s="5" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B1105" s="10"/>
       <c r="C1105" s="10"/>
@@ -22580,7 +22615,7 @@
     </row>
     <row r="1106" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1106" s="5" t="s">
-        <v>505</v>
+        <v>430</v>
       </c>
       <c r="B1106" s="10"/>
       <c r="C1106" s="10"/>
@@ -22594,9 +22629,11 @@
     </row>
     <row r="1107" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1107" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1107" s="10"/>
+        <v>431</v>
+      </c>
+      <c r="B1107" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C1107" s="10"/>
       <c r="D1107" s="10"/>
       <c r="E1107" s="9" t="s">
@@ -22608,11 +22645,9 @@
     </row>
     <row r="1108" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1108" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B1108" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="B1108" s="10"/>
       <c r="C1108" s="10"/>
       <c r="D1108" s="10"/>
       <c r="E1108" s="9" t="s">
@@ -22624,7 +22659,7 @@
     </row>
     <row r="1109" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1109" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B1109" s="10"/>
       <c r="C1109" s="10"/>
@@ -22638,7 +22673,7 @@
     </row>
     <row r="1110" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1110" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B1110" s="10"/>
       <c r="C1110" s="10"/>
@@ -22652,7 +22687,7 @@
     </row>
     <row r="1111" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B1111" s="10"/>
       <c r="C1111" s="10"/>
@@ -22666,7 +22701,7 @@
     </row>
     <row r="1112" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1112" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B1112" s="10"/>
       <c r="C1112" s="10"/>
@@ -22680,7 +22715,7 @@
     </row>
     <row r="1113" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1113" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B1113" s="10"/>
       <c r="C1113" s="10"/>
@@ -22694,7 +22729,7 @@
     </row>
     <row r="1114" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1114" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B1114" s="10"/>
       <c r="C1114" s="10"/>
@@ -22708,7 +22743,7 @@
     </row>
     <row r="1115" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1115" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B1115" s="10"/>
       <c r="C1115" s="10"/>
@@ -22722,7 +22757,7 @@
     </row>
     <row r="1116" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1116" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B1116" s="10"/>
       <c r="C1116" s="10"/>
@@ -22736,7 +22771,7 @@
     </row>
     <row r="1117" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1117" s="5" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B1117" s="10"/>
       <c r="C1117" s="10"/>
@@ -22750,7 +22785,7 @@
     </row>
     <row r="1118" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1118" s="5" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="B1118" s="10"/>
       <c r="C1118" s="10"/>
@@ -22764,7 +22799,7 @@
     </row>
     <row r="1119" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1119" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B1119" s="10"/>
       <c r="C1119" s="10"/>
@@ -22778,7 +22813,7 @@
     </row>
     <row r="1120" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1120" s="5" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="B1120" s="10"/>
       <c r="C1120" s="10"/>
@@ -22792,7 +22827,7 @@
     </row>
     <row r="1121" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1121" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1121" s="10"/>
       <c r="C1121" s="10"/>
@@ -22806,7 +22841,7 @@
     </row>
     <row r="1122" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1122" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B1122" s="10"/>
       <c r="C1122" s="10"/>
@@ -22820,7 +22855,7 @@
     </row>
     <row r="1123" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1123" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B1123" s="10"/>
       <c r="C1123" s="10"/>
@@ -22834,7 +22869,7 @@
     </row>
     <row r="1124" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1124" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B1124" s="10"/>
       <c r="C1124" s="10"/>
@@ -22848,7 +22883,7 @@
     </row>
     <row r="1125" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1125" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B1125" s="10"/>
       <c r="C1125" s="10"/>
@@ -22862,7 +22897,7 @@
     </row>
     <row r="1126" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1126" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B1126" s="10"/>
       <c r="C1126" s="10"/>
@@ -22876,7 +22911,7 @@
     </row>
     <row r="1127" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1127" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B1127" s="10"/>
       <c r="C1127" s="10"/>
@@ -22890,7 +22925,7 @@
     </row>
     <row r="1128" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1128" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B1128" s="10"/>
       <c r="C1128" s="10"/>
@@ -22904,7 +22939,7 @@
     </row>
     <row r="1129" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1129" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B1129" s="10"/>
       <c r="C1129" s="10"/>
@@ -22918,7 +22953,7 @@
     </row>
     <row r="1130" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1130" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B1130" s="10"/>
       <c r="C1130" s="10"/>
@@ -22932,7 +22967,7 @@
     </row>
     <row r="1131" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1131" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B1131" s="10"/>
       <c r="C1131" s="10"/>
@@ -22946,7 +22981,7 @@
     </row>
     <row r="1132" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1132" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B1132" s="10"/>
       <c r="C1132" s="10"/>
@@ -22960,7 +22995,7 @@
     </row>
     <row r="1133" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B1133" s="10"/>
       <c r="C1133" s="10"/>
@@ -22974,7 +23009,7 @@
     </row>
     <row r="1134" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B1134" s="10"/>
       <c r="C1134" s="10"/>
@@ -22988,7 +23023,7 @@
     </row>
     <row r="1135" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="5" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="B1135" s="10"/>
       <c r="C1135" s="10"/>
@@ -23002,7 +23037,7 @@
     </row>
     <row r="1136" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1136" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B1136" s="10"/>
       <c r="C1136" s="10"/>
@@ -23016,7 +23051,7 @@
     </row>
     <row r="1137" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1137" s="5" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="B1137" s="10"/>
       <c r="C1137" s="10"/>
@@ -23030,7 +23065,7 @@
     </row>
     <row r="1138" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1138" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1138" s="10"/>
       <c r="C1138" s="10"/>
@@ -23044,7 +23079,7 @@
     </row>
     <row r="1139" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1139" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B1139" s="10"/>
       <c r="C1139" s="10"/>
@@ -23058,7 +23093,7 @@
     </row>
     <row r="1140" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1140" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B1140" s="10"/>
       <c r="C1140" s="10"/>
@@ -23072,7 +23107,7 @@
     </row>
     <row r="1141" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1141" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B1141" s="10"/>
       <c r="C1141" s="10"/>
@@ -23086,7 +23121,7 @@
     </row>
     <row r="1142" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1142" s="5" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B1142" s="10"/>
       <c r="C1142" s="10"/>
@@ -23100,7 +23135,7 @@
     </row>
     <row r="1143" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1143" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B1143" s="10"/>
       <c r="C1143" s="10"/>
@@ -23114,7 +23149,7 @@
     </row>
     <row r="1144" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1144" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B1144" s="10"/>
       <c r="C1144" s="10"/>
@@ -23128,7 +23163,7 @@
     </row>
     <row r="1145" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1145" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B1145" s="10"/>
       <c r="C1145" s="10"/>
@@ -23142,7 +23177,7 @@
     </row>
     <row r="1146" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1146" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B1146" s="10"/>
       <c r="C1146" s="10"/>
@@ -23156,7 +23191,7 @@
     </row>
     <row r="1147" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1147" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B1147" s="10"/>
       <c r="C1147" s="10"/>
@@ -23170,7 +23205,7 @@
     </row>
     <row r="1148" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1148" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B1148" s="10"/>
       <c r="C1148" s="10"/>
@@ -23184,7 +23219,7 @@
     </row>
     <row r="1149" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1149" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B1149" s="10"/>
       <c r="C1149" s="10"/>
@@ -23198,7 +23233,7 @@
     </row>
     <row r="1150" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1150" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B1150" s="10"/>
       <c r="C1150" s="10"/>
@@ -23212,7 +23247,7 @@
     </row>
     <row r="1151" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1151" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B1151" s="10"/>
       <c r="C1151" s="10"/>
@@ -23226,7 +23261,7 @@
     </row>
     <row r="1152" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1152" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B1152" s="10"/>
       <c r="C1152" s="10"/>
@@ -23240,7 +23275,7 @@
     </row>
     <row r="1153" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1153" s="5" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="B1153" s="10"/>
       <c r="C1153" s="10"/>
@@ -23254,7 +23289,7 @@
     </row>
     <row r="1154" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1154" s="5" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="B1154" s="10"/>
       <c r="C1154" s="10"/>
@@ -23268,7 +23303,7 @@
     </row>
     <row r="1155" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B1155" s="10"/>
       <c r="C1155" s="10"/>
@@ -23282,7 +23317,7 @@
     </row>
     <row r="1156" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1156" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B1156" s="10"/>
       <c r="C1156" s="10"/>
@@ -23296,7 +23331,7 @@
     </row>
     <row r="1157" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1157" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B1157" s="10"/>
       <c r="C1157" s="10"/>
@@ -23310,7 +23345,7 @@
     </row>
     <row r="1158" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1158" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B1158" s="10"/>
       <c r="C1158" s="10"/>
@@ -23324,7 +23359,7 @@
     </row>
     <row r="1159" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1159" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B1159" s="10"/>
       <c r="C1159" s="10"/>
@@ -23338,7 +23373,7 @@
     </row>
     <row r="1160" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1160" s="5" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="B1160" s="10"/>
       <c r="C1160" s="10"/>
@@ -23352,9 +23387,11 @@
     </row>
     <row r="1161" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1161" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1161" s="10"/>
+        <v>479</v>
+      </c>
+      <c r="B1161" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C1161" s="10"/>
       <c r="D1161" s="10"/>
       <c r="E1161" s="9" t="s">
@@ -23366,11 +23403,9 @@
     </row>
     <row r="1162" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1162" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1162" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="B1162" s="10"/>
       <c r="C1162" s="10"/>
       <c r="D1162" s="10"/>
       <c r="E1162" s="9" t="s">
@@ -23382,7 +23417,7 @@
     </row>
     <row r="1163" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1163" s="5" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="B1163" s="10"/>
       <c r="C1163" s="10"/>
@@ -23396,7 +23431,7 @@
     </row>
     <row r="1164" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1164" s="5" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="B1164" s="10"/>
       <c r="C1164" s="10"/>
@@ -23410,7 +23445,7 @@
     </row>
     <row r="1165" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1165" s="5" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="B1165" s="10"/>
       <c r="C1165" s="10"/>
@@ -23424,7 +23459,7 @@
     </row>
     <row r="1166" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1166" s="5" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="B1166" s="10"/>
       <c r="C1166" s="10"/>
@@ -23438,7 +23473,7 @@
     </row>
     <row r="1167" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1167" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B1167" s="10"/>
       <c r="C1167" s="10"/>
@@ -23452,7 +23487,7 @@
     </row>
     <row r="1168" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1168" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B1168" s="10"/>
       <c r="C1168" s="10"/>
@@ -23466,7 +23501,7 @@
     </row>
     <row r="1169" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1169" s="5" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="B1169" s="10"/>
       <c r="C1169" s="10"/>
@@ -23480,7 +23515,7 @@
     </row>
     <row r="1170" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1170" s="5" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="B1170" s="10"/>
       <c r="C1170" s="10"/>
@@ -23494,7 +23529,7 @@
     </row>
     <row r="1171" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1171" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B1171" s="10"/>
       <c r="C1171" s="10"/>
@@ -23508,7 +23543,7 @@
     </row>
     <row r="1172" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1172" s="5" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="B1172" s="10"/>
       <c r="C1172" s="10"/>
@@ -23522,7 +23557,7 @@
     </row>
     <row r="1173" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1173" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B1173" s="10"/>
       <c r="C1173" s="10"/>
@@ -23536,7 +23571,7 @@
     </row>
     <row r="1174" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1174" s="5" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="B1174" s="10"/>
       <c r="C1174" s="10"/>
@@ -23550,7 +23585,7 @@
     </row>
     <row r="1175" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1175" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B1175" s="10"/>
       <c r="C1175" s="10"/>
@@ -23564,7 +23599,7 @@
     </row>
     <row r="1176" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1176" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B1176" s="10"/>
       <c r="C1176" s="10"/>
@@ -23578,7 +23613,7 @@
     </row>
     <row r="1177" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1177" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B1177" s="10"/>
       <c r="C1177" s="10"/>
@@ -23592,7 +23627,7 @@
     </row>
     <row r="1178" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1178" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B1178" s="10"/>
       <c r="C1178" s="10"/>
@@ -23606,7 +23641,7 @@
     </row>
     <row r="1179" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1179" s="5" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B1179" s="10"/>
       <c r="C1179" s="10"/>
@@ -23620,7 +23655,7 @@
     </row>
     <row r="1180" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1180" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B1180" s="10"/>
       <c r="C1180" s="10"/>
@@ -23634,7 +23669,7 @@
     </row>
     <row r="1181" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1181" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B1181" s="10"/>
       <c r="C1181" s="10"/>
@@ -23648,7 +23683,7 @@
     </row>
     <row r="1182" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1182" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1182" s="10"/>
       <c r="C1182" s="10"/>
@@ -23662,7 +23697,7 @@
     </row>
     <row r="1183" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1183" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B1183" s="10"/>
       <c r="C1183" s="10"/>
@@ -23676,7 +23711,7 @@
     </row>
     <row r="1184" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1184" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B1184" s="10"/>
       <c r="C1184" s="10"/>
@@ -23690,7 +23725,7 @@
     </row>
     <row r="1185" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1185" s="5" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
       <c r="B1185" s="10"/>
       <c r="C1185" s="10"/>
@@ -23703,17 +23738,19 @@
       </c>
     </row>
     <row r="1186" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1186" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B1186" s="10"/>
-      <c r="C1186" s="10"/>
-      <c r="D1186" s="10"/>
+      <c r="A1186" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1186" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1186" s="9"/>
+      <c r="D1186" s="9"/>
       <c r="E1186" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F1186" s="9" t="s">
-        <v>512</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1187" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23723,13 +23760,13 @@
       <c r="B1187" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1187" s="9"/>
+      <c r="C1187" s="12"/>
       <c r="D1187" s="9"/>
       <c r="E1187" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1187" s="9" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1188" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23787,13 +23824,13 @@
       <c r="B1191" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1191" s="12"/>
+      <c r="C1191" s="9"/>
       <c r="D1191" s="9"/>
       <c r="E1191" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F1191" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1192" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23829,20 +23866,12 @@
       </c>
     </row>
     <row r="1194" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1194" s="9" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B1194" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1194" s="9"/>
-      <c r="D1194" s="9"/>
-      <c r="E1194" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1194" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A1194" s="9"/>
+      <c r="B1194" s="10"/>
+      <c r="C1194" s="10"/>
+      <c r="D1194" s="10"/>
+      <c r="E1194" s="9"/>
+      <c r="F1194" s="9"/>
     </row>
     <row r="1195" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1195" s="9"/>
@@ -23869,85 +23898,82 @@
       <c r="F1197" s="9"/>
     </row>
     <row r="1198" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1198" s="9"/>
-      <c r="B1198" s="10"/>
+      <c r="A1198" s="5"/>
+      <c r="B1198" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C1198" s="10"/>
       <c r="D1198" s="10"/>
       <c r="E1198" s="9"/>
       <c r="F1198" s="9"/>
     </row>
-    <row r="1199" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1199" s="5"/>
-      <c r="B1199" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1199" s="10"/>
-      <c r="D1199" s="10"/>
       <c r="E1199" s="9"/>
       <c r="F1199" s="9"/>
     </row>
     <row r="1200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1200" s="5"/>
+      <c r="B1200" s="10"/>
+      <c r="C1200" s="10"/>
+      <c r="D1200" s="10"/>
       <c r="E1200" s="9"/>
       <c r="F1200" s="9"/>
     </row>
     <row r="1201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1201" s="5"/>
-      <c r="B1201" s="10"/>
-      <c r="C1201" s="10"/>
-      <c r="D1201" s="10"/>
       <c r="E1201" s="9"/>
       <c r="F1201" s="9"/>
     </row>
     <row r="1202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1202" s="5"/>
+      <c r="B1202" s="10"/>
+      <c r="C1202" s="10"/>
+      <c r="D1202" s="10"/>
       <c r="E1202" s="9"/>
       <c r="F1202" s="9"/>
     </row>
     <row r="1203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1203" s="5"/>
-      <c r="B1203" s="10"/>
-      <c r="C1203" s="10"/>
-      <c r="D1203" s="10"/>
       <c r="E1203" s="9"/>
       <c r="F1203" s="9"/>
     </row>
     <row r="1204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1204" s="5"/>
+      <c r="B1204" s="10"/>
+      <c r="C1204" s="10"/>
+      <c r="D1204" s="10"/>
       <c r="E1204" s="9"/>
       <c r="F1204" s="9"/>
     </row>
     <row r="1205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1205" s="5"/>
-      <c r="B1205" s="10"/>
-      <c r="C1205" s="10"/>
-      <c r="D1205" s="10"/>
       <c r="E1205" s="9"/>
       <c r="F1205" s="9"/>
     </row>
     <row r="1206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1206" s="5"/>
+      <c r="B1206" s="10"/>
+      <c r="C1206" s="10"/>
+      <c r="D1206" s="10"/>
       <c r="E1206" s="9"/>
       <c r="F1206" s="9"/>
     </row>
     <row r="1207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1207" s="5"/>
-      <c r="B1207" s="10"/>
-      <c r="C1207" s="10"/>
-      <c r="D1207" s="10"/>
       <c r="E1207" s="9"/>
       <c r="F1207" s="9"/>
     </row>
     <row r="1208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1208" s="5"/>
+      <c r="B1208" s="10"/>
+      <c r="C1208" s="10"/>
+      <c r="D1208" s="10"/>
       <c r="E1208" s="9"/>
       <c r="F1208" s="9"/>
     </row>
     <row r="1209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1209" s="5"/>
-      <c r="B1209" s="10"/>
-      <c r="C1209" s="10"/>
-      <c r="D1209" s="10"/>
       <c r="E1209" s="9"/>
       <c r="F1209" s="9"/>
     </row>
@@ -23958,141 +23984,136 @@
     </row>
     <row r="1211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1211" s="5"/>
+      <c r="B1211" s="10"/>
+      <c r="C1211" s="10"/>
+      <c r="D1211" s="10"/>
       <c r="E1211" s="9"/>
       <c r="F1211" s="9"/>
     </row>
     <row r="1212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1212" s="5"/>
-      <c r="B1212" s="10"/>
-      <c r="C1212" s="10"/>
-      <c r="D1212" s="10"/>
       <c r="E1212" s="9"/>
       <c r="F1212" s="9"/>
     </row>
     <row r="1213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1213" s="5"/>
+      <c r="B1213" s="10"/>
+      <c r="C1213" s="10"/>
+      <c r="D1213" s="10"/>
       <c r="E1213" s="9"/>
       <c r="F1213" s="9"/>
     </row>
     <row r="1214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1214" s="5"/>
-      <c r="B1214" s="10"/>
-      <c r="C1214" s="10"/>
-      <c r="D1214" s="10"/>
       <c r="E1214" s="9"/>
       <c r="F1214" s="9"/>
     </row>
     <row r="1215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1215" s="5"/>
+      <c r="B1215" s="10"/>
+      <c r="C1215" s="10"/>
+      <c r="D1215" s="10"/>
       <c r="E1215" s="9"/>
       <c r="F1215" s="9"/>
     </row>
     <row r="1216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1216" s="5"/>
-      <c r="B1216" s="10"/>
-      <c r="C1216" s="10"/>
-      <c r="D1216" s="10"/>
       <c r="E1216" s="9"/>
       <c r="F1216" s="9"/>
     </row>
     <row r="1217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1217" s="5"/>
+      <c r="B1217" s="10"/>
+      <c r="C1217" s="10"/>
+      <c r="D1217" s="10"/>
       <c r="E1217" s="9"/>
       <c r="F1217" s="9"/>
     </row>
     <row r="1218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1218" s="5"/>
-      <c r="B1218" s="10"/>
-      <c r="C1218" s="10"/>
-      <c r="D1218" s="10"/>
       <c r="E1218" s="9"/>
       <c r="F1218" s="9"/>
     </row>
     <row r="1219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1219" s="5"/>
+      <c r="B1219" s="10"/>
+      <c r="C1219" s="10"/>
+      <c r="D1219" s="10"/>
       <c r="E1219" s="9"/>
       <c r="F1219" s="9"/>
     </row>
     <row r="1220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1220" s="5"/>
-      <c r="B1220" s="10"/>
-      <c r="C1220" s="10"/>
-      <c r="D1220" s="10"/>
       <c r="E1220" s="9"/>
       <c r="F1220" s="9"/>
     </row>
     <row r="1221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1221" s="5"/>
+      <c r="B1221" s="10"/>
+      <c r="C1221" s="10"/>
+      <c r="D1221" s="10"/>
       <c r="E1221" s="9"/>
       <c r="F1221" s="9"/>
     </row>
     <row r="1222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1222" s="5"/>
-      <c r="B1222" s="10"/>
-      <c r="C1222" s="10"/>
-      <c r="D1222" s="10"/>
       <c r="E1222" s="9"/>
       <c r="F1222" s="9"/>
     </row>
     <row r="1223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1223" s="5"/>
+      <c r="B1223" s="10"/>
+      <c r="C1223" s="10"/>
+      <c r="D1223" s="10"/>
       <c r="E1223" s="9"/>
       <c r="F1223" s="9"/>
     </row>
     <row r="1224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1224" s="5"/>
-      <c r="B1224" s="10"/>
-      <c r="C1224" s="10"/>
-      <c r="D1224" s="10"/>
       <c r="E1224" s="9"/>
       <c r="F1224" s="9"/>
     </row>
     <row r="1225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1225" s="5"/>
+      <c r="B1225" s="10"/>
+      <c r="C1225" s="10"/>
+      <c r="D1225" s="10"/>
       <c r="E1225" s="9"/>
       <c r="F1225" s="9"/>
     </row>
     <row r="1226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1226" s="5"/>
-      <c r="B1226" s="10"/>
-      <c r="C1226" s="10"/>
-      <c r="D1226" s="10"/>
       <c r="E1226" s="9"/>
       <c r="F1226" s="9"/>
     </row>
     <row r="1227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1227" s="5"/>
+      <c r="B1227" s="10"/>
+      <c r="C1227" s="10"/>
+      <c r="D1227" s="10"/>
       <c r="E1227" s="9"/>
       <c r="F1227" s="9"/>
     </row>
     <row r="1228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1228" s="5"/>
-      <c r="B1228" s="10"/>
-      <c r="C1228" s="10"/>
-      <c r="D1228" s="10"/>
       <c r="E1228" s="9"/>
       <c r="F1228" s="9"/>
     </row>
     <row r="1229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1229" s="5"/>
+      <c r="B1229" s="10"/>
+      <c r="C1229" s="10"/>
+      <c r="D1229" s="10"/>
       <c r="E1229" s="9"/>
       <c r="F1229" s="9"/>
     </row>
     <row r="1230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1230" s="5"/>
-      <c r="B1230" s="10"/>
-      <c r="C1230" s="10"/>
-      <c r="D1230" s="10"/>
       <c r="E1230" s="9"/>
       <c r="F1230" s="9"/>
     </row>
-    <row r="1231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1231" s="5"/>
-      <c r="E1231" s="9"/>
-      <c r="F1231" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F1199" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F1198" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -24102,33 +24123,22 @@
       </filters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="Array"/>
-        <filter val="Codeblock"/>
-        <filter val="Conversion"/>
-        <filter val="Debugging"/>
-        <filter val="Directory"/>
+      <filters>
         <filter val="Encoding"/>
         <filter val="Error"/>
-        <filter val="FileIO"/>
         <filter val="FileSearch"/>
-        <filter val="Macro"/>
-        <filter val="OOP"/>
         <filter val="OS"/>
         <filter val="Other"/>
-        <filter val="Psz"/>
-        <filter val="Registry"/>
         <filter val="Settings"/>
         <filter val="String"/>
-        <filter val="Usual"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:F1198">
-      <sortCondition ref="A2:A1198"/>
+    <sortState ref="A2:F1197">
+      <sortCondition ref="A2:A1197"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:F1231">
-    <sortCondition ref="A2:A1231"/>
+  <sortState ref="A2:F1230">
+    <sortCondition ref="A2:A1230"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1B3B8227-5309-41F2-BEF3-D475FB3139A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E063F79D-6A20-4CD6-93E3-9075CA8B00FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6324" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6328" uniqueCount="1617">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -5304,7 +5304,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
+      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6612,7 +6612,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>515</v>
       </c>
@@ -7078,11 +7078,13 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B120" s="10"/>
+      <c r="B120" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C120" s="10"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
@@ -7092,11 +7094,13 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="B121" s="10"/>
+      <c r="B121" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C121" s="10"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
@@ -10380,11 +10384,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B331" s="10"/>
+      <c r="B331" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C331" s="12"/>
       <c r="D331" s="9"/>
       <c r="E331" s="9" t="s">
@@ -11048,11 +11054,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="B373" s="10"/>
+      <c r="B373" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C373" s="12"/>
       <c r="D373" s="9"/>
       <c r="E373" s="9" t="s">

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41680603-9A76-4C9C-9F1F-77BF1024A1C4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F26BD19-4093-4257-B25E-DDBBB1F92DF2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6398" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6418" uniqueCount="1618">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -5307,7 +5307,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F490" sqref="F490"/>
+      <selection pane="bottomLeft" activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6651,7 +6651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -7087,11 +7087,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="B118" s="10"/>
+      <c r="B118" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
@@ -7133,7 +7135,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>542</v>
       </c>
@@ -7479,18 +7481,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="B142" s="10"/>
+      <c r="B142" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -7909,18 +7913,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B168" s="10"/>
+      <c r="B168" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9291,18 +9297,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="B255" s="10"/>
+      <c r="B255" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C255" s="12"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10213,11 +10221,13 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B314" s="10"/>
+      <c r="B314" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
       <c r="E314" s="9" t="s">
@@ -10435,7 +10445,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>694</v>
       </c>
@@ -11275,7 +11285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>742</v>
       </c>
@@ -12913,7 +12923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>811</v>
       </c>
@@ -12927,11 +12937,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="B482" s="10"/>
+      <c r="B482" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C482" s="12"/>
       <c r="D482" s="9"/>
       <c r="E482" s="9" t="s">
@@ -12991,7 +13003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>816</v>
       </c>
@@ -13005,11 +13017,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="B487" s="10"/>
+      <c r="B487" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C487" s="12"/>
       <c r="D487" s="9"/>
       <c r="E487" s="9" t="s">
@@ -13053,7 +13067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>820</v>
       </c>
@@ -13069,7 +13083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>821</v>
       </c>
@@ -15011,25 +15025,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="B609" s="10"/>
+      <c r="B609" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C609" s="10"/>
       <c r="D609" s="9"/>
       <c r="E609" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F609" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="610" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="B610" s="10"/>
+      <c r="B610" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C610" s="9"/>
       <c r="D610" s="9"/>
       <c r="E610" s="9" t="s">
@@ -15227,7 +15245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="s">
         <v>936</v>
       </c>
@@ -15659,7 +15677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
         <v>963</v>
       </c>
@@ -15673,7 +15691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="s">
         <v>964</v>
       </c>
@@ -16121,11 +16139,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="9" t="s">
         <v>1425</v>
       </c>
-      <c r="B678" s="10"/>
+      <c r="B678" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C678" s="10"/>
       <c r="D678" s="9"/>
       <c r="E678" s="9" t="s">
@@ -16169,11 +16189,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="B681" s="10"/>
+      <c r="B681" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C681" s="9"/>
       <c r="D681" s="9"/>
       <c r="E681" s="9" t="s">
@@ -16465,7 +16487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="9" t="s">
         <v>1011</v>
       </c>
@@ -16495,11 +16517,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="B702" s="10"/>
+      <c r="B702" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C702" s="9"/>
       <c r="D702" s="9"/>
       <c r="E702" s="9" t="s">
@@ -16527,11 +16551,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="B704" s="10"/>
+      <c r="B704" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C704" s="9"/>
       <c r="D704" s="9"/>
       <c r="E704" s="9" t="s">
@@ -16541,11 +16567,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="B705" s="10"/>
+      <c r="B705" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C705" s="9"/>
       <c r="D705" s="9"/>
       <c r="E705" s="9" t="s">
@@ -16555,11 +16583,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="B706" s="10"/>
+      <c r="B706" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C706" s="9"/>
       <c r="D706" s="9"/>
       <c r="E706" s="9" t="s">
@@ -16569,11 +16599,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="B707" s="10"/>
+      <c r="B707" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C707" s="9"/>
       <c r="D707" s="9"/>
       <c r="E707" s="9" t="s">
@@ -16583,11 +16615,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="B708" s="10"/>
+      <c r="B708" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C708" s="10"/>
       <c r="D708" s="9"/>
       <c r="E708" s="9" t="s">
@@ -16633,11 +16667,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="B711" s="10"/>
+      <c r="B711" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C711" s="9"/>
       <c r="D711" s="9"/>
       <c r="E711" s="9" t="s">
@@ -16647,7 +16683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="9" t="s">
         <v>1020</v>
       </c>
@@ -16757,7 +16793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="9" t="s">
         <v>1027</v>
       </c>
@@ -16773,7 +16809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="9" t="s">
         <v>1028</v>
       </c>
@@ -16935,7 +16971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="9" t="s">
         <v>1037</v>
       </c>
@@ -17624,7 +17660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="s">
         <v>1060</v>
       </c>
@@ -17638,7 +17674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="9" t="s">
         <v>1061</v>
       </c>
@@ -18318,7 +18354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="9" t="s">
         <v>1095</v>
       </c>
@@ -18676,7 +18712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="9" t="s">
         <v>1109</v>
       </c>
@@ -19584,7 +19620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="9" t="s">
         <v>1155</v>
       </c>
@@ -19598,7 +19634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="9" t="s">
         <v>1156</v>
       </c>
@@ -19660,11 +19696,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="B901" s="10"/>
+      <c r="B901" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C901" s="9"/>
       <c r="D901" s="9"/>
       <c r="E901" s="9" t="s">
@@ -19674,18 +19712,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="B902" s="10"/>
+      <c r="B902" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C902" s="9"/>
       <c r="D902" s="9"/>
       <c r="E902" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F902" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="903" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19888,7 +19928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="9" t="s">
         <v>1173</v>
       </c>
@@ -20428,7 +20468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="9" t="s">
         <v>1201</v>
       </c>
@@ -20726,7 +20766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="9" t="s">
         <v>1217</v>
       </c>
@@ -25100,15 +25140,8 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="Directory"/>
         <filter val="Encoding"/>
-        <filter val="FileIO"/>
-        <filter val="Macro"/>
-        <filter val="Nation"/>
-        <filter val="Other"/>
-        <filter val="Psz"/>
         <filter val="String"/>
-        <filter val="Usual"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:F1198">

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F26BD19-4093-4257-B25E-DDBBB1F92DF2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F2489D3-14DD-4C09-B573-17222C5FD203}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6418" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6420" uniqueCount="1618">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -5306,8 +5306,8 @@
   <dimension ref="A1:F1231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B270" sqref="B270"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C960" sqref="C960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6651,7 +6651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>542</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>560</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>601</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>602</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>603</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>604</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>605</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>606</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>607</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>608</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>609</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>610</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>611</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>612</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>613</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>614</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>615</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>616</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>617</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>618</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>619</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>620</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>621</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>694</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>742</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>1548</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>811</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>814</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>816</v>
       </c>
@@ -13083,11 +13083,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B491" s="10"/>
+      <c r="B491" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C491" s="12"/>
       <c r="D491" s="9"/>
       <c r="E491" s="9" t="s">
@@ -15245,7 +15247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="s">
         <v>936</v>
       </c>
@@ -15677,7 +15679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
         <v>963</v>
       </c>
@@ -15691,7 +15693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="s">
         <v>964</v>
       </c>
@@ -16335,7 +16337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A690" s="9" t="s">
         <v>1002</v>
       </c>
@@ -16349,7 +16351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A691" s="9" t="s">
         <v>1003</v>
       </c>
@@ -16363,7 +16365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A692" s="9" t="s">
         <v>1004</v>
       </c>
@@ -16377,7 +16379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A693" s="9" t="s">
         <v>1005</v>
       </c>
@@ -16391,7 +16393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A694" s="9" t="s">
         <v>1006</v>
       </c>
@@ -16405,7 +16407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A695" s="9" t="s">
         <v>1007</v>
       </c>
@@ -16487,7 +16489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A700" s="9" t="s">
         <v>1011</v>
       </c>
@@ -16683,7 +16685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A712" s="9" t="s">
         <v>1020</v>
       </c>
@@ -16971,7 +16973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A730" s="9" t="s">
         <v>1037</v>
       </c>
@@ -17660,7 +17662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="s">
         <v>1060</v>
       </c>
@@ -17674,7 +17676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A778" s="9" t="s">
         <v>1061</v>
       </c>
@@ -18354,7 +18356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A819" s="9" t="s">
         <v>1095</v>
       </c>
@@ -18712,7 +18714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A840" s="9" t="s">
         <v>1109</v>
       </c>
@@ -19620,7 +19622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A896" s="9" t="s">
         <v>1155</v>
       </c>
@@ -19634,7 +19636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A897" s="9" t="s">
         <v>1156</v>
       </c>
@@ -19928,7 +19930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A915" s="9" t="s">
         <v>1173</v>
       </c>
@@ -20468,7 +20470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A947" s="9" t="s">
         <v>1201</v>
       </c>
@@ -20684,7 +20686,9 @@
       <c r="A960" s="9" t="s">
         <v>1214</v>
       </c>
-      <c r="B960" s="10"/>
+      <c r="B960" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C960" s="9"/>
       <c r="D960" s="9"/>
       <c r="E960" s="9" t="s">
@@ -20766,7 +20770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A965" s="9" t="s">
         <v>1217</v>
       </c>
@@ -21018,7 +21022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="981" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A981" s="9" t="s">
         <v>1231</v>
       </c>
@@ -21032,7 +21036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="982" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A982" s="9" t="s">
         <v>1232</v>
       </c>
@@ -21062,7 +21066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A984" s="9" t="s">
         <v>1234</v>
       </c>
@@ -21076,7 +21080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A985" s="9" t="s">
         <v>1235</v>
       </c>
@@ -25138,12 +25142,6 @@
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Encoding"/>
-        <filter val="String"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:F1198">
       <sortCondition ref="A2:A1198"/>
     </sortState>

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F2489D3-14DD-4C09-B573-17222C5FD203}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{960C8D31-9460-4A1D-A1F5-47DDCF14803D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6420" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6424" uniqueCount="1618">
   <si>
     <t>function DbInfo(iInfo as INT) as OBJECT</t>
   </si>
@@ -5306,8 +5306,8 @@
   <dimension ref="A1:F1231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C960" sqref="C960"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6605,7 +6605,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>514</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>524</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>532</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>533</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>534</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>536</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>537</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>538</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>542</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>543</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>544</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>545</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>1615</v>
       </c>
@@ -7221,14 +7221,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>546</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
         <v>14</v>
@@ -7237,7 +7239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>547</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>548</v>
       </c>
@@ -7497,11 +7499,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="B143" s="10"/>
+      <c r="B143" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
@@ -7511,7 +7515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>561</v>
       </c>
@@ -7543,7 +7547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>563</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>564</v>
       </c>
@@ -7577,7 +7581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>565</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>566</v>
       </c>
@@ -7627,7 +7631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>1610</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>568</v>
       </c>
@@ -7659,7 +7663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>569</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>570</v>
       </c>
@@ -7691,7 +7695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>571</v>
       </c>
@@ -7707,7 +7711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>572</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>574</v>
       </c>
@@ -7777,7 +7781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>575</v>
       </c>
@@ -7845,7 +7849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>578</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>579</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>580</v>
       </c>
@@ -8017,7 +8021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>588</v>
       </c>
@@ -8033,7 +8037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>589</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>601</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>602</v>
       </c>
@@ -8265,7 +8269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>603</v>
       </c>
@@ -8279,7 +8283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>604</v>
       </c>
@@ -8293,7 +8297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>605</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>606</v>
       </c>
@@ -8321,7 +8325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>607</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>608</v>
       </c>
@@ -8349,7 +8353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>609</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>610</v>
       </c>
@@ -8377,7 +8381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>611</v>
       </c>
@@ -8391,7 +8395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>612</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>613</v>
       </c>
@@ -8419,7 +8423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>614</v>
       </c>
@@ -8433,7 +8437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>615</v>
       </c>
@@ -8447,7 +8451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>616</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>617</v>
       </c>
@@ -8475,7 +8479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>618</v>
       </c>
@@ -8489,7 +8493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>619</v>
       </c>
@@ -8503,7 +8507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>620</v>
       </c>
@@ -8517,7 +8521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>621</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>623</v>
       </c>
@@ -8561,7 +8565,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>624</v>
       </c>
@@ -9533,7 +9537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>670</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>671</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>694</v>
       </c>
@@ -11285,7 +11289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>742</v>
       </c>
@@ -12691,11 +12695,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="B467" s="10"/>
+      <c r="B467" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C467" s="10"/>
       <c r="D467" s="9"/>
       <c r="E467" s="9" t="s">
@@ -12757,7 +12763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>801</v>
       </c>
@@ -12923,7 +12929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>811</v>
       </c>
@@ -12971,7 +12977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>814</v>
       </c>
@@ -13003,7 +13009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>816</v>
       </c>
@@ -13083,7 +13089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>821</v>
       </c>
@@ -15247,7 +15253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="s">
         <v>936</v>
       </c>
@@ -15679,7 +15685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
         <v>963</v>
       </c>
@@ -15693,7 +15699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="s">
         <v>964</v>
       </c>
@@ -16337,7 +16343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="9" t="s">
         <v>1002</v>
       </c>
@@ -16351,7 +16357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="9" t="s">
         <v>1003</v>
       </c>
@@ -16365,7 +16371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="9" t="s">
         <v>1004</v>
       </c>
@@ -16379,7 +16385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="9" t="s">
         <v>1005</v>
       </c>
@@ -16393,7 +16399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="9" t="s">
         <v>1006</v>
       </c>
@@ -16407,7 +16413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="9" t="s">
         <v>1007</v>
       </c>
@@ -16489,7 +16495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="9" t="s">
         <v>1011</v>
       </c>
@@ -16685,7 +16691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="9" t="s">
         <v>1020</v>
       </c>
@@ -16973,7 +16979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="9" t="s">
         <v>1037</v>
       </c>
@@ -17662,7 +17668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="s">
         <v>1060</v>
       </c>
@@ -17676,7 +17682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="9" t="s">
         <v>1061</v>
       </c>
@@ -18020,7 +18026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="9" t="s">
         <v>1077</v>
       </c>
@@ -18356,7 +18362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="9" t="s">
         <v>1095</v>
       </c>
@@ -18714,7 +18720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="9" t="s">
         <v>1109</v>
       </c>
@@ -19622,7 +19628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="9" t="s">
         <v>1155</v>
       </c>
@@ -19636,7 +19642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="9" t="s">
         <v>1156</v>
       </c>
@@ -19930,7 +19936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="9" t="s">
         <v>1173</v>
       </c>
@@ -20470,18 +20476,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="9" t="s">
         <v>1201</v>
       </c>
-      <c r="B947" s="10"/>
+      <c r="B947" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C947" s="9"/>
       <c r="D947" s="9"/>
       <c r="E947" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F947" s="9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="948" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20682,7 +20690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="960" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="9" t="s">
         <v>1214</v>
       </c>
@@ -20770,7 +20778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="9" t="s">
         <v>1217</v>
       </c>
@@ -20946,7 +20954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="9" t="s">
         <v>1226</v>
       </c>
@@ -20960,7 +20968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="9" t="s">
         <v>1227</v>
       </c>
@@ -20974,7 +20982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="978" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="9" t="s">
         <v>1228</v>
       </c>
@@ -21022,7 +21030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="981" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="9" t="s">
         <v>1231</v>
       </c>
@@ -21036,7 +21044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="982" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="9" t="s">
         <v>1232</v>
       </c>
@@ -21066,7 +21074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="9" t="s">
         <v>1234</v>
       </c>
@@ -21080,7 +21088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="9" t="s">
         <v>1235</v>
       </c>
@@ -25139,8 +25147,10 @@
         <filter val="function Year(d AS Date) AS DWORD"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="1">
-      <filters blank="1"/>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Array"/>
+      </filters>
     </filterColumn>
     <sortState ref="A2:F1198">
       <sortCondition ref="A2:A1198"/>

--- a/Runtime/RuntimeFunctionsAndClasses.xlsx
+++ b/Runtime/RuntimeFunctionsAndClasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E7B695A-6217-44A1-9C41-35D74356DE79}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44E1229D-2DCD-451A-9003-CC6E53D29D02}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5306,7 +5306,7 @@
   <dimension ref="A1:F1230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
@@ -6605,7 +6605,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>514</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>515</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>516</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>1044</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>621</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>622</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>638</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>1519</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>668</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>669</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>681</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>692</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>722</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>724</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
         <v>745</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>1528</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>749</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
         <v>1522</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
         <v>1531</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
         <v>1532</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
         <v>752</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
         <v>1533</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
         <v>778</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
         <v>1534</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
         <v>781</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>1535</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
         <v>783</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>1536</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
         <v>1537</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>784</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>1539</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>785</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>787</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>1541</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>793</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>1542</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
         <v>1543</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>794</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
         <v>795</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
         <v>1545</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
         <v>799</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>809</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>810</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
         <v>814</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>815</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
         <v>818</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>819</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
         <v>829</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="s">
         <v>830</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="9" t="s">
         <v>834</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="s">
         <v>835</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="s">
         <v>836</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="s">
         <v>839</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="s">
         <v>844</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="9" t="s">
         <v>851</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
         <v>1518</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
         <v>864</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
         <v>867</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
         <v>870</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
         <v>922</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="9" t="s">
         <v>1423</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="9" t="s">
         <v>991</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="9" t="s">
         <v>1011</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="9" t="s">
         <v>1425</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="9" t="s">
         <v>1013</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="9" t="s">
         <v>1014</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="9" t="s">
         <v>1426</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="9" t="s">
         <v>1015</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="9" t="s">
         <v>1017</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A729" s="9" t="s">
         <v>1035</v>
       </c>
@@ -17135,7 +17135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="9" t="s">
         <v>1044</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A776" s="9" t="s">
         <v>1058</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="s">
         <v>1059</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="9" t="s">
         <v>1068</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="9" t="s">
         <v>1069</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="9" t="s">
         <v>1070</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="9" t="s">
         <v>1071</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A798" s="9" t="s">
         <v>1075</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A818" s="9" t="s">
         <v>1093</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A839" s="9" t="s">
         <v>1107</v>
       </c>
@@ -19630,7 +19630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A895" s="9" t="s">
         <v>1153</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A896" s="9" t="s">
         <v>1154</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="9" t="s">
         <v>1157</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="9" t="s">
         <v>1159</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A914" s="9" t="s">
         <v>1171</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="9" t="s">
         <v>1177</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="924" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="9" t="s">
         <v>1180</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="9" t="s">
         <v>1183</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="9" t="s">
         <v>1184</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="957" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="9" t="s">
         <v>1210</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="959" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="9" t="s">
         <v>1212</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="975" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A975" s="9" t="s">
         <v>1224</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A976" s="9" t="s">
         <v>1225</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A977" s="9" t="s">
         <v>1226</v>
       </c>
@@ -25152,9 +25152,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="2">
       <filters blank="1"/>
